--- a/02_画面設計書・モックアップ/02_画面設計書.xlsx
+++ b/02_画面設計書・モックアップ/02_画面設計書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\2023Dev3Early\02_画面設計書・モックアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7686257-3A3E-44B6-8444-626978E179EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBFE6EC-042A-4C07-B6E5-1E352471AF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="3">画面遷移図!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">表紙!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="157">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -909,34 +909,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>文字列表示</t>
-    <rPh sb="0" eb="5">
-      <t>モジレツヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>半角１０文字</t>
-    <rPh sb="0" eb="2">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>-</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ロゴ名を表示</t>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒョウジ</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -1411,6 +1384,33 @@
     </rPh>
     <rPh sb="20" eb="22">
       <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>学内交流サイト　システム設計</t>
+    <rPh sb="0" eb="4">
+      <t>ガクナイコウリュウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>サイトマップ構成図</t>
+    <rPh sb="6" eb="9">
+      <t>コウセイズ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ロゴ画像を表示</t>
+    <rPh sb="2" eb="4">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1995,6 +1995,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2004,44 +2007,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2067,6 +2049,24 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2088,23 +2088,26 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2162,9 +2165,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3243,6 +3243,56 @@
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>704646</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180256</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>448726</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>169487</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="図 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D15203E4-1AD1-5B86-FE45-8A385C9321D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1466646" y="2818579"/>
+          <a:ext cx="2423370" cy="5265876"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
@@ -3435,68 +3485,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>381192</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>419</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B3350ED-338E-7C6A-7EDD-DBEE208FAA0C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1600200" y="3169920"/>
-          <a:ext cx="2217612" cy="4831499"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>774879</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>153789</xdr:rowOff>
+      <xdr:colOff>758492</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47273</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>407831</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>53662</xdr:rowOff>
+      <xdr:colOff>391444</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>135599</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3511,8 +3511,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1536879" y="3437902"/>
-          <a:ext cx="523741" cy="286239"/>
+          <a:off x="1520492" y="3062499"/>
+          <a:ext cx="526049" cy="276777"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3554,15 +3554,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>5404</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>27818</xdr:rowOff>
+      <xdr:colOff>13597</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>175303</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>380809</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>54043</xdr:rowOff>
+      <xdr:colOff>389002</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>13075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3577,8 +3577,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3442510" y="3621648"/>
-          <a:ext cx="375405" cy="215374"/>
+          <a:off x="3454887" y="3378980"/>
+          <a:ext cx="375405" cy="214676"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3620,15 +3620,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>255081</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>185622</xdr:rowOff>
+      <xdr:colOff>172064</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>155677</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>43234</xdr:colOff>
+      <xdr:colOff>18653</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>183745</xdr:rowOff>
+      <xdr:rowOff>93616</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3643,8 +3643,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1908783" y="3779452"/>
-          <a:ext cx="1571557" cy="1511314"/>
+          <a:off x="1827161" y="3547806"/>
+          <a:ext cx="1632782" cy="1634004"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3752,15 +3752,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>792264</xdr:colOff>
+      <xdr:colOff>688258</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>79698</xdr:rowOff>
+      <xdr:rowOff>96084</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>426937</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>145914</xdr:rowOff>
+      <xdr:colOff>491613</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>106515</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3775,8 +3775,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1554264" y="6321613"/>
-          <a:ext cx="2309779" cy="1201110"/>
+          <a:off x="1450258" y="6314987"/>
+          <a:ext cx="2482645" cy="1329593"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3818,15 +3818,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>177261</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>156438</xdr:rowOff>
+      <xdr:colOff>119906</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>99083</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>464767</xdr:colOff>
+      <xdr:colOff>407412</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>21617</xdr:rowOff>
+      <xdr:rowOff>152714</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3841,8 +3841,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1830963" y="7533247"/>
-          <a:ext cx="287506" cy="243476"/>
+          <a:off x="1775003" y="7637148"/>
+          <a:ext cx="287506" cy="242082"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3884,15 +3884,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>653916</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>157519</xdr:rowOff>
+      <xdr:colOff>637529</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>116551</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>49720</xdr:colOff>
+      <xdr:colOff>33333</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>22698</xdr:rowOff>
+      <xdr:rowOff>170182</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3907,8 +3907,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2307618" y="7534328"/>
-          <a:ext cx="287506" cy="243476"/>
+          <a:off x="2292626" y="7654616"/>
+          <a:ext cx="288901" cy="242082"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3950,15 +3950,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>260486</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>147791</xdr:rowOff>
+      <xdr:colOff>252293</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>106823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>547992</xdr:colOff>
+      <xdr:colOff>539799</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>12970</xdr:rowOff>
+      <xdr:rowOff>160454</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3973,8 +3973,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2805890" y="7524600"/>
-          <a:ext cx="287506" cy="243476"/>
+          <a:off x="2800487" y="7644888"/>
+          <a:ext cx="287506" cy="242082"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4020,15 +4020,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>737141</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>138064</xdr:rowOff>
+      <xdr:colOff>769915</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>88902</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>132945</xdr:colOff>
+      <xdr:colOff>165719</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>3243</xdr:rowOff>
+      <xdr:rowOff>142533</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4043,8 +4043,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3282545" y="7514873"/>
-          <a:ext cx="287506" cy="243476"/>
+          <a:off x="3318109" y="7626967"/>
+          <a:ext cx="288900" cy="242082"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4086,15 +4086,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>433407</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>44303</xdr:rowOff>
+      <xdr:colOff>417020</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>126239</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>237591</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>165910</xdr:rowOff>
+      <xdr:colOff>221204</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>59394</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4109,7 +4109,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2088504" y="2871077"/>
+          <a:off x="2072117" y="2576110"/>
           <a:ext cx="697281" cy="498510"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4141,15 +4141,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>190780</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>22532</xdr:rowOff>
+      <xdr:colOff>174393</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104468</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>682827</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>150538</xdr:rowOff>
+      <xdr:colOff>666440</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>44022</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4164,7 +4164,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2738974" y="2472403"/>
+          <a:off x="2722587" y="2177436"/>
           <a:ext cx="492047" cy="504909"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4212,15 +4212,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>380969</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>106574</xdr:rowOff>
+      <xdr:colOff>389162</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>65607</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>185153</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>39729</xdr:rowOff>
+      <xdr:colOff>193346</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>187214</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4235,7 +4235,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3822259" y="3121800"/>
+          <a:off x="3830452" y="2892381"/>
           <a:ext cx="697281" cy="498510"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4267,15 +4267,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>138342</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>84803</xdr:rowOff>
+      <xdr:colOff>146535</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>43836</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>630389</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>24358</xdr:rowOff>
+      <xdr:colOff>638582</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171842</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4290,7 +4290,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4472729" y="2723126"/>
+          <a:off x="4480922" y="2493707"/>
           <a:ext cx="492047" cy="504909"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4343,15 +4343,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>58143</xdr:colOff>
+      <xdr:colOff>7681</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>168846</xdr:rowOff>
+      <xdr:rowOff>36251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>755424</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>102001</xdr:rowOff>
+      <xdr:colOff>730843</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>78717</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4365,9 +4365,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3499433" y="4314781"/>
-          <a:ext cx="697281" cy="498510"/>
+        <a:xfrm>
+          <a:off x="3448971" y="4182186"/>
+          <a:ext cx="723162" cy="42466"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4398,15 +4398,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>708613</xdr:colOff>
+      <xdr:colOff>665768</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>147075</xdr:rowOff>
+      <xdr:rowOff>13936</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>307563</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>86629</xdr:rowOff>
+      <xdr:colOff>282982</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>184953</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4421,8 +4421,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4149903" y="3916107"/>
-          <a:ext cx="492047" cy="504909"/>
+          <a:off x="4107058" y="3782968"/>
+          <a:ext cx="510311" cy="547920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4605,15 +4605,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>428492</xdr:colOff>
+      <xdr:colOff>516194</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>72162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>232676</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>5317</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>172065</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4628,8 +4628,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3869782" y="6291065"/>
-          <a:ext cx="697281" cy="498510"/>
+          <a:off x="3957484" y="6291065"/>
+          <a:ext cx="609579" cy="476806"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4738,13 +4738,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>260554</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>39330</xdr:rowOff>
+      <xdr:rowOff>121266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>489953</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>59053</xdr:rowOff>
+      <xdr:rowOff>140989</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4759,7 +4759,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1915651" y="7765846"/>
+          <a:off x="1915651" y="7847782"/>
           <a:ext cx="229399" cy="585078"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4867,15 +4867,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>798051</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>52440</xdr:rowOff>
+      <xdr:colOff>781664</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>11472</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>134353</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>72163</xdr:rowOff>
+      <xdr:colOff>117966</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>31195</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4890,7 +4890,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2453148" y="7778956"/>
+          <a:off x="2436761" y="7926440"/>
           <a:ext cx="229399" cy="585078"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4923,14 +4923,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>849542</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>165103</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>91361</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>448492</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>104657</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>30915</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4945,7 +4945,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2504639" y="8268522"/>
+          <a:off x="2504639" y="8383232"/>
           <a:ext cx="492047" cy="504909"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4998,15 +4998,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>434258</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>40969</xdr:rowOff>
+      <xdr:colOff>426065</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>663657</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>60692</xdr:rowOff>
+      <xdr:colOff>655464</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>19724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5021,7 +5021,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2982452" y="7767485"/>
+          <a:off x="2974259" y="7914969"/>
           <a:ext cx="229399" cy="585078"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -5053,15 +5053,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>485749</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>153632</xdr:rowOff>
+      <xdr:colOff>477556</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>112664</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>84700</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>93186</xdr:rowOff>
+      <xdr:colOff>76507</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>52218</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5076,7 +5076,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3033943" y="8257051"/>
+          <a:off x="3025750" y="8404535"/>
           <a:ext cx="492047" cy="504909"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5129,15 +5129,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>37691</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>176981</xdr:rowOff>
+      <xdr:colOff>70465</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>127820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>267090</xdr:colOff>
+      <xdr:colOff>299864</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>8253</xdr:rowOff>
+      <xdr:rowOff>147543</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5152,7 +5152,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3478981" y="7715046"/>
+          <a:off x="3511755" y="7854336"/>
           <a:ext cx="229399" cy="585078"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -5184,15 +5184,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>89182</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>101193</xdr:rowOff>
+      <xdr:colOff>121956</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>52031</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>581229</xdr:colOff>
+      <xdr:colOff>614003</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>40747</xdr:rowOff>
+      <xdr:rowOff>180037</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5207,7 +5207,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3530472" y="8204612"/>
+          <a:off x="3563246" y="8343902"/>
           <a:ext cx="492047" cy="504909"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5262,6 +5262,56 @@
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>105624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>467763</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>41412</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="図 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68FE6671-7FFF-E093-2172-03BF298D56F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1652258" y="2368990"/>
+          <a:ext cx="2248277" cy="4839749"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
@@ -5452,56 +5502,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>15239</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>106831</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>480254</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>23432</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{413C9721-1C2B-E3ED-3629-C8CD7F3430FB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1667496" y="3501881"/>
-          <a:ext cx="2245530" cy="4820562"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -9050,10 +9050,10 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="115" t="s">
+      <c r="Y2" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="116"/>
+      <c r="Z2" s="110"/>
       <c r="AA2" s="127">
         <v>45058</v>
       </c>
@@ -9211,26 +9211,26 @@
     </row>
     <row r="7" spans="1:176" ht="15" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="117" t="s">
+      <c r="C7" s="131"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="111" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
-      <c r="L7" s="118"/>
-      <c r="M7" s="118"/>
-      <c r="N7" s="118"/>
-      <c r="O7" s="118"/>
-      <c r="P7" s="118"/>
-      <c r="Q7" s="119"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="113"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -9238,40 +9238,40 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="115" t="s">
+      <c r="Y7" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="Z7" s="116"/>
-      <c r="AA7" s="115" t="s">
+      <c r="Z7" s="110"/>
+      <c r="AA7" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="AB7" s="116"/>
-      <c r="AC7" s="115" t="s">
+      <c r="AB7" s="110"/>
+      <c r="AC7" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="AD7" s="116"/>
+      <c r="AD7" s="110"/>
       <c r="AE7" s="21"/>
       <c r="AF7" s="61"/>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="112"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="121"/>
-      <c r="K8" s="121"/>
-      <c r="L8" s="121"/>
-      <c r="M8" s="121"/>
-      <c r="N8" s="121"/>
-      <c r="O8" s="121"/>
-      <c r="P8" s="121"/>
-      <c r="Q8" s="122"/>
+      <c r="B8" s="134"/>
+      <c r="C8" s="135"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="115"/>
+      <c r="N8" s="115"/>
+      <c r="O8" s="115"/>
+      <c r="P8" s="115"/>
+      <c r="Q8" s="116"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -9279,12 +9279,12 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="102"/>
-      <c r="Z8" s="103"/>
-      <c r="AA8" s="102"/>
-      <c r="AB8" s="103"/>
-      <c r="AC8" s="102"/>
-      <c r="AD8" s="103"/>
+      <c r="Y8" s="117"/>
+      <c r="Z8" s="118"/>
+      <c r="AA8" s="117"/>
+      <c r="AB8" s="118"/>
+      <c r="AC8" s="117"/>
+      <c r="AD8" s="118"/>
       <c r="AE8" s="19"/>
       <c r="AF8" s="61"/>
       <c r="AG8" s="2"/>
@@ -9314,12 +9314,12 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="104"/>
-      <c r="Z9" s="105"/>
-      <c r="AA9" s="104"/>
-      <c r="AB9" s="105"/>
-      <c r="AC9" s="104"/>
-      <c r="AD9" s="105"/>
+      <c r="Y9" s="119"/>
+      <c r="Z9" s="120"/>
+      <c r="AA9" s="119"/>
+      <c r="AB9" s="120"/>
+      <c r="AC9" s="119"/>
+      <c r="AD9" s="120"/>
       <c r="AE9" s="19"/>
       <c r="AF9" s="61"/>
       <c r="AG9" s="2"/>
@@ -9349,12 +9349,12 @@
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
-      <c r="Y10" s="106"/>
-      <c r="Z10" s="107"/>
-      <c r="AA10" s="106"/>
-      <c r="AB10" s="107"/>
-      <c r="AC10" s="106"/>
-      <c r="AD10" s="107"/>
+      <c r="Y10" s="121"/>
+      <c r="Z10" s="122"/>
+      <c r="AA10" s="121"/>
+      <c r="AB10" s="122"/>
+      <c r="AC10" s="121"/>
+      <c r="AD10" s="122"/>
       <c r="AE10" s="19"/>
       <c r="AF10" s="61"/>
       <c r="AG10" s="12"/>
@@ -9705,253 +9705,253 @@
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="99" t="s">
+      <c r="B21" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="100"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="99" t="s">
+      <c r="C21" s="101"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="100"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="100"/>
-      <c r="J21" s="101"/>
-      <c r="K21" s="99" t="s">
+      <c r="G21" s="101"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="102"/>
+      <c r="K21" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="100"/>
-      <c r="M21" s="100"/>
-      <c r="N21" s="100"/>
-      <c r="O21" s="100"/>
-      <c r="P21" s="100"/>
-      <c r="Q21" s="100"/>
-      <c r="R21" s="100"/>
-      <c r="S21" s="100"/>
-      <c r="T21" s="100"/>
-      <c r="U21" s="100"/>
-      <c r="V21" s="100"/>
-      <c r="W21" s="100"/>
-      <c r="X21" s="100"/>
-      <c r="Y21" s="100"/>
-      <c r="Z21" s="100"/>
-      <c r="AA21" s="101"/>
-      <c r="AB21" s="99" t="s">
+      <c r="L21" s="101"/>
+      <c r="M21" s="101"/>
+      <c r="N21" s="101"/>
+      <c r="O21" s="101"/>
+      <c r="P21" s="101"/>
+      <c r="Q21" s="101"/>
+      <c r="R21" s="101"/>
+      <c r="S21" s="101"/>
+      <c r="T21" s="101"/>
+      <c r="U21" s="101"/>
+      <c r="V21" s="101"/>
+      <c r="W21" s="101"/>
+      <c r="X21" s="101"/>
+      <c r="Y21" s="101"/>
+      <c r="Z21" s="101"/>
+      <c r="AA21" s="102"/>
+      <c r="AB21" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="AC21" s="100"/>
-      <c r="AD21" s="101"/>
+      <c r="AC21" s="101"/>
+      <c r="AD21" s="102"/>
       <c r="AE21" s="14"/>
       <c r="AF21" s="2"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="99" t="s">
+      <c r="B22" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="100"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="133">
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="106">
         <v>45058</v>
       </c>
-      <c r="G22" s="134"/>
-      <c r="H22" s="134"/>
-      <c r="I22" s="134"/>
-      <c r="J22" s="135"/>
-      <c r="K22" s="130" t="s">
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="107"/>
+      <c r="J22" s="108"/>
+      <c r="K22" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="L22" s="131"/>
-      <c r="M22" s="131"/>
-      <c r="N22" s="131"/>
-      <c r="O22" s="131"/>
-      <c r="P22" s="131"/>
-      <c r="Q22" s="131"/>
-      <c r="R22" s="131"/>
-      <c r="S22" s="131"/>
-      <c r="T22" s="131"/>
-      <c r="U22" s="131"/>
-      <c r="V22" s="131"/>
-      <c r="W22" s="131"/>
-      <c r="X22" s="131"/>
-      <c r="Y22" s="131"/>
-      <c r="Z22" s="131"/>
-      <c r="AA22" s="132"/>
-      <c r="AB22" s="99"/>
-      <c r="AC22" s="100"/>
-      <c r="AD22" s="101"/>
+      <c r="L22" s="104"/>
+      <c r="M22" s="104"/>
+      <c r="N22" s="104"/>
+      <c r="O22" s="104"/>
+      <c r="P22" s="104"/>
+      <c r="Q22" s="104"/>
+      <c r="R22" s="104"/>
+      <c r="S22" s="104"/>
+      <c r="T22" s="104"/>
+      <c r="U22" s="104"/>
+      <c r="V22" s="104"/>
+      <c r="W22" s="104"/>
+      <c r="X22" s="104"/>
+      <c r="Y22" s="104"/>
+      <c r="Z22" s="104"/>
+      <c r="AA22" s="105"/>
+      <c r="AB22" s="100"/>
+      <c r="AC22" s="101"/>
+      <c r="AD22" s="102"/>
       <c r="AE22" s="14"/>
       <c r="AF22" s="2"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="99"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="133"/>
-      <c r="G23" s="134"/>
-      <c r="H23" s="134"/>
-      <c r="I23" s="134"/>
-      <c r="J23" s="135"/>
-      <c r="K23" s="130"/>
-      <c r="L23" s="131"/>
-      <c r="M23" s="131"/>
-      <c r="N23" s="131"/>
-      <c r="O23" s="131"/>
-      <c r="P23" s="131"/>
-      <c r="Q23" s="131"/>
-      <c r="R23" s="131"/>
-      <c r="S23" s="131"/>
-      <c r="T23" s="131"/>
-      <c r="U23" s="131"/>
-      <c r="V23" s="131"/>
-      <c r="W23" s="131"/>
-      <c r="X23" s="131"/>
-      <c r="Y23" s="131"/>
-      <c r="Z23" s="131"/>
-      <c r="AA23" s="132"/>
-      <c r="AB23" s="99"/>
-      <c r="AC23" s="100"/>
-      <c r="AD23" s="101"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="108"/>
+      <c r="K23" s="103"/>
+      <c r="L23" s="104"/>
+      <c r="M23" s="104"/>
+      <c r="N23" s="104"/>
+      <c r="O23" s="104"/>
+      <c r="P23" s="104"/>
+      <c r="Q23" s="104"/>
+      <c r="R23" s="104"/>
+      <c r="S23" s="104"/>
+      <c r="T23" s="104"/>
+      <c r="U23" s="104"/>
+      <c r="V23" s="104"/>
+      <c r="W23" s="104"/>
+      <c r="X23" s="104"/>
+      <c r="Y23" s="104"/>
+      <c r="Z23" s="104"/>
+      <c r="AA23" s="105"/>
+      <c r="AB23" s="100"/>
+      <c r="AC23" s="101"/>
+      <c r="AD23" s="102"/>
       <c r="AE23" s="14"/>
       <c r="AF23" s="2"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="99"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="133"/>
-      <c r="G24" s="134"/>
-      <c r="H24" s="134"/>
-      <c r="I24" s="134"/>
-      <c r="J24" s="135"/>
-      <c r="K24" s="130"/>
-      <c r="L24" s="131"/>
-      <c r="M24" s="131"/>
-      <c r="N24" s="131"/>
-      <c r="O24" s="131"/>
-      <c r="P24" s="131"/>
-      <c r="Q24" s="131"/>
-      <c r="R24" s="131"/>
-      <c r="S24" s="131"/>
-      <c r="T24" s="131"/>
-      <c r="U24" s="131"/>
-      <c r="V24" s="131"/>
-      <c r="W24" s="131"/>
-      <c r="X24" s="131"/>
-      <c r="Y24" s="131"/>
-      <c r="Z24" s="131"/>
-      <c r="AA24" s="132"/>
-      <c r="AB24" s="99"/>
-      <c r="AC24" s="100"/>
-      <c r="AD24" s="101"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="107"/>
+      <c r="I24" s="107"/>
+      <c r="J24" s="108"/>
+      <c r="K24" s="103"/>
+      <c r="L24" s="104"/>
+      <c r="M24" s="104"/>
+      <c r="N24" s="104"/>
+      <c r="O24" s="104"/>
+      <c r="P24" s="104"/>
+      <c r="Q24" s="104"/>
+      <c r="R24" s="104"/>
+      <c r="S24" s="104"/>
+      <c r="T24" s="104"/>
+      <c r="U24" s="104"/>
+      <c r="V24" s="104"/>
+      <c r="W24" s="104"/>
+      <c r="X24" s="104"/>
+      <c r="Y24" s="104"/>
+      <c r="Z24" s="104"/>
+      <c r="AA24" s="105"/>
+      <c r="AB24" s="100"/>
+      <c r="AC24" s="101"/>
+      <c r="AD24" s="102"/>
       <c r="AE24" s="14"/>
       <c r="AF24" s="2"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="2"/>
-      <c r="B25" s="99"/>
-      <c r="C25" s="100"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="133"/>
-      <c r="G25" s="134"/>
-      <c r="H25" s="134"/>
-      <c r="I25" s="134"/>
-      <c r="J25" s="135"/>
-      <c r="K25" s="130"/>
-      <c r="L25" s="131"/>
-      <c r="M25" s="131"/>
-      <c r="N25" s="131"/>
-      <c r="O25" s="131"/>
-      <c r="P25" s="131"/>
-      <c r="Q25" s="131"/>
-      <c r="R25" s="131"/>
-      <c r="S25" s="131"/>
-      <c r="T25" s="131"/>
-      <c r="U25" s="131"/>
-      <c r="V25" s="131"/>
-      <c r="W25" s="131"/>
-      <c r="X25" s="131"/>
-      <c r="Y25" s="131"/>
-      <c r="Z25" s="131"/>
-      <c r="AA25" s="132"/>
-      <c r="AB25" s="99"/>
-      <c r="AC25" s="100"/>
-      <c r="AD25" s="101"/>
+      <c r="B25" s="100"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="108"/>
+      <c r="K25" s="103"/>
+      <c r="L25" s="104"/>
+      <c r="M25" s="104"/>
+      <c r="N25" s="104"/>
+      <c r="O25" s="104"/>
+      <c r="P25" s="104"/>
+      <c r="Q25" s="104"/>
+      <c r="R25" s="104"/>
+      <c r="S25" s="104"/>
+      <c r="T25" s="104"/>
+      <c r="U25" s="104"/>
+      <c r="V25" s="104"/>
+      <c r="W25" s="104"/>
+      <c r="X25" s="104"/>
+      <c r="Y25" s="104"/>
+      <c r="Z25" s="104"/>
+      <c r="AA25" s="105"/>
+      <c r="AB25" s="100"/>
+      <c r="AC25" s="101"/>
+      <c r="AD25" s="102"/>
       <c r="AE25" s="14"/>
       <c r="AF25" s="2"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="99"/>
-      <c r="C26" s="100"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="133"/>
-      <c r="G26" s="134"/>
-      <c r="H26" s="134"/>
-      <c r="I26" s="134"/>
-      <c r="J26" s="135"/>
-      <c r="K26" s="130"/>
-      <c r="L26" s="131"/>
-      <c r="M26" s="131"/>
-      <c r="N26" s="131"/>
-      <c r="O26" s="131"/>
-      <c r="P26" s="131"/>
-      <c r="Q26" s="131"/>
-      <c r="R26" s="131"/>
-      <c r="S26" s="131"/>
-      <c r="T26" s="131"/>
-      <c r="U26" s="131"/>
-      <c r="V26" s="131"/>
-      <c r="W26" s="131"/>
-      <c r="X26" s="131"/>
-      <c r="Y26" s="131"/>
-      <c r="Z26" s="131"/>
-      <c r="AA26" s="132"/>
-      <c r="AB26" s="99"/>
-      <c r="AC26" s="100"/>
-      <c r="AD26" s="101"/>
+      <c r="B26" s="100"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="107"/>
+      <c r="H26" s="107"/>
+      <c r="I26" s="107"/>
+      <c r="J26" s="108"/>
+      <c r="K26" s="103"/>
+      <c r="L26" s="104"/>
+      <c r="M26" s="104"/>
+      <c r="N26" s="104"/>
+      <c r="O26" s="104"/>
+      <c r="P26" s="104"/>
+      <c r="Q26" s="104"/>
+      <c r="R26" s="104"/>
+      <c r="S26" s="104"/>
+      <c r="T26" s="104"/>
+      <c r="U26" s="104"/>
+      <c r="V26" s="104"/>
+      <c r="W26" s="104"/>
+      <c r="X26" s="104"/>
+      <c r="Y26" s="104"/>
+      <c r="Z26" s="104"/>
+      <c r="AA26" s="105"/>
+      <c r="AB26" s="100"/>
+      <c r="AC26" s="101"/>
+      <c r="AD26" s="102"/>
       <c r="AE26" s="14"/>
       <c r="AF26" s="2"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="99"/>
-      <c r="C27" s="100"/>
-      <c r="D27" s="100"/>
-      <c r="E27" s="101"/>
-      <c r="F27" s="133"/>
-      <c r="G27" s="134"/>
-      <c r="H27" s="134"/>
-      <c r="I27" s="134"/>
-      <c r="J27" s="135"/>
-      <c r="K27" s="130"/>
-      <c r="L27" s="131"/>
-      <c r="M27" s="131"/>
-      <c r="N27" s="131"/>
-      <c r="O27" s="131"/>
-      <c r="P27" s="131"/>
-      <c r="Q27" s="131"/>
-      <c r="R27" s="131"/>
-      <c r="S27" s="131"/>
-      <c r="T27" s="131"/>
-      <c r="U27" s="131"/>
-      <c r="V27" s="131"/>
-      <c r="W27" s="131"/>
-      <c r="X27" s="131"/>
-      <c r="Y27" s="131"/>
-      <c r="Z27" s="131"/>
-      <c r="AA27" s="132"/>
-      <c r="AB27" s="99"/>
-      <c r="AC27" s="100"/>
-      <c r="AD27" s="101"/>
+      <c r="B27" s="100"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="107"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="108"/>
+      <c r="K27" s="103"/>
+      <c r="L27" s="104"/>
+      <c r="M27" s="104"/>
+      <c r="N27" s="104"/>
+      <c r="O27" s="104"/>
+      <c r="P27" s="104"/>
+      <c r="Q27" s="104"/>
+      <c r="R27" s="104"/>
+      <c r="S27" s="104"/>
+      <c r="T27" s="104"/>
+      <c r="U27" s="104"/>
+      <c r="V27" s="104"/>
+      <c r="W27" s="104"/>
+      <c r="X27" s="104"/>
+      <c r="Y27" s="104"/>
+      <c r="Z27" s="104"/>
+      <c r="AA27" s="105"/>
+      <c r="AB27" s="100"/>
+      <c r="AC27" s="101"/>
+      <c r="AD27" s="102"/>
       <c r="AE27" s="14"/>
       <c r="AF27" s="2"/>
     </row>
@@ -10059,15 +10059,21 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="K21:AA21"/>
-    <mergeCell ref="K22:AA22"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="K25:AA25"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="AB22:AD22"/>
+    <mergeCell ref="AC8:AD10"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB10"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="F7:Q8"/>
+    <mergeCell ref="Y8:Z10"/>
+    <mergeCell ref="B12:AD14"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F6:M6"/>
+    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="AB27:AD27"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="K23:AA23"/>
@@ -10084,21 +10090,15 @@
     <mergeCell ref="K27:AA27"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="F24:J24"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="F7:Q8"/>
-    <mergeCell ref="Y8:Z10"/>
-    <mergeCell ref="B12:AD14"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F6:M6"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="AB22:AD22"/>
-    <mergeCell ref="AC8:AD10"/>
-    <mergeCell ref="B7:E8"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB10"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="K21:AA21"/>
+    <mergeCell ref="K22:AA22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="K25:AA25"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -10112,8 +10112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36631149-5000-4DF3-A567-26E027CB82BB}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="93" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView topLeftCell="A28" zoomScale="93" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -10161,7 +10161,7 @@
         <v>40</v>
       </c>
       <c r="K2" s="71" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1">
@@ -10213,15 +10213,15 @@
       <c r="B5" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="152" t="s">
+      <c r="C5" s="153" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="153"/>
-      <c r="E5" s="153"/>
-      <c r="F5" s="153"/>
-      <c r="G5" s="153"/>
-      <c r="H5" s="153"/>
-      <c r="I5" s="154"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="154"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="155"/>
       <c r="J5" s="70" t="s">
         <v>45</v>
       </c>
@@ -10232,10 +10232,10 @@
       <c r="B6" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="152" t="s">
+      <c r="C6" s="153" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="154"/>
+      <c r="D6" s="155"/>
       <c r="E6" s="28"/>
       <c r="F6" s="80"/>
       <c r="G6" s="80"/>
@@ -10302,13 +10302,13 @@
         <v>93</v>
       </c>
       <c r="I9" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="J9" s="28" t="s">
-        <v>105</v>
-      </c>
       <c r="K9" s="36" t="s">
-        <v>107</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
@@ -10328,10 +10328,10 @@
         <v>101</v>
       </c>
       <c r="J10" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K10" s="36" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
@@ -10351,10 +10351,10 @@
         <v>102</v>
       </c>
       <c r="J11" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" s="36" t="s">
         <v>106</v>
-      </c>
-      <c r="K11" s="36" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
@@ -10374,10 +10374,10 @@
         <v>103</v>
       </c>
       <c r="J12" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K12" s="36" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1">
@@ -10397,10 +10397,10 @@
         <v>102</v>
       </c>
       <c r="J13" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K13" s="36" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1">
@@ -10420,10 +10420,10 @@
         <v>101</v>
       </c>
       <c r="J14" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K14" s="36" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1">
@@ -10443,10 +10443,10 @@
         <v>101</v>
       </c>
       <c r="J15" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K15" s="36" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1">
@@ -10466,10 +10466,10 @@
         <v>101</v>
       </c>
       <c r="J16" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K16" s="36" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1">
@@ -10489,10 +10489,10 @@
         <v>101</v>
       </c>
       <c r="J17" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K17" s="36" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1">
@@ -10677,7 +10677,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="90" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I31" s="90"/>
       <c r="J31" s="90"/>
@@ -10694,7 +10694,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="90" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I32" s="90"/>
       <c r="J32" s="90"/>
@@ -10711,7 +10711,7 @@
         <v>3</v>
       </c>
       <c r="H33" s="90" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I33" s="90"/>
       <c r="J33" s="90"/>
@@ -10726,7 +10726,7 @@
       <c r="F34" s="22"/>
       <c r="G34" s="95"/>
       <c r="H34" s="90" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I34" s="90"/>
       <c r="J34" s="90"/>
@@ -10837,8 +10837,7 @@
       <c r="K42" s="91"/>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1">
-      <c r="A43" s="84"/>
-      <c r="B43" s="22"/>
+      <c r="A43" s="22"/>
       <c r="C43" s="22"/>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
@@ -10943,8 +10942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD85193-4B5D-4DA1-B792-933B1B5753D0}">
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="101" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="101" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -11038,15 +11037,15 @@
       <c r="B5" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="152" t="s">
+      <c r="C5" s="153" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="153"/>
-      <c r="E5" s="153"/>
-      <c r="F5" s="153"/>
-      <c r="G5" s="153"/>
-      <c r="H5" s="153"/>
-      <c r="I5" s="154"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="154"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="155"/>
       <c r="J5" s="70" t="s">
         <v>45</v>
       </c>
@@ -11057,10 +11056,10 @@
       <c r="B6" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="152" t="s">
+      <c r="C6" s="153" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="154"/>
+      <c r="D6" s="155"/>
       <c r="E6" s="28"/>
       <c r="F6" s="80"/>
       <c r="G6" s="80"/>
@@ -11127,13 +11126,13 @@
         <v>93</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K9" s="36" t="s">
-        <v>107</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
@@ -11147,16 +11146,16 @@
         <v>85</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I10" s="28" t="s">
         <v>102</v>
       </c>
       <c r="J10" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K10" s="36" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
@@ -11170,16 +11169,16 @@
         <v>86</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J11" s="28" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K11" s="36" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
@@ -11193,16 +11192,16 @@
         <v>87</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I12" s="28" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J12" s="28" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K12" s="36" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1">
@@ -11216,16 +11215,16 @@
         <v>88</v>
       </c>
       <c r="H13" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="I13" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="I13" s="28" t="s">
+      <c r="J13" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="J13" s="28" t="s">
+      <c r="K13" s="36" t="s">
         <v>132</v>
-      </c>
-      <c r="K13" s="36" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1">
@@ -11239,16 +11238,16 @@
         <v>89</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I14" s="28" t="s">
         <v>101</v>
       </c>
       <c r="J14" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K14" s="36" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1">
@@ -11262,16 +11261,16 @@
         <v>90</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I15" s="28" t="s">
         <v>102</v>
       </c>
       <c r="J15" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K15" s="36" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1">
@@ -11291,10 +11290,10 @@
         <v>101</v>
       </c>
       <c r="J16" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K16" s="36" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1">
@@ -11314,10 +11313,10 @@
         <v>101</v>
       </c>
       <c r="J17" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K17" s="36" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1">
@@ -11328,7 +11327,7 @@
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
       <c r="G18" s="28" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H18" s="28" t="s">
         <v>99</v>
@@ -11337,10 +11336,10 @@
         <v>101</v>
       </c>
       <c r="J18" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K18" s="36" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1">
@@ -11351,7 +11350,7 @@
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
       <c r="G19" s="28" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H19" s="28" t="s">
         <v>100</v>
@@ -11360,10 +11359,10 @@
         <v>101</v>
       </c>
       <c r="J19" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K19" s="36" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1">
@@ -11374,19 +11373,19 @@
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
       <c r="G20" s="28" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I20" s="28" t="s">
         <v>101</v>
       </c>
       <c r="J20" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="K20" s="155" t="s">
-        <v>147</v>
+        <v>104</v>
+      </c>
+      <c r="K20" s="99" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1">
@@ -11397,19 +11396,19 @@
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
       <c r="G21" s="28" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I21" s="28" t="s">
         <v>102</v>
       </c>
       <c r="J21" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K21" s="36" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1">
@@ -11420,19 +11419,19 @@
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
       <c r="G22" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="H22" s="28" t="s">
         <v>139</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>142</v>
       </c>
       <c r="I22" s="28" t="s">
         <v>103</v>
       </c>
       <c r="J22" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K22" s="36" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1">
@@ -11443,19 +11442,19 @@
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
       <c r="G23" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H23" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="H23" s="28" t="s">
-        <v>143</v>
-      </c>
       <c r="I23" s="28" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J23" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K23" s="36" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1">
@@ -11558,7 +11557,7 @@
       <c r="F31" s="22"/>
       <c r="G31" s="95"/>
       <c r="H31" s="90" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I31" s="90"/>
       <c r="J31" s="90"/>
@@ -11588,7 +11587,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="90" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I33" s="90"/>
       <c r="J33" s="90"/>
@@ -11605,7 +11604,7 @@
         <v>2</v>
       </c>
       <c r="H34" s="90" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I34" s="90"/>
       <c r="J34" s="90"/>
@@ -11622,7 +11621,7 @@
         <v>3</v>
       </c>
       <c r="H35" s="90" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I35" s="90"/>
       <c r="J35" s="90"/>
@@ -11637,7 +11636,7 @@
       <c r="F36" s="22"/>
       <c r="G36" s="95"/>
       <c r="H36" s="90" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I36" s="90"/>
       <c r="J36" s="90"/>
@@ -11862,7 +11861,7 @@
   <dimension ref="A1:AG45"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="X19" sqref="X19"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
@@ -11912,18 +11911,20 @@
       <c r="AG1" s="55"/>
     </row>
     <row r="2" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A2" s="136" t="s">
+      <c r="A2" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="137"/>
-      <c r="C2" s="138"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="139"/>
       <c r="D2" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="45"/>
       <c r="F2" s="45"/>
       <c r="G2" s="46"/>
-      <c r="H2" s="48"/>
+      <c r="H2" s="48" t="s">
+        <v>56</v>
+      </c>
       <c r="I2" s="49"/>
       <c r="J2" s="49"/>
       <c r="K2" s="49"/>
@@ -11942,27 +11943,29 @@
       <c r="X2" s="49"/>
       <c r="Y2" s="49"/>
       <c r="Z2" s="46"/>
-      <c r="AA2" s="145" t="s">
+      <c r="AA2" s="146" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="145"/>
-      <c r="AC2" s="145"/>
+      <c r="AB2" s="146"/>
+      <c r="AC2" s="146"/>
       <c r="AD2" s="48"/>
       <c r="AE2" s="49"/>
       <c r="AF2" s="49"/>
       <c r="AG2" s="46"/>
     </row>
     <row r="3" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A3" s="139"/>
-      <c r="B3" s="140"/>
-      <c r="C3" s="141"/>
+      <c r="A3" s="140"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="142"/>
       <c r="D3" s="23" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="45"/>
       <c r="F3" s="45"/>
       <c r="G3" s="46"/>
-      <c r="H3" s="48"/>
+      <c r="H3" s="48" t="s">
+        <v>73</v>
+      </c>
       <c r="I3" s="49"/>
       <c r="J3" s="49"/>
       <c r="K3" s="49"/>
@@ -11981,27 +11984,29 @@
       <c r="X3" s="49"/>
       <c r="Y3" s="49"/>
       <c r="Z3" s="46"/>
-      <c r="AA3" s="145" t="s">
+      <c r="AA3" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="AB3" s="145"/>
-      <c r="AC3" s="145"/>
+      <c r="AB3" s="146"/>
+      <c r="AC3" s="146"/>
       <c r="AD3" s="48"/>
       <c r="AE3" s="49"/>
       <c r="AF3" s="49"/>
       <c r="AG3" s="46"/>
     </row>
     <row r="4" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A4" s="142"/>
-      <c r="B4" s="143"/>
-      <c r="C4" s="144"/>
+      <c r="A4" s="143"/>
+      <c r="B4" s="144"/>
+      <c r="C4" s="145"/>
       <c r="D4" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="47"/>
       <c r="F4" s="45"/>
       <c r="G4" s="46"/>
-      <c r="H4" s="48"/>
+      <c r="H4" s="48" t="s">
+        <v>154</v>
+      </c>
       <c r="I4" s="49"/>
       <c r="J4" s="49"/>
       <c r="K4" s="49"/>
@@ -12020,29 +12025,31 @@
       <c r="X4" s="49"/>
       <c r="Y4" s="49"/>
       <c r="Z4" s="46"/>
-      <c r="AA4" s="145" t="s">
+      <c r="AA4" s="146" t="s">
         <v>20</v>
       </c>
-      <c r="AB4" s="145"/>
-      <c r="AC4" s="145"/>
+      <c r="AB4" s="146"/>
+      <c r="AC4" s="146"/>
       <c r="AD4" s="48"/>
       <c r="AE4" s="49"/>
       <c r="AF4" s="49"/>
       <c r="AG4" s="46"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A5" s="136" t="s">
+      <c r="A5" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="137"/>
-      <c r="C5" s="138"/>
+      <c r="B5" s="138"/>
+      <c r="C5" s="139"/>
       <c r="D5" s="41" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="45"/>
       <c r="F5" s="45"/>
       <c r="G5" s="46"/>
-      <c r="H5" s="48"/>
+      <c r="H5" s="48" t="s">
+        <v>155</v>
+      </c>
       <c r="I5" s="49"/>
       <c r="J5" s="49"/>
       <c r="K5" s="49"/>
@@ -12061,20 +12068,20 @@
       <c r="X5" s="49"/>
       <c r="Y5" s="49"/>
       <c r="Z5" s="46"/>
-      <c r="AA5" s="145" t="s">
+      <c r="AA5" s="146" t="s">
         <v>23</v>
       </c>
-      <c r="AB5" s="145"/>
-      <c r="AC5" s="145"/>
+      <c r="AB5" s="146"/>
+      <c r="AC5" s="146"/>
       <c r="AD5" s="48"/>
       <c r="AE5" s="49"/>
       <c r="AF5" s="49"/>
       <c r="AG5" s="46"/>
     </row>
     <row r="6" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A6" s="142"/>
-      <c r="B6" s="143"/>
-      <c r="C6" s="144"/>
+      <c r="A6" s="143"/>
+      <c r="B6" s="144"/>
+      <c r="C6" s="145"/>
       <c r="D6" s="79" t="s">
         <v>24</v>
       </c>
@@ -12100,11 +12107,11 @@
       <c r="X6" s="49"/>
       <c r="Y6" s="49"/>
       <c r="Z6" s="46"/>
-      <c r="AA6" s="145" t="s">
+      <c r="AA6" s="146" t="s">
         <v>25</v>
       </c>
-      <c r="AB6" s="145"/>
-      <c r="AC6" s="145"/>
+      <c r="AB6" s="146"/>
+      <c r="AC6" s="146"/>
       <c r="AD6" s="48"/>
       <c r="AE6" s="49"/>
       <c r="AF6" s="49"/>
@@ -13395,7 +13402,7 @@
   </sheetPr>
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A3" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -13424,79 +13431,79 @@
       <c r="I1" s="51"/>
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="150" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="152"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="154"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="155"/>
       <c r="H2" s="24" t="s">
         <v>16</v>
       </c>
       <c r="I2" s="48"/>
     </row>
     <row r="3" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A3" s="150"/>
+      <c r="A3" s="151"/>
       <c r="B3" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="152"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="154"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="155"/>
       <c r="H3" s="24" t="s">
         <v>18</v>
       </c>
       <c r="I3" s="48"/>
     </row>
     <row r="4" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A4" s="151"/>
+      <c r="A4" s="152"/>
       <c r="B4" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="152"/>
-      <c r="D4" s="153"/>
-      <c r="E4" s="153"/>
-      <c r="F4" s="153"/>
-      <c r="G4" s="154"/>
+      <c r="C4" s="153"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="154"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="155"/>
       <c r="H4" s="24" t="s">
         <v>20</v>
       </c>
       <c r="I4" s="48"/>
     </row>
     <row r="5" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A5" s="149" t="s">
+      <c r="A5" s="150" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="152"/>
-      <c r="D5" s="153"/>
-      <c r="E5" s="153"/>
-      <c r="F5" s="153"/>
-      <c r="G5" s="154"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="155"/>
       <c r="H5" s="24" t="s">
         <v>23</v>
       </c>
       <c r="I5" s="23"/>
     </row>
     <row r="6" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A6" s="151"/>
+      <c r="A6" s="152"/>
       <c r="B6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="152"/>
-      <c r="D6" s="153"/>
-      <c r="E6" s="153"/>
-      <c r="F6" s="153"/>
-      <c r="G6" s="154"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="154"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="155"/>
       <c r="H6" s="24" t="s">
         <v>25</v>
       </c>
@@ -13517,11 +13524,11 @@
       <c r="A8" s="22"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
-      <c r="D8" s="146" t="s">
+      <c r="D8" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="147"/>
-      <c r="F8" s="148"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="149"/>
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
@@ -13975,11 +13982,11 @@
       <c r="AG1" s="55"/>
     </row>
     <row r="2" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A2" s="136" t="s">
+      <c r="A2" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="137"/>
-      <c r="C2" s="138"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="139"/>
       <c r="D2" s="23" t="s">
         <v>15</v>
       </c>
@@ -14005,20 +14012,20 @@
       <c r="X2" s="49"/>
       <c r="Y2" s="49"/>
       <c r="Z2" s="46"/>
-      <c r="AA2" s="145" t="s">
+      <c r="AA2" s="146" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="145"/>
-      <c r="AC2" s="145"/>
+      <c r="AB2" s="146"/>
+      <c r="AC2" s="146"/>
       <c r="AD2" s="48"/>
       <c r="AE2" s="49"/>
       <c r="AF2" s="49"/>
       <c r="AG2" s="46"/>
     </row>
     <row r="3" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A3" s="139"/>
-      <c r="B3" s="140"/>
-      <c r="C3" s="141"/>
+      <c r="A3" s="140"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="142"/>
       <c r="D3" s="23" t="s">
         <v>17</v>
       </c>
@@ -14044,20 +14051,20 @@
       <c r="X3" s="49"/>
       <c r="Y3" s="49"/>
       <c r="Z3" s="46"/>
-      <c r="AA3" s="145" t="s">
+      <c r="AA3" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="AB3" s="145"/>
-      <c r="AC3" s="145"/>
+      <c r="AB3" s="146"/>
+      <c r="AC3" s="146"/>
       <c r="AD3" s="48"/>
       <c r="AE3" s="49"/>
       <c r="AF3" s="49"/>
       <c r="AG3" s="46"/>
     </row>
     <row r="4" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A4" s="142"/>
-      <c r="B4" s="143"/>
-      <c r="C4" s="144"/>
+      <c r="A4" s="143"/>
+      <c r="B4" s="144"/>
+      <c r="C4" s="145"/>
       <c r="D4" s="23" t="s">
         <v>19</v>
       </c>
@@ -14083,22 +14090,22 @@
       <c r="X4" s="49"/>
       <c r="Y4" s="49"/>
       <c r="Z4" s="46"/>
-      <c r="AA4" s="145" t="s">
+      <c r="AA4" s="146" t="s">
         <v>20</v>
       </c>
-      <c r="AB4" s="145"/>
-      <c r="AC4" s="145"/>
+      <c r="AB4" s="146"/>
+      <c r="AC4" s="146"/>
       <c r="AD4" s="48"/>
       <c r="AE4" s="49"/>
       <c r="AF4" s="49"/>
       <c r="AG4" s="46"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A5" s="136" t="s">
+      <c r="A5" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="137"/>
-      <c r="C5" s="138"/>
+      <c r="B5" s="138"/>
+      <c r="C5" s="139"/>
       <c r="D5" s="41" t="s">
         <v>22</v>
       </c>
@@ -14124,20 +14131,20 @@
       <c r="X5" s="49"/>
       <c r="Y5" s="49"/>
       <c r="Z5" s="46"/>
-      <c r="AA5" s="145" t="s">
+      <c r="AA5" s="146" t="s">
         <v>23</v>
       </c>
-      <c r="AB5" s="145"/>
-      <c r="AC5" s="145"/>
+      <c r="AB5" s="146"/>
+      <c r="AC5" s="146"/>
       <c r="AD5" s="48"/>
       <c r="AE5" s="49"/>
       <c r="AF5" s="49"/>
       <c r="AG5" s="46"/>
     </row>
     <row r="6" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A6" s="142"/>
-      <c r="B6" s="143"/>
-      <c r="C6" s="144"/>
+      <c r="A6" s="143"/>
+      <c r="B6" s="144"/>
+      <c r="C6" s="145"/>
       <c r="D6" s="79" t="s">
         <v>24</v>
       </c>
@@ -14163,11 +14170,11 @@
       <c r="X6" s="49"/>
       <c r="Y6" s="49"/>
       <c r="Z6" s="46"/>
-      <c r="AA6" s="145" t="s">
+      <c r="AA6" s="146" t="s">
         <v>25</v>
       </c>
-      <c r="AB6" s="145"/>
-      <c r="AC6" s="145"/>
+      <c r="AB6" s="146"/>
+      <c r="AC6" s="146"/>
       <c r="AD6" s="48"/>
       <c r="AE6" s="49"/>
       <c r="AF6" s="49"/>
@@ -15550,15 +15557,15 @@
       <c r="B5" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="152" t="s">
+      <c r="C5" s="153" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="153"/>
-      <c r="E5" s="153"/>
-      <c r="F5" s="153"/>
-      <c r="G5" s="153"/>
-      <c r="H5" s="153"/>
-      <c r="I5" s="154"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="154"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="155"/>
       <c r="J5" s="70" t="s">
         <v>45</v>
       </c>
@@ -15569,10 +15576,10 @@
       <c r="B6" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="152" t="s">
+      <c r="C6" s="153" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="154"/>
+      <c r="D6" s="155"/>
       <c r="E6" s="28"/>
       <c r="F6" s="80"/>
       <c r="G6" s="80"/>
@@ -16271,15 +16278,15 @@
       <c r="B5" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="152" t="s">
+      <c r="C5" s="153" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="153"/>
-      <c r="E5" s="153"/>
-      <c r="F5" s="153"/>
-      <c r="G5" s="153"/>
-      <c r="H5" s="153"/>
-      <c r="I5" s="154"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="154"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="155"/>
       <c r="J5" s="70" t="s">
         <v>45</v>
       </c>
@@ -16290,10 +16297,10 @@
       <c r="B6" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="152" t="s">
+      <c r="C6" s="153" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="154"/>
+      <c r="D6" s="155"/>
       <c r="E6" s="28"/>
       <c r="F6" s="80"/>
       <c r="G6" s="80"/>
@@ -16991,15 +16998,15 @@
       <c r="B5" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="152" t="s">
+      <c r="C5" s="153" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="153"/>
-      <c r="E5" s="153"/>
-      <c r="F5" s="153"/>
-      <c r="G5" s="153"/>
-      <c r="H5" s="153"/>
-      <c r="I5" s="154"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="154"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="155"/>
       <c r="J5" s="70" t="s">
         <v>45</v>
       </c>
@@ -17010,10 +17017,10 @@
       <c r="B6" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="152" t="s">
+      <c r="C6" s="153" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="154"/>
+      <c r="D6" s="155"/>
       <c r="E6" s="28"/>
       <c r="F6" s="80"/>
       <c r="G6" s="80"/>
@@ -17712,15 +17719,15 @@
       <c r="B5" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="152" t="s">
+      <c r="C5" s="153" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="153"/>
-      <c r="E5" s="153"/>
-      <c r="F5" s="153"/>
-      <c r="G5" s="153"/>
-      <c r="H5" s="153"/>
-      <c r="I5" s="154"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="154"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="155"/>
       <c r="J5" s="70" t="s">
         <v>45</v>
       </c>
@@ -17731,10 +17738,10 @@
       <c r="B6" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="152" t="s">
+      <c r="C6" s="153" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="154"/>
+      <c r="D6" s="155"/>
       <c r="E6" s="28"/>
       <c r="F6" s="80"/>
       <c r="G6" s="80"/>
@@ -18433,15 +18440,15 @@
       <c r="B5" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="152" t="s">
+      <c r="C5" s="153" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="153"/>
-      <c r="E5" s="153"/>
-      <c r="F5" s="153"/>
-      <c r="G5" s="153"/>
-      <c r="H5" s="153"/>
-      <c r="I5" s="154"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="154"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="155"/>
       <c r="J5" s="70" t="s">
         <v>45</v>
       </c>
@@ -18452,10 +18459,10 @@
       <c r="B6" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="152" t="s">
+      <c r="C6" s="153" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="154"/>
+      <c r="D6" s="155"/>
       <c r="E6" s="28"/>
       <c r="F6" s="80"/>
       <c r="G6" s="80"/>
@@ -19056,12 +19063,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19230,15 +19234,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A407E75-EA60-45A3-8596-3AE9B5B47AEE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60490CEE-9E57-4F61-A8AC-28802ECF76B0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -19263,10 +19271,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60490CEE-9E57-4F61-A8AC-28802ECF76B0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A407E75-EA60-45A3-8596-3AE9B5B47AEE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/02_画面設計書・モックアップ/02_画面設計書.xlsx
+++ b/02_画面設計書・モックアップ/02_画面設計書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\2023Dev3Early\02_画面設計書・モックアップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\system5\2023Dev3Early\02_画面設計書・モックアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBFE6EC-042A-4C07-B6E5-1E352471AF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3099E46-5EC5-4253-B138-BE52ED05A0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -42,19 +42,6 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">表紙!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191028" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -113,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="179">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -1091,13 +1078,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>名前</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>自己紹介</t>
     <rPh sb="0" eb="4">
       <t>ジコショウカイ</t>
@@ -1171,16 +1151,6 @@
       <t>ガゾウ</t>
     </rPh>
     <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>名前を表示</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="3"/>
@@ -1229,21 +1199,10 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>名前入力</t>
-    <rPh sb="0" eb="4">
-      <t>ナマエニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>自己紹介入力</t>
     <rPh sb="0" eb="6">
       <t>ジコショウカイニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>エキスとボックス</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -1293,16 +1252,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>名前を入力するテキストボックス</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>自己紹介を入力するテキストボックス</t>
     <rPh sb="0" eb="4">
       <t>ジコショウカイ</t>
@@ -1411,6 +1360,192 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>④</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索を入力するテキストボックス</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>⑤</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画像</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画像を表示</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>⑥</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>いいね！</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>⑦</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コメント</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コメントを表示</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザーネーム</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>全角300文字</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「いいね！」をする</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>現画面なので、何も起こらない</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザーネームを表示</t>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ホーム画面へ遷移する</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>投稿画面へ遷移する</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メッセージ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メッセージ画面へ遷移する</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メッセージ画面へ遷移する</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>マイページ画面へ遷移する</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>※以降ページでは省略する</t>
+    <rPh sb="1" eb="3">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショウリャク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ヘッダーの説明</t>
+    <rPh sb="5" eb="7">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>鈴木功太郎</t>
+    <rPh sb="0" eb="5">
+      <t>スズキコウタロウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザーネーム入力</t>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザネーム</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザーネームを入力するテキストボックス</t>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1423,7 +1558,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1549,6 +1684,14 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1759,7 +1902,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1"/>
@@ -2007,23 +2150,44 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2049,24 +2213,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2088,26 +2234,23 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2166,6 +2309,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2450,6 +2594,2218 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>32288</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>97496</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>675024</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>65366</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17537077-0153-1793-CDE0-571333494CFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="807362" y="1778378"/>
+          <a:ext cx="3360162" cy="7064929"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>737720</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>130737</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3A13FCA-B45A-4A3C-B79C-3BE579CFC9EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="943162" y="2241178"/>
+          <a:ext cx="569632" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>733978</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>18676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>205442</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>40659</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DF2CD70-D551-425C-A84D-8D7994C5DDDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1509052" y="2073088"/>
+          <a:ext cx="377272" cy="208747"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>117726</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>130734</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>629111</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>64505</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A39EE8F5-76D4-4154-8176-DE7E3130D1AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1798608" y="1811616"/>
+          <a:ext cx="511385" cy="494065"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>311149</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>59018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>429558</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>37353</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF2BA2E3-1BD8-4F2A-99F6-112F389D19F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1086223" y="2673724"/>
+          <a:ext cx="2835835" cy="351864"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>18676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>237341</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>150379</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE570EA7-5BE2-4992-BB9D-FD28D87758F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4127500" y="2446617"/>
+          <a:ext cx="508150" cy="505233"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>121397</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>177426</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>513603</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>18677</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1447D9D4-18D7-4FCC-AB1E-9A84BE0E32BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="896471" y="3165661"/>
+          <a:ext cx="392206" cy="401545"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>625661</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>65368</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>177426</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAC669E4-638B-4776-B3F5-D4769B714CB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1400735" y="3240368"/>
+          <a:ext cx="457573" cy="280147"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>747059</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>37354</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>681691</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>112060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A46C78EA-C037-43A2-BA42-EF3D8B0E2199}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="747059" y="3585883"/>
+          <a:ext cx="3427132" cy="3249706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>56030</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>392205</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>65367</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="正方形/長方形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B8453A8-ACF5-44A3-BDD3-B72CAD839230}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="831104" y="6891617"/>
+          <a:ext cx="336175" cy="270809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>93382</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>186765</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>102720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="正方形/長方形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2AA6BE9-7DF5-4CD0-81DB-FB1D6DE7A4A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="868456" y="7209117"/>
+          <a:ext cx="999191" cy="737721"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485588</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>65367</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>840440</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>177426</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D50BA5C9-606C-4C74-B54F-2CF57A553C7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1260662" y="8283014"/>
+          <a:ext cx="354852" cy="298824"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>308163</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9339</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>672354</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="正方形/長方形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA7FA9B2-CDDF-4ACD-98D0-695804B538F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1989045" y="8226986"/>
+          <a:ext cx="364191" cy="345514"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>130735</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>18677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>494926</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>177426</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="正方形/長方形 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31FBC6D0-EDF4-4B99-AB52-F58DCF2071B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2717426" y="8236324"/>
+          <a:ext cx="364191" cy="345514"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>824754</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>12327</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>283136</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>171076</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="正方形/長方形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC464A31-4674-46A0-A4E4-098CF7E3FDF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3411445" y="8229974"/>
+          <a:ext cx="364191" cy="345514"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>466912</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>84044</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>756397</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>124703</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直線コネクタ 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A439D878-A95E-420C-812D-E126851326C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3959412" y="2698750"/>
+          <a:ext cx="289485" cy="40659"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>550956</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>168089</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>102720</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>93382</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直線コネクタ 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33DB05A6-0659-43A5-87D5-E6D13F2D4B75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="550956" y="3156324"/>
+          <a:ext cx="326838" cy="112058"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>183403</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>140074</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>448236</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>37297</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直線コネクタ 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2445B672-D04B-415D-8966-16958E5FE323}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1864285" y="3315074"/>
+          <a:ext cx="264833" cy="83988"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>363818</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>167715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>741090</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>2933</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="直線コネクタ 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75068035-12A2-4FD3-83FC-BE60928FE77B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3856318" y="3342715"/>
+          <a:ext cx="377272" cy="208747"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457574</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>65368</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>62386</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>105335</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直線コネクタ 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF635384-595A-4C00-A1A8-F043466B1967}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="457574" y="6975662"/>
+          <a:ext cx="379886" cy="39967"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>211045</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>84044</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>569633</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>111629</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直線コネクタ 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{077A5168-32AF-4E2F-B647-1A0F9D99B970}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1891927" y="7554632"/>
+          <a:ext cx="358588" cy="27585"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>663015</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>177427</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>442632</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直線コネクタ 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CB7E58A-64AD-403B-84AB-E58ACA655FF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="663015" y="8208309"/>
+          <a:ext cx="554691" cy="196103"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504265</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>644339</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>18677</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直線コネクタ 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE1601A6-B3E7-4411-B462-A3383C915388}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2185147" y="8030882"/>
+          <a:ext cx="140074" cy="205442"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>261471</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>168087</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>373530</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9338</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="直線コネクタ 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC33F456-4C6E-4AC4-8D71-61C6F96AD429}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2848162" y="8012205"/>
+          <a:ext cx="112059" cy="214780"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>87033</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>199092</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>180416</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="直線コネクタ 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5508AF3D-2EC3-4BB8-919B-DEA2AE0AA9AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3579533" y="7996518"/>
+          <a:ext cx="112059" cy="214780"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>158751</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>93382</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>670673</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38321</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="正方形/長方形 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DB7258F-187D-49F5-85F3-078E887B8EFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="158751" y="2894853"/>
+          <a:ext cx="511922" cy="505233"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>326839</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>46691</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>838761</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>178395</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFA98C5F-E37B-403A-B33D-04BCF7323D93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2007721" y="3034926"/>
+          <a:ext cx="511922" cy="505234"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>④</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>644339</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>93383</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>235363</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38321</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="正方形/長方形 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21FCDBE0-36D0-4AA4-ABE3-3CA95E130ABF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4136839" y="3081618"/>
+          <a:ext cx="496833" cy="505232"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑤</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>46691</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>177426</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>543524</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>122365</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="正方形/長方形 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5A7E00E-5390-47DF-B6A7-E257BB15CE58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="46691" y="6714191"/>
+          <a:ext cx="496833" cy="505233"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑥</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>466912</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57936</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>970</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="正方形/長方形 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D728416-CC33-4D6F-8669-ED86D5B74F33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2147794" y="7339854"/>
+          <a:ext cx="496833" cy="505234"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑦</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>252133</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>121396</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>748966</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>66335</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="正方形/長方形 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38175DF8-4B06-445A-8E33-32295592A370}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="252133" y="7965514"/>
+          <a:ext cx="496833" cy="505233"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑧</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>513603</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>37352</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>119716</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>169056</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="正方形/長方形 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0D7C209-5607-4B16-8D0D-1DBBA10AEE85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2194485" y="7694705"/>
+          <a:ext cx="511922" cy="505233"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑨</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>214779</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>726701</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>131704</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="正方形/長方形 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C208186F-C7AE-4D82-A321-62FE68B47F78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2801470" y="7657353"/>
+          <a:ext cx="511922" cy="505233"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑩</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9338</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>506171</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>113027</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="正方形/長方形 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C3997E3-55AD-4F50-B445-4E1DF98902D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3501838" y="7638676"/>
+          <a:ext cx="496833" cy="505233"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑪</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7464,13 +9820,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>707087</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>18108</xdr:rowOff>
+      <xdr:rowOff>43256</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>441920</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>146113</xdr:rowOff>
+      <xdr:rowOff>171261</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7485,8 +9841,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="707087" y="3601771"/>
-          <a:ext cx="496833" cy="505233"/>
+          <a:off x="707087" y="2495236"/>
+          <a:ext cx="508150" cy="505233"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8840,9 +11196,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.109375" style="1" customWidth="1"/>
-    <col min="5" max="8" width="4.109375" style="10" customWidth="1"/>
-    <col min="9" max="32" width="4.109375" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.08984375" style="1" customWidth="1"/>
+    <col min="5" max="8" width="4.08984375" style="10" customWidth="1"/>
+    <col min="9" max="32" width="4.08984375" style="1" customWidth="1"/>
     <col min="33" max="36" width="4" style="1" customWidth="1"/>
     <col min="37" max="16384" width="13" style="1"/>
   </cols>
@@ -9050,16 +11406,16 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="109" t="s">
+      <c r="Y2" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="110"/>
-      <c r="AA2" s="127">
+      <c r="Z2" s="117"/>
+      <c r="AA2" s="128">
         <v>45058</v>
       </c>
-      <c r="AB2" s="128"/>
-      <c r="AC2" s="128"/>
-      <c r="AD2" s="129"/>
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="129"/>
+      <c r="AD2" s="130"/>
       <c r="AE2" s="21"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
@@ -9179,16 +11535,16 @@
       <c r="C6" s="63"/>
       <c r="D6" s="63"/>
       <c r="E6" s="64"/>
-      <c r="F6" s="124" t="s">
+      <c r="F6" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="127"/>
+      <c r="M6" s="127"/>
       <c r="N6" s="65"/>
       <c r="O6" s="65"/>
       <c r="P6" s="65"/>
@@ -9211,26 +11567,26 @@
     </row>
     <row r="7" spans="1:176" ht="15" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="130" t="s">
+      <c r="B7" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="131"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="111" t="s">
+      <c r="C7" s="110"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="118" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="112"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="113"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="120"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -9238,40 +11594,40 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="109" t="s">
+      <c r="Y7" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="Z7" s="110"/>
-      <c r="AA7" s="109" t="s">
+      <c r="Z7" s="117"/>
+      <c r="AA7" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="AB7" s="110"/>
-      <c r="AC7" s="109" t="s">
+      <c r="AB7" s="117"/>
+      <c r="AC7" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="AD7" s="110"/>
+      <c r="AD7" s="117"/>
       <c r="AE7" s="21"/>
       <c r="AF7" s="61"/>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="134"/>
-      <c r="C8" s="135"/>
-      <c r="D8" s="135"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="115"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="116"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="122"/>
+      <c r="L8" s="122"/>
+      <c r="M8" s="122"/>
+      <c r="N8" s="122"/>
+      <c r="O8" s="122"/>
+      <c r="P8" s="122"/>
+      <c r="Q8" s="123"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -9279,12 +11635,12 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="117"/>
-      <c r="Z8" s="118"/>
-      <c r="AA8" s="117"/>
-      <c r="AB8" s="118"/>
-      <c r="AC8" s="117"/>
-      <c r="AD8" s="118"/>
+      <c r="Y8" s="103"/>
+      <c r="Z8" s="104"/>
+      <c r="AA8" s="103"/>
+      <c r="AB8" s="104"/>
+      <c r="AC8" s="103"/>
+      <c r="AD8" s="104"/>
       <c r="AE8" s="19"/>
       <c r="AF8" s="61"/>
       <c r="AG8" s="2"/>
@@ -9314,12 +11670,12 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="119"/>
-      <c r="Z9" s="120"/>
-      <c r="AA9" s="119"/>
-      <c r="AB9" s="120"/>
-      <c r="AC9" s="119"/>
-      <c r="AD9" s="120"/>
+      <c r="Y9" s="105"/>
+      <c r="Z9" s="106"/>
+      <c r="AA9" s="105"/>
+      <c r="AB9" s="106"/>
+      <c r="AC9" s="105"/>
+      <c r="AD9" s="106"/>
       <c r="AE9" s="19"/>
       <c r="AF9" s="61"/>
       <c r="AG9" s="2"/>
@@ -9349,12 +11705,12 @@
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
-      <c r="Y10" s="121"/>
-      <c r="Z10" s="122"/>
-      <c r="AA10" s="121"/>
-      <c r="AB10" s="122"/>
-      <c r="AC10" s="121"/>
-      <c r="AD10" s="122"/>
+      <c r="Y10" s="107"/>
+      <c r="Z10" s="108"/>
+      <c r="AA10" s="107"/>
+      <c r="AB10" s="108"/>
+      <c r="AC10" s="107"/>
+      <c r="AD10" s="108"/>
       <c r="AE10" s="19"/>
       <c r="AF10" s="61"/>
       <c r="AG10" s="12"/>
@@ -9395,105 +11751,105 @@
     </row>
     <row r="12" spans="1:176" ht="15" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="123" t="s">
+      <c r="B12" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="123"/>
-      <c r="K12" s="123"/>
-      <c r="L12" s="123"/>
-      <c r="M12" s="123"/>
-      <c r="N12" s="123"/>
-      <c r="O12" s="123"/>
-      <c r="P12" s="123"/>
-      <c r="Q12" s="123"/>
-      <c r="R12" s="123"/>
-      <c r="S12" s="123"/>
-      <c r="T12" s="123"/>
-      <c r="U12" s="123"/>
-      <c r="V12" s="123"/>
-      <c r="W12" s="123"/>
-      <c r="X12" s="123"/>
-      <c r="Y12" s="123"/>
-      <c r="Z12" s="123"/>
-      <c r="AA12" s="123"/>
-      <c r="AB12" s="123"/>
-      <c r="AC12" s="123"/>
-      <c r="AD12" s="123"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="124"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="124"/>
+      <c r="M12" s="124"/>
+      <c r="N12" s="124"/>
+      <c r="O12" s="124"/>
+      <c r="P12" s="124"/>
+      <c r="Q12" s="124"/>
+      <c r="R12" s="124"/>
+      <c r="S12" s="124"/>
+      <c r="T12" s="124"/>
+      <c r="U12" s="124"/>
+      <c r="V12" s="124"/>
+      <c r="W12" s="124"/>
+      <c r="X12" s="124"/>
+      <c r="Y12" s="124"/>
+      <c r="Z12" s="124"/>
+      <c r="AA12" s="124"/>
+      <c r="AB12" s="124"/>
+      <c r="AC12" s="124"/>
+      <c r="AD12" s="124"/>
       <c r="AE12" s="15"/>
       <c r="AF12" s="2"/>
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="123"/>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="123"/>
-      <c r="K13" s="123"/>
-      <c r="L13" s="123"/>
-      <c r="M13" s="123"/>
-      <c r="N13" s="123"/>
-      <c r="O13" s="123"/>
-      <c r="P13" s="123"/>
-      <c r="Q13" s="123"/>
-      <c r="R13" s="123"/>
-      <c r="S13" s="123"/>
-      <c r="T13" s="123"/>
-      <c r="U13" s="123"/>
-      <c r="V13" s="123"/>
-      <c r="W13" s="123"/>
-      <c r="X13" s="123"/>
-      <c r="Y13" s="123"/>
-      <c r="Z13" s="123"/>
-      <c r="AA13" s="123"/>
-      <c r="AB13" s="123"/>
-      <c r="AC13" s="123"/>
-      <c r="AD13" s="123"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="124"/>
+      <c r="J13" s="124"/>
+      <c r="K13" s="124"/>
+      <c r="L13" s="124"/>
+      <c r="M13" s="124"/>
+      <c r="N13" s="124"/>
+      <c r="O13" s="124"/>
+      <c r="P13" s="124"/>
+      <c r="Q13" s="124"/>
+      <c r="R13" s="124"/>
+      <c r="S13" s="124"/>
+      <c r="T13" s="124"/>
+      <c r="U13" s="124"/>
+      <c r="V13" s="124"/>
+      <c r="W13" s="124"/>
+      <c r="X13" s="124"/>
+      <c r="Y13" s="124"/>
+      <c r="Z13" s="124"/>
+      <c r="AA13" s="124"/>
+      <c r="AB13" s="124"/>
+      <c r="AC13" s="124"/>
+      <c r="AD13" s="124"/>
       <c r="AE13" s="15"/>
       <c r="AF13" s="2"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="123"/>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="123"/>
-      <c r="K14" s="123"/>
-      <c r="L14" s="123"/>
-      <c r="M14" s="123"/>
-      <c r="N14" s="123"/>
-      <c r="O14" s="123"/>
-      <c r="P14" s="123"/>
-      <c r="Q14" s="123"/>
-      <c r="R14" s="123"/>
-      <c r="S14" s="123"/>
-      <c r="T14" s="123"/>
-      <c r="U14" s="123"/>
-      <c r="V14" s="123"/>
-      <c r="W14" s="123"/>
-      <c r="X14" s="123"/>
-      <c r="Y14" s="123"/>
-      <c r="Z14" s="123"/>
-      <c r="AA14" s="123"/>
-      <c r="AB14" s="123"/>
-      <c r="AC14" s="123"/>
-      <c r="AD14" s="123"/>
+      <c r="B14" s="124"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="124"/>
+      <c r="J14" s="124"/>
+      <c r="K14" s="124"/>
+      <c r="L14" s="124"/>
+      <c r="M14" s="124"/>
+      <c r="N14" s="124"/>
+      <c r="O14" s="124"/>
+      <c r="P14" s="124"/>
+      <c r="Q14" s="124"/>
+      <c r="R14" s="124"/>
+      <c r="S14" s="124"/>
+      <c r="T14" s="124"/>
+      <c r="U14" s="124"/>
+      <c r="V14" s="124"/>
+      <c r="W14" s="124"/>
+      <c r="X14" s="124"/>
+      <c r="Y14" s="124"/>
+      <c r="Z14" s="124"/>
+      <c r="AA14" s="124"/>
+      <c r="AB14" s="124"/>
+      <c r="AC14" s="124"/>
+      <c r="AD14" s="124"/>
       <c r="AE14" s="15"/>
       <c r="AF14" s="2"/>
     </row>
@@ -9753,32 +12109,32 @@
       <c r="C22" s="101"/>
       <c r="D22" s="101"/>
       <c r="E22" s="102"/>
-      <c r="F22" s="106">
+      <c r="F22" s="134">
         <v>45058</v>
       </c>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="108"/>
-      <c r="K22" s="103" t="s">
+      <c r="G22" s="135"/>
+      <c r="H22" s="135"/>
+      <c r="I22" s="135"/>
+      <c r="J22" s="136"/>
+      <c r="K22" s="131" t="s">
         <v>58</v>
       </c>
-      <c r="L22" s="104"/>
-      <c r="M22" s="104"/>
-      <c r="N22" s="104"/>
-      <c r="O22" s="104"/>
-      <c r="P22" s="104"/>
-      <c r="Q22" s="104"/>
-      <c r="R22" s="104"/>
-      <c r="S22" s="104"/>
-      <c r="T22" s="104"/>
-      <c r="U22" s="104"/>
-      <c r="V22" s="104"/>
-      <c r="W22" s="104"/>
-      <c r="X22" s="104"/>
-      <c r="Y22" s="104"/>
-      <c r="Z22" s="104"/>
-      <c r="AA22" s="105"/>
+      <c r="L22" s="132"/>
+      <c r="M22" s="132"/>
+      <c r="N22" s="132"/>
+      <c r="O22" s="132"/>
+      <c r="P22" s="132"/>
+      <c r="Q22" s="132"/>
+      <c r="R22" s="132"/>
+      <c r="S22" s="132"/>
+      <c r="T22" s="132"/>
+      <c r="U22" s="132"/>
+      <c r="V22" s="132"/>
+      <c r="W22" s="132"/>
+      <c r="X22" s="132"/>
+      <c r="Y22" s="132"/>
+      <c r="Z22" s="132"/>
+      <c r="AA22" s="133"/>
       <c r="AB22" s="100"/>
       <c r="AC22" s="101"/>
       <c r="AD22" s="102"/>
@@ -9791,28 +12147,28 @@
       <c r="C23" s="101"/>
       <c r="D23" s="101"/>
       <c r="E23" s="102"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="107"/>
-      <c r="J23" s="108"/>
-      <c r="K23" s="103"/>
-      <c r="L23" s="104"/>
-      <c r="M23" s="104"/>
-      <c r="N23" s="104"/>
-      <c r="O23" s="104"/>
-      <c r="P23" s="104"/>
-      <c r="Q23" s="104"/>
-      <c r="R23" s="104"/>
-      <c r="S23" s="104"/>
-      <c r="T23" s="104"/>
-      <c r="U23" s="104"/>
-      <c r="V23" s="104"/>
-      <c r="W23" s="104"/>
-      <c r="X23" s="104"/>
-      <c r="Y23" s="104"/>
-      <c r="Z23" s="104"/>
-      <c r="AA23" s="105"/>
+      <c r="F23" s="134"/>
+      <c r="G23" s="135"/>
+      <c r="H23" s="135"/>
+      <c r="I23" s="135"/>
+      <c r="J23" s="136"/>
+      <c r="K23" s="131"/>
+      <c r="L23" s="132"/>
+      <c r="M23" s="132"/>
+      <c r="N23" s="132"/>
+      <c r="O23" s="132"/>
+      <c r="P23" s="132"/>
+      <c r="Q23" s="132"/>
+      <c r="R23" s="132"/>
+      <c r="S23" s="132"/>
+      <c r="T23" s="132"/>
+      <c r="U23" s="132"/>
+      <c r="V23" s="132"/>
+      <c r="W23" s="132"/>
+      <c r="X23" s="132"/>
+      <c r="Y23" s="132"/>
+      <c r="Z23" s="132"/>
+      <c r="AA23" s="133"/>
       <c r="AB23" s="100"/>
       <c r="AC23" s="101"/>
       <c r="AD23" s="102"/>
@@ -9825,28 +12181,28 @@
       <c r="C24" s="101"/>
       <c r="D24" s="101"/>
       <c r="E24" s="102"/>
-      <c r="F24" s="106"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="107"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="108"/>
-      <c r="K24" s="103"/>
-      <c r="L24" s="104"/>
-      <c r="M24" s="104"/>
-      <c r="N24" s="104"/>
-      <c r="O24" s="104"/>
-      <c r="P24" s="104"/>
-      <c r="Q24" s="104"/>
-      <c r="R24" s="104"/>
-      <c r="S24" s="104"/>
-      <c r="T24" s="104"/>
-      <c r="U24" s="104"/>
-      <c r="V24" s="104"/>
-      <c r="W24" s="104"/>
-      <c r="X24" s="104"/>
-      <c r="Y24" s="104"/>
-      <c r="Z24" s="104"/>
-      <c r="AA24" s="105"/>
+      <c r="F24" s="134"/>
+      <c r="G24" s="135"/>
+      <c r="H24" s="135"/>
+      <c r="I24" s="135"/>
+      <c r="J24" s="136"/>
+      <c r="K24" s="131"/>
+      <c r="L24" s="132"/>
+      <c r="M24" s="132"/>
+      <c r="N24" s="132"/>
+      <c r="O24" s="132"/>
+      <c r="P24" s="132"/>
+      <c r="Q24" s="132"/>
+      <c r="R24" s="132"/>
+      <c r="S24" s="132"/>
+      <c r="T24" s="132"/>
+      <c r="U24" s="132"/>
+      <c r="V24" s="132"/>
+      <c r="W24" s="132"/>
+      <c r="X24" s="132"/>
+      <c r="Y24" s="132"/>
+      <c r="Z24" s="132"/>
+      <c r="AA24" s="133"/>
       <c r="AB24" s="100"/>
       <c r="AC24" s="101"/>
       <c r="AD24" s="102"/>
@@ -9859,28 +12215,28 @@
       <c r="C25" s="101"/>
       <c r="D25" s="101"/>
       <c r="E25" s="102"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="107"/>
-      <c r="H25" s="107"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="108"/>
-      <c r="K25" s="103"/>
-      <c r="L25" s="104"/>
-      <c r="M25" s="104"/>
-      <c r="N25" s="104"/>
-      <c r="O25" s="104"/>
-      <c r="P25" s="104"/>
-      <c r="Q25" s="104"/>
-      <c r="R25" s="104"/>
-      <c r="S25" s="104"/>
-      <c r="T25" s="104"/>
-      <c r="U25" s="104"/>
-      <c r="V25" s="104"/>
-      <c r="W25" s="104"/>
-      <c r="X25" s="104"/>
-      <c r="Y25" s="104"/>
-      <c r="Z25" s="104"/>
-      <c r="AA25" s="105"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="135"/>
+      <c r="H25" s="135"/>
+      <c r="I25" s="135"/>
+      <c r="J25" s="136"/>
+      <c r="K25" s="131"/>
+      <c r="L25" s="132"/>
+      <c r="M25" s="132"/>
+      <c r="N25" s="132"/>
+      <c r="O25" s="132"/>
+      <c r="P25" s="132"/>
+      <c r="Q25" s="132"/>
+      <c r="R25" s="132"/>
+      <c r="S25" s="132"/>
+      <c r="T25" s="132"/>
+      <c r="U25" s="132"/>
+      <c r="V25" s="132"/>
+      <c r="W25" s="132"/>
+      <c r="X25" s="132"/>
+      <c r="Y25" s="132"/>
+      <c r="Z25" s="132"/>
+      <c r="AA25" s="133"/>
       <c r="AB25" s="100"/>
       <c r="AC25" s="101"/>
       <c r="AD25" s="102"/>
@@ -9893,28 +12249,28 @@
       <c r="C26" s="101"/>
       <c r="D26" s="101"/>
       <c r="E26" s="102"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="107"/>
-      <c r="H26" s="107"/>
-      <c r="I26" s="107"/>
-      <c r="J26" s="108"/>
-      <c r="K26" s="103"/>
-      <c r="L26" s="104"/>
-      <c r="M26" s="104"/>
-      <c r="N26" s="104"/>
-      <c r="O26" s="104"/>
-      <c r="P26" s="104"/>
-      <c r="Q26" s="104"/>
-      <c r="R26" s="104"/>
-      <c r="S26" s="104"/>
-      <c r="T26" s="104"/>
-      <c r="U26" s="104"/>
-      <c r="V26" s="104"/>
-      <c r="W26" s="104"/>
-      <c r="X26" s="104"/>
-      <c r="Y26" s="104"/>
-      <c r="Z26" s="104"/>
-      <c r="AA26" s="105"/>
+      <c r="F26" s="134"/>
+      <c r="G26" s="135"/>
+      <c r="H26" s="135"/>
+      <c r="I26" s="135"/>
+      <c r="J26" s="136"/>
+      <c r="K26" s="131"/>
+      <c r="L26" s="132"/>
+      <c r="M26" s="132"/>
+      <c r="N26" s="132"/>
+      <c r="O26" s="132"/>
+      <c r="P26" s="132"/>
+      <c r="Q26" s="132"/>
+      <c r="R26" s="132"/>
+      <c r="S26" s="132"/>
+      <c r="T26" s="132"/>
+      <c r="U26" s="132"/>
+      <c r="V26" s="132"/>
+      <c r="W26" s="132"/>
+      <c r="X26" s="132"/>
+      <c r="Y26" s="132"/>
+      <c r="Z26" s="132"/>
+      <c r="AA26" s="133"/>
       <c r="AB26" s="100"/>
       <c r="AC26" s="101"/>
       <c r="AD26" s="102"/>
@@ -9927,28 +12283,28 @@
       <c r="C27" s="101"/>
       <c r="D27" s="101"/>
       <c r="E27" s="102"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="107"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="108"/>
-      <c r="K27" s="103"/>
-      <c r="L27" s="104"/>
-      <c r="M27" s="104"/>
-      <c r="N27" s="104"/>
-      <c r="O27" s="104"/>
-      <c r="P27" s="104"/>
-      <c r="Q27" s="104"/>
-      <c r="R27" s="104"/>
-      <c r="S27" s="104"/>
-      <c r="T27" s="104"/>
-      <c r="U27" s="104"/>
-      <c r="V27" s="104"/>
-      <c r="W27" s="104"/>
-      <c r="X27" s="104"/>
-      <c r="Y27" s="104"/>
-      <c r="Z27" s="104"/>
-      <c r="AA27" s="105"/>
+      <c r="F27" s="134"/>
+      <c r="G27" s="135"/>
+      <c r="H27" s="135"/>
+      <c r="I27" s="135"/>
+      <c r="J27" s="136"/>
+      <c r="K27" s="131"/>
+      <c r="L27" s="132"/>
+      <c r="M27" s="132"/>
+      <c r="N27" s="132"/>
+      <c r="O27" s="132"/>
+      <c r="P27" s="132"/>
+      <c r="Q27" s="132"/>
+      <c r="R27" s="132"/>
+      <c r="S27" s="132"/>
+      <c r="T27" s="132"/>
+      <c r="U27" s="132"/>
+      <c r="V27" s="132"/>
+      <c r="W27" s="132"/>
+      <c r="X27" s="132"/>
+      <c r="Y27" s="132"/>
+      <c r="Z27" s="132"/>
+      <c r="AA27" s="133"/>
       <c r="AB27" s="100"/>
       <c r="AC27" s="101"/>
       <c r="AD27" s="102"/>
@@ -10059,21 +12415,15 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="AB22:AD22"/>
-    <mergeCell ref="AC8:AD10"/>
-    <mergeCell ref="B7:E8"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB10"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="F7:Q8"/>
-    <mergeCell ref="Y8:Z10"/>
-    <mergeCell ref="B12:AD14"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F6:M6"/>
-    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="K21:AA21"/>
+    <mergeCell ref="K22:AA22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="K25:AA25"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:J22"/>
     <mergeCell ref="AB27:AD27"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="K23:AA23"/>
@@ -10090,15 +12440,21 @@
     <mergeCell ref="K27:AA27"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="F24:J24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="K21:AA21"/>
-    <mergeCell ref="K22:AA22"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="K25:AA25"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="F7:Q8"/>
+    <mergeCell ref="Y8:Z10"/>
+    <mergeCell ref="B12:AD14"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F6:M6"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AB22:AD22"/>
+    <mergeCell ref="AC8:AD10"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB10"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="Y7:Z7"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -10116,14 +12472,14 @@
       <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.08984375" customWidth="1"/>
     <col min="2" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="26.88671875" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" customWidth="1"/>
-    <col min="11" max="11" width="43.109375" customWidth="1"/>
+    <col min="8" max="8" width="26.90625" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" customWidth="1"/>
+    <col min="11" max="11" width="43.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
@@ -10308,7 +12664,7 @@
         <v>104</v>
       </c>
       <c r="K9" s="36" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
@@ -10942,18 +13298,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD85193-4B5D-4DA1-B792-933B1B5753D0}">
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="101" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="65" zoomScaleNormal="55" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.08984375" customWidth="1"/>
     <col min="2" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="26.88671875" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" customWidth="1"/>
-    <col min="11" max="11" width="43.109375" customWidth="1"/>
+    <col min="8" max="8" width="26.90625" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" customWidth="1"/>
+    <col min="11" max="11" width="43.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
@@ -11132,7 +13488,7 @@
         <v>104</v>
       </c>
       <c r="K9" s="36" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
@@ -11155,7 +13511,7 @@
         <v>104</v>
       </c>
       <c r="K10" s="36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
@@ -11169,16 +13525,16 @@
         <v>86</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="I11" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="J11" s="28" t="s">
-        <v>127</v>
-      </c>
       <c r="K11" s="36" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
@@ -11192,16 +13548,16 @@
         <v>87</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I12" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J12" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K12" s="36" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1">
@@ -11215,16 +13571,16 @@
         <v>88</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J13" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K13" s="36" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1">
@@ -11238,7 +13594,7 @@
         <v>89</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I14" s="28" t="s">
         <v>101</v>
@@ -11247,7 +13603,7 @@
         <v>104</v>
       </c>
       <c r="K14" s="36" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1">
@@ -11261,7 +13617,7 @@
         <v>90</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I15" s="28" t="s">
         <v>102</v>
@@ -11270,7 +13626,7 @@
         <v>104</v>
       </c>
       <c r="K15" s="36" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1">
@@ -11316,7 +13672,7 @@
         <v>104</v>
       </c>
       <c r="K17" s="36" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1">
@@ -11373,10 +13729,10 @@
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
       <c r="G20" s="28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I20" s="28" t="s">
         <v>101</v>
@@ -11385,7 +13741,7 @@
         <v>104</v>
       </c>
       <c r="K20" s="99" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1">
@@ -11396,7 +13752,7 @@
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
       <c r="G21" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H21" s="28" t="s">
         <v>120</v>
@@ -11408,7 +13764,7 @@
         <v>104</v>
       </c>
       <c r="K21" s="36" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1">
@@ -11419,10 +13775,10 @@
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
       <c r="G22" s="28" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="I22" s="28" t="s">
         <v>103</v>
@@ -11431,7 +13787,7 @@
         <v>104</v>
       </c>
       <c r="K22" s="36" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1">
@@ -11442,19 +13798,19 @@
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
       <c r="G23" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="H23" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="H23" s="28" t="s">
-        <v>140</v>
-      </c>
       <c r="I23" s="28" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="J23" s="28" t="s">
         <v>104</v>
       </c>
       <c r="K23" s="36" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1">
@@ -11557,7 +13913,7 @@
       <c r="F31" s="22"/>
       <c r="G31" s="95"/>
       <c r="H31" s="90" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="I31" s="90"/>
       <c r="J31" s="90"/>
@@ -11587,7 +13943,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="90" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="I33" s="90"/>
       <c r="J33" s="90"/>
@@ -11604,7 +13960,7 @@
         <v>2</v>
       </c>
       <c r="H34" s="90" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="I34" s="90"/>
       <c r="J34" s="90"/>
@@ -11621,7 +13977,7 @@
         <v>3</v>
       </c>
       <c r="H35" s="90" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I35" s="90"/>
       <c r="J35" s="90"/>
@@ -11636,7 +13992,7 @@
       <c r="F36" s="22"/>
       <c r="G36" s="95"/>
       <c r="H36" s="90" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="I36" s="90"/>
       <c r="J36" s="90"/>
@@ -11866,9 +14222,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.21875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.21875" style="10" customWidth="1"/>
-    <col min="7" max="33" width="4.21875" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.1796875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.1796875" style="10" customWidth="1"/>
+    <col min="7" max="33" width="4.1796875" style="1" customWidth="1"/>
     <col min="34" max="37" width="4" style="1" customWidth="1"/>
     <col min="38" max="16384" width="13" style="1"/>
   </cols>
@@ -12005,7 +14361,7 @@
       <c r="F4" s="45"/>
       <c r="G4" s="46"/>
       <c r="H4" s="48" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="I4" s="49"/>
       <c r="J4" s="49"/>
@@ -12048,7 +14404,7 @@
       <c r="F5" s="45"/>
       <c r="G5" s="46"/>
       <c r="H5" s="48" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="I5" s="49"/>
       <c r="J5" s="49"/>
@@ -13406,15 +15762,15 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="46.21875" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" customWidth="1"/>
-    <col min="9" max="9" width="22.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6328125" customWidth="1"/>
+    <col min="2" max="2" width="23.08984375" customWidth="1"/>
+    <col min="3" max="3" width="21.36328125" customWidth="1"/>
+    <col min="4" max="6" width="12.6328125" customWidth="1"/>
+    <col min="7" max="7" width="46.1796875" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" customWidth="1"/>
+    <col min="9" max="9" width="22.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" customHeight="1">
@@ -13922,7 +16278,7 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="58" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -13937,9 +16293,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.21875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.21875" style="10" customWidth="1"/>
-    <col min="7" max="33" width="4.21875" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.1796875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.1796875" style="10" customWidth="1"/>
+    <col min="7" max="33" width="4.1796875" style="1" customWidth="1"/>
     <col min="34" max="37" width="4" style="1" customWidth="1"/>
     <col min="38" max="16384" width="13" style="1"/>
   </cols>
@@ -15460,23 +17816,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C51DE0-7211-4AE0-98D8-82910ADEC6E6}">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="C1" zoomScale="58" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.08984375" customWidth="1"/>
     <col min="2" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="26.88671875" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" customWidth="1"/>
-    <col min="11" max="11" width="43.109375" customWidth="1"/>
+    <col min="8" max="8" width="26.90625" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" customWidth="1"/>
+    <col min="11" max="11" width="43.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1">
+    <row r="1" spans="1:13" ht="15" customHeight="1">
       <c r="A1" s="78" t="s">
         <v>37</v>
       </c>
@@ -15491,7 +17847,7 @@
       <c r="J1" s="67"/>
       <c r="K1" s="68"/>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1">
+    <row r="2" spans="1:13" ht="15" customHeight="1">
       <c r="A2" s="69" t="s">
         <v>38</v>
       </c>
@@ -15510,9 +17866,11 @@
       <c r="J2" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="71"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1">
+      <c r="K2" s="71" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1">
       <c r="A3" s="72"/>
       <c r="B3" s="23" t="s">
         <v>41</v>
@@ -15529,9 +17887,11 @@
       <c r="J3" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="73"/>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1">
+      <c r="K3" s="73">
+        <v>45044</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1">
       <c r="A4" s="72"/>
       <c r="B4" s="23" t="s">
         <v>43</v>
@@ -15550,7 +17910,7 @@
       </c>
       <c r="K4" s="71"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1">
+    <row r="5" spans="1:13" ht="15" customHeight="1">
       <c r="A5" s="74" t="s">
         <v>44</v>
       </c>
@@ -15571,7 +17931,7 @@
       </c>
       <c r="K5" s="75"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1">
+    <row r="6" spans="1:13" ht="15" customHeight="1">
       <c r="A6" s="76"/>
       <c r="B6" s="23" t="s">
         <v>82</v>
@@ -15590,7 +17950,7 @@
       </c>
       <c r="K6" s="75"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1">
+    <row r="7" spans="1:13" ht="15" customHeight="1">
       <c r="A7" s="77"/>
       <c r="B7" s="23" t="s">
         <v>48</v>
@@ -15607,7 +17967,7 @@
       <c r="J7" s="70"/>
       <c r="K7" s="75"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1">
+    <row r="8" spans="1:13" ht="15" customHeight="1">
       <c r="A8" s="81" t="s">
         <v>49</v>
       </c>
@@ -15632,150 +17992,262 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1">
+    <row r="9" spans="1:13" ht="15" customHeight="1">
       <c r="A9" s="82"/>
       <c r="B9" s="83"/>
       <c r="C9" s="83"/>
       <c r="D9" s="83"/>
       <c r="E9" s="83"/>
       <c r="F9" s="83"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1">
+      <c r="G9" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" s="36" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1">
       <c r="A10" s="84"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1">
+      <c r="G10" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" s="36" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" customHeight="1">
       <c r="A11" s="84"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1">
+      <c r="G11" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" s="36" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1">
       <c r="A12" s="84"/>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1">
+      <c r="G12" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="J12" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="K12" s="36" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1">
       <c r="A13" s="84"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1">
+      <c r="G13" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="J13" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="K13" s="36" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1">
       <c r="A14" s="84"/>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-    </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1">
+      <c r="G14" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="J14" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="K14" s="36" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15" customHeight="1">
       <c r="A15" s="84"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-    </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1">
+      <c r="G15" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="J15" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="K15" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="M15" s="156"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" customHeight="1">
       <c r="A16" s="84"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-    </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1">
+      <c r="G16" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="J16" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="K16" s="36" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15" customHeight="1">
       <c r="A17" s="84"/>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-    </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1">
+      <c r="G17" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="K17" s="36" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15" customHeight="1">
       <c r="A18" s="84"/>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-    </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1">
+      <c r="G18" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="J18" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="K18" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="O18" s="156"/>
+    </row>
+    <row r="19" spans="1:15" ht="15" customHeight="1">
       <c r="A19" s="84"/>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-    </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1">
+      <c r="G19" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="J19" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="K19" s="36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15" customHeight="1">
       <c r="A20" s="84"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -15788,7 +18260,7 @@
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1">
+    <row r="21" spans="1:15" ht="15" customHeight="1">
       <c r="A21" s="84"/>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
@@ -15801,7 +18273,7 @@
       <c r="J21" s="36"/>
       <c r="K21" s="36"/>
     </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1">
+    <row r="22" spans="1:15" ht="15" customHeight="1">
       <c r="A22" s="84"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -15814,7 +18286,7 @@
       <c r="J22" s="36"/>
       <c r="K22" s="36"/>
     </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1">
+    <row r="23" spans="1:15" ht="15" customHeight="1">
       <c r="A23" s="84"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -15827,7 +18299,7 @@
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
     </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1">
+    <row r="24" spans="1:15" ht="15" customHeight="1">
       <c r="A24" s="84"/>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -15840,7 +18312,7 @@
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
     </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1">
+    <row r="25" spans="1:15" ht="15" customHeight="1">
       <c r="A25" s="84"/>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -15853,7 +18325,7 @@
       <c r="J25" s="36"/>
       <c r="K25" s="36"/>
     </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1">
+    <row r="26" spans="1:15" ht="15" customHeight="1">
       <c r="A26" s="84"/>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -15866,7 +18338,7 @@
       <c r="J26" s="36"/>
       <c r="K26" s="36"/>
     </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1">
+    <row r="27" spans="1:15" ht="15" customHeight="1">
       <c r="A27" s="84"/>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
@@ -15879,7 +18351,7 @@
       <c r="J27" s="36"/>
       <c r="K27" s="36"/>
     </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1">
+    <row r="28" spans="1:15" ht="15" customHeight="1">
       <c r="A28" s="84"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -15892,7 +18364,7 @@
       <c r="J28" s="36"/>
       <c r="K28" s="36"/>
     </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1">
+    <row r="29" spans="1:15" ht="15" customHeight="1">
       <c r="A29" s="84"/>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
@@ -15907,7 +18379,7 @@
       <c r="J29" s="86"/>
       <c r="K29" s="87"/>
     </row>
-    <row r="30" spans="1:11" ht="15" customHeight="1">
+    <row r="30" spans="1:15" ht="15" customHeight="1">
       <c r="A30" s="84"/>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
@@ -15920,7 +18392,7 @@
       <c r="J30" s="97"/>
       <c r="K30" s="98"/>
     </row>
-    <row r="31" spans="1:11" ht="15" customHeight="1">
+    <row r="31" spans="1:15" ht="15" customHeight="1">
       <c r="A31" s="84"/>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
@@ -15928,12 +18400,11 @@
       <c r="E31" s="22"/>
       <c r="F31" s="22"/>
       <c r="G31" s="95"/>
-      <c r="H31" s="90"/>
       <c r="I31" s="90"/>
       <c r="J31" s="90"/>
       <c r="K31" s="91"/>
     </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1">
+    <row r="32" spans="1:15" ht="15" customHeight="1">
       <c r="A32" s="84"/>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
@@ -15941,7 +18412,9 @@
       <c r="E32" s="22"/>
       <c r="F32" s="22"/>
       <c r="G32" s="95"/>
-      <c r="H32" s="90"/>
+      <c r="H32" t="s">
+        <v>174</v>
+      </c>
       <c r="I32" s="90"/>
       <c r="J32" s="90"/>
       <c r="K32" s="91"/>
@@ -15954,7 +18427,6 @@
       <c r="E33" s="22"/>
       <c r="F33" s="22"/>
       <c r="G33" s="95"/>
-      <c r="H33" s="90"/>
       <c r="I33" s="90"/>
       <c r="J33" s="90"/>
       <c r="K33" s="91"/>
@@ -15967,7 +18439,9 @@
       <c r="E34" s="22"/>
       <c r="F34" s="22"/>
       <c r="G34" s="95"/>
-      <c r="H34" s="90"/>
+      <c r="H34" s="90" t="s">
+        <v>167</v>
+      </c>
       <c r="I34" s="90"/>
       <c r="J34" s="90"/>
       <c r="K34" s="91"/>
@@ -15980,7 +18454,9 @@
       <c r="E35" s="22"/>
       <c r="F35" s="22"/>
       <c r="G35" s="95"/>
-      <c r="H35" s="90"/>
+      <c r="H35" s="90" t="s">
+        <v>168</v>
+      </c>
       <c r="I35" s="90"/>
       <c r="J35" s="90"/>
       <c r="K35" s="91"/>
@@ -15993,7 +18469,9 @@
       <c r="E36" s="22"/>
       <c r="F36" s="22"/>
       <c r="G36" s="95"/>
-      <c r="H36" s="90"/>
+      <c r="H36" s="90" t="s">
+        <v>171</v>
+      </c>
       <c r="I36" s="90"/>
       <c r="J36" s="90"/>
       <c r="K36" s="91"/>
@@ -16006,7 +18484,9 @@
       <c r="E37" s="22"/>
       <c r="F37" s="22"/>
       <c r="G37" s="95"/>
-      <c r="H37" s="90"/>
+      <c r="H37" s="90" t="s">
+        <v>172</v>
+      </c>
       <c r="I37" s="90"/>
       <c r="J37" s="90"/>
       <c r="K37" s="91"/>
@@ -16032,7 +18512,9 @@
       <c r="E39" s="22"/>
       <c r="F39" s="22"/>
       <c r="G39" s="95"/>
-      <c r="H39" s="90"/>
+      <c r="H39" s="90" t="s">
+        <v>173</v>
+      </c>
       <c r="I39" s="90"/>
       <c r="J39" s="90"/>
       <c r="K39" s="91"/>
@@ -16187,14 +18669,14 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.08984375" customWidth="1"/>
     <col min="2" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="26.88671875" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" customWidth="1"/>
-    <col min="11" max="11" width="43.109375" customWidth="1"/>
+    <col min="8" max="8" width="26.90625" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" customWidth="1"/>
+    <col min="11" max="11" width="43.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
@@ -16904,17 +19386,17 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.08984375" customWidth="1"/>
     <col min="2" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="26.88671875" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" customWidth="1"/>
-    <col min="11" max="11" width="43.109375" customWidth="1"/>
+    <col min="8" max="8" width="26.90625" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" customWidth="1"/>
+    <col min="11" max="11" width="43.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
@@ -17628,14 +20110,14 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.08984375" customWidth="1"/>
     <col min="2" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="26.88671875" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" customWidth="1"/>
-    <col min="11" max="11" width="43.109375" customWidth="1"/>
+    <col min="8" max="8" width="26.90625" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" customWidth="1"/>
+    <col min="11" max="11" width="43.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
@@ -18349,14 +20831,14 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.08984375" customWidth="1"/>
     <col min="2" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="26.88671875" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" customWidth="1"/>
-    <col min="11" max="11" width="43.109375" customWidth="1"/>
+    <col min="8" max="8" width="26.90625" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" customWidth="1"/>
+    <col min="11" max="11" width="43.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
@@ -19063,12 +21545,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100DABD14941EAAFE4DB610C718A348C248" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="287c1e732a1e8d859cce4fc15fcb6a43">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="13d2a8c9-9fb6-41e1-8ed2-65b77f4e5958" xmlns:ns3="b918c7ec-5ef7-4a4c-89d5-00532501c535" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="41b3ae43e40c98335c69a3561cfba440" ns2:_="" ns3:_="">
     <xsd:import namespace="13d2a8c9-9fb6-41e1-8ed2-65b77f4e5958"/>
@@ -19233,6 +21709,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -19243,15 +21725,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60490CEE-9E57-4F61-A8AC-28802ECF76B0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA152F73-DAE7-4A1E-8E97-5C09D1467DE2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19270,6 +21743,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60490CEE-9E57-4F61-A8AC-28802ECF76B0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A407E75-EA60-45A3-8596-3AE9B5B47AEE}">
   <ds:schemaRefs>

--- a/02_画面設計書・モックアップ/02_画面設計書.xlsx
+++ b/02_画面設計書・モックアップ/02_画面設計書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\2023Dev3Early\02_画面設計書・モックアップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\system5\2023Dev3Early\02_画面設計書・モックアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBFE6EC-042A-4C07-B6E5-1E352471AF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199D6CBA-4370-4928-BE29-443CC1537C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="178">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -1411,6 +1411,167 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザーネーム</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>登録する</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>学籍番号</t>
+    <rPh sb="0" eb="4">
+      <t>ガクセキバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メールアドレスを半角で入力</t>
+    <rPh sb="8" eb="10">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>学籍番号を半角で入力</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザーネームを入力</t>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パスワードを半角で入力</t>
+    <rPh sb="6" eb="8">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メールアドレスを入力する</t>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>学籍番号を入力する</t>
+    <rPh sb="0" eb="4">
+      <t>ガクセキバンゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザーネームを入力する</t>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パスワードを入力する</t>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>確認後「登録する」ボタン押下する</t>
+    <rPh sb="0" eb="3">
+      <t>カクニンゴ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>⇒新規登録完了後、ホーム画面へ遷移する</t>
+    <rPh sb="1" eb="8">
+      <t>シンキトウロクカンリョウゴ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>新規登録完了後、ホーム画面へ遷移する</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>平　京太朗</t>
+  </si>
+  <si>
+    <t>平　京太朗</t>
+    <rPh sb="0" eb="1">
+      <t>タイラ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>キョウタロウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>学校交流サイト</t>
+    <rPh sb="0" eb="4">
+      <t>ガッコウコウリュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>学校交流サイト　システム設計書</t>
+    <rPh sb="0" eb="4">
+      <t>ガッコウコウリュウ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>セッケイショ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>学校交流サイトの画面遷移図を示す</t>
+    <rPh sb="0" eb="4">
+      <t>ガッコウコウリュウ</t>
+    </rPh>
+    <rPh sb="8" eb="13">
+      <t>ガメンセンイズ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>シメ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1759,7 +1920,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1"/>
@@ -2007,23 +2168,44 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2049,24 +2231,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2088,26 +2252,23 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2165,6 +2326,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2260,6 +2433,1242 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{446573FF-1327-438A-D4FB-6A32B496AED6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="1651000"/>
+          <a:ext cx="1066800" cy="958850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F72E0A4-6504-4955-A389-69D565A855AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3835400" y="3562350"/>
+          <a:ext cx="1066800" cy="958850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE93FB0B-69E6-414A-B9E6-D3E6D60B4A72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1752600" y="3562350"/>
+          <a:ext cx="1066800" cy="958850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AFA3482-ACF7-45ED-8F9A-4345FB8535AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3841750" y="5314950"/>
+          <a:ext cx="1066800" cy="958850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1806BA0-1DEA-4B1B-8C66-66A086F1FE46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5867400" y="3556000"/>
+          <a:ext cx="1066800" cy="958850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89C58B30-2BDF-4B16-BAAC-C90DF06BB7F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2787650" y="1651000"/>
+          <a:ext cx="1066800" cy="958850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="959365" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C5078D9-44C4-2F17-D0E7-8F3DA0CC1269}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="749300" y="1974850"/>
+          <a:ext cx="959365" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ログイン画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{948C4413-AEE1-630F-B799-42C09BAA71A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1771650" y="2130425"/>
+          <a:ext cx="1016000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1031051" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E98020A-2396-4F11-A829-3993381C2452}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2800350" y="1968500"/>
+          <a:ext cx="1031051" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>新規登録画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA7F0B63-2289-4FF0-9CB0-5B6EE2CE9501}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1238250" y="2609850"/>
+          <a:ext cx="1047750" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="875689" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30202DC3-BE1F-45C2-AC66-8297E9405419}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1809750" y="3937000"/>
+          <a:ext cx="875689" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ホーム画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C66F1C1C-BCD6-4221-9A07-C1BBBBB0ECAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2286000" y="2609850"/>
+          <a:ext cx="1035050" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線矢印コネクタ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82F80879-9FE7-4483-AAC1-9D962AAC4F97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2819400" y="4041775"/>
+          <a:ext cx="1016000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="806450" cy="459100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="テキスト ボックス 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{676AE480-0040-475A-B064-486FC1B7D7BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3975100" y="3810000"/>
+          <a:ext cx="806450" cy="459100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メッセージ一覧画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直線矢印コネクタ 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05727939-B987-4E99-A907-8087A19BC8F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4902200" y="4035425"/>
+          <a:ext cx="965200" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1063048" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="テキスト ボックス 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C77D670F-83DD-48FA-8FFD-3976B5B33EE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5873750" y="3898900"/>
+          <a:ext cx="1063048" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メッセージ画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114302</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38103</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>44449</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="コネクタ: カギ線 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C94F413-F035-3E5C-4883-A6137A931C75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2716215" y="4668840"/>
+          <a:ext cx="1736722" cy="514347"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="748923" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="テキスト ボックス 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E1237FF-22DF-40B8-8305-409B1F7B3529}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4006850" y="5689600"/>
+          <a:ext cx="748923" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>投稿画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="正方形/長方形 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35621118-2822-489E-8F9E-88DEF5194140}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3848100" y="6991350"/>
+          <a:ext cx="1066800" cy="958850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1106008" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="テキスト ボックス 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1E66F53-1D88-4BB9-AB16-934A3282A721}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3841750" y="7372350"/>
+          <a:ext cx="1106008" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>マイページ画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>120654</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>6355</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>156909</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="コネクタ: カギ線 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{207BB026-F399-4049-8F8F-7CC48461B6A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="48" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2718725" y="6387184"/>
+          <a:ext cx="1738054" cy="507996"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
@@ -2453,7 +3862,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2650,8 +4059,52 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>573070</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>465361</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>36001</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="図 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45376E3E-AF0B-D08D-7F6B-0DC4C1011850}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1347770" y="2171700"/>
+          <a:ext cx="2616441" cy="5674801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
@@ -2844,10 +4297,1187 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22394A61-AC75-456F-BF39-F4967A4EF951}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2146300" y="3232150"/>
+          <a:ext cx="990600" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>369403</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>36804</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41D30574-A23B-4FC8-BA70-0E2773EEEF76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3155950" y="2959100"/>
+          <a:ext cx="712303" cy="506704"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>809547</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>144802</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32CBB414-DCB7-46BF-AFF9-DCD9BDE6F6B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3816350" y="2679700"/>
+          <a:ext cx="492047" cy="513102"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C67343B7-D23E-4E9E-A390-E47F7B5C0436}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1473200" y="4229100"/>
+          <a:ext cx="2349500" cy="349250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>24104</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBEE0160-7FCA-468E-A046-93CC1D4DD1D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3829050" y="4210050"/>
+          <a:ext cx="457200" cy="195554"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>30454</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBA57EC1-993D-490F-9B8C-86FAE4A7D74C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3841750" y="4629150"/>
+          <a:ext cx="457200" cy="163804"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>806450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>68554</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線コネクタ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7E2EF65-CE73-431B-BA22-BCA4C25D2FFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3848100" y="5048250"/>
+          <a:ext cx="457200" cy="163804"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>806450</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>68554</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A818E1AF-123D-4689-B49C-C3A6A4778DD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3848100" y="5429250"/>
+          <a:ext cx="457200" cy="163804"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>182854</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直線コネクタ 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7708CC7-345A-47A5-BDB6-78EEDD960A26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3829050" y="6115050"/>
+          <a:ext cx="457200" cy="163804"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>282497</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>30502</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="正方形/長方形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A736892D-9AE2-4C83-8605-9575A7CC0C47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4197350" y="3898900"/>
+          <a:ext cx="492047" cy="513102"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>730250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314247</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>125752</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41204442-D15B-4236-BB03-667253FDD90F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4229100" y="4375150"/>
+          <a:ext cx="492047" cy="513102"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>768350</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352347</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>176552</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EEA2EDC-C3D0-4880-9810-7DF5912252E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="4806950"/>
+          <a:ext cx="492047" cy="513102"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>④</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>320597</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>17802</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="正方形/長方形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B49570D-A534-452D-9C4C-A3CEE0C88615}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4235450" y="5791200"/>
+          <a:ext cx="492047" cy="513102"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑥</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="正方形/長方形 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FAB8D8F-6530-4CC7-9536-B4E2763E8942}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1473200" y="4635500"/>
+          <a:ext cx="2349500" cy="349250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="正方形/長方形 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D97CD336-59DF-4EBD-ABE5-221FE5A4D8F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485900" y="5035550"/>
+          <a:ext cx="2349500" cy="349250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="正方形/長方形 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE9000F1-4005-45F2-AB54-E18EA638DD44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1479550" y="5441950"/>
+          <a:ext cx="2349500" cy="349250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="正方形/長方形 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CD1F281-2127-4756-821E-FFD81096D249}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485900" y="6115050"/>
+          <a:ext cx="2349500" cy="349250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>358697</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>182902</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="正方形/長方形 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62607D50-1CE6-4367-A6B9-327DC1617BFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4273550" y="5194300"/>
+          <a:ext cx="492047" cy="513102"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑤</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3044,7 +5674,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3241,7 +5871,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5260,7 +7890,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -8840,9 +11470,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.109375" style="1" customWidth="1"/>
-    <col min="5" max="8" width="4.109375" style="10" customWidth="1"/>
-    <col min="9" max="32" width="4.109375" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.08984375" style="1" customWidth="1"/>
+    <col min="5" max="8" width="4.08984375" style="10" customWidth="1"/>
+    <col min="9" max="32" width="4.08984375" style="1" customWidth="1"/>
     <col min="33" max="36" width="4" style="1" customWidth="1"/>
     <col min="37" max="16384" width="13" style="1"/>
   </cols>
@@ -9050,16 +11680,16 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="109" t="s">
+      <c r="Y2" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="110"/>
-      <c r="AA2" s="127">
+      <c r="Z2" s="117"/>
+      <c r="AA2" s="128">
         <v>45058</v>
       </c>
-      <c r="AB2" s="128"/>
-      <c r="AC2" s="128"/>
-      <c r="AD2" s="129"/>
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="129"/>
+      <c r="AD2" s="130"/>
       <c r="AE2" s="21"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
@@ -9179,16 +11809,16 @@
       <c r="C6" s="63"/>
       <c r="D6" s="63"/>
       <c r="E6" s="64"/>
-      <c r="F6" s="124" t="s">
+      <c r="F6" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="127"/>
+      <c r="M6" s="127"/>
       <c r="N6" s="65"/>
       <c r="O6" s="65"/>
       <c r="P6" s="65"/>
@@ -9211,26 +11841,26 @@
     </row>
     <row r="7" spans="1:176" ht="15" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="130" t="s">
+      <c r="B7" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="131"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="111" t="s">
+      <c r="C7" s="110"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="118" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="112"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="113"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="120"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -9238,40 +11868,40 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="109" t="s">
+      <c r="Y7" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="Z7" s="110"/>
-      <c r="AA7" s="109" t="s">
+      <c r="Z7" s="117"/>
+      <c r="AA7" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="AB7" s="110"/>
-      <c r="AC7" s="109" t="s">
+      <c r="AB7" s="117"/>
+      <c r="AC7" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="AD7" s="110"/>
+      <c r="AD7" s="117"/>
       <c r="AE7" s="21"/>
       <c r="AF7" s="61"/>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="134"/>
-      <c r="C8" s="135"/>
-      <c r="D8" s="135"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="115"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="116"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="122"/>
+      <c r="L8" s="122"/>
+      <c r="M8" s="122"/>
+      <c r="N8" s="122"/>
+      <c r="O8" s="122"/>
+      <c r="P8" s="122"/>
+      <c r="Q8" s="123"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -9279,12 +11909,12 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="117"/>
-      <c r="Z8" s="118"/>
-      <c r="AA8" s="117"/>
-      <c r="AB8" s="118"/>
-      <c r="AC8" s="117"/>
-      <c r="AD8" s="118"/>
+      <c r="Y8" s="103"/>
+      <c r="Z8" s="104"/>
+      <c r="AA8" s="103"/>
+      <c r="AB8" s="104"/>
+      <c r="AC8" s="103"/>
+      <c r="AD8" s="104"/>
       <c r="AE8" s="19"/>
       <c r="AF8" s="61"/>
       <c r="AG8" s="2"/>
@@ -9314,12 +11944,12 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="119"/>
-      <c r="Z9" s="120"/>
-      <c r="AA9" s="119"/>
-      <c r="AB9" s="120"/>
-      <c r="AC9" s="119"/>
-      <c r="AD9" s="120"/>
+      <c r="Y9" s="105"/>
+      <c r="Z9" s="106"/>
+      <c r="AA9" s="105"/>
+      <c r="AB9" s="106"/>
+      <c r="AC9" s="105"/>
+      <c r="AD9" s="106"/>
       <c r="AE9" s="19"/>
       <c r="AF9" s="61"/>
       <c r="AG9" s="2"/>
@@ -9349,12 +11979,12 @@
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
-      <c r="Y10" s="121"/>
-      <c r="Z10" s="122"/>
-      <c r="AA10" s="121"/>
-      <c r="AB10" s="122"/>
-      <c r="AC10" s="121"/>
-      <c r="AD10" s="122"/>
+      <c r="Y10" s="107"/>
+      <c r="Z10" s="108"/>
+      <c r="AA10" s="107"/>
+      <c r="AB10" s="108"/>
+      <c r="AC10" s="107"/>
+      <c r="AD10" s="108"/>
       <c r="AE10" s="19"/>
       <c r="AF10" s="61"/>
       <c r="AG10" s="12"/>
@@ -9395,105 +12025,105 @@
     </row>
     <row r="12" spans="1:176" ht="15" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="123" t="s">
+      <c r="B12" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="123"/>
-      <c r="K12" s="123"/>
-      <c r="L12" s="123"/>
-      <c r="M12" s="123"/>
-      <c r="N12" s="123"/>
-      <c r="O12" s="123"/>
-      <c r="P12" s="123"/>
-      <c r="Q12" s="123"/>
-      <c r="R12" s="123"/>
-      <c r="S12" s="123"/>
-      <c r="T12" s="123"/>
-      <c r="U12" s="123"/>
-      <c r="V12" s="123"/>
-      <c r="W12" s="123"/>
-      <c r="X12" s="123"/>
-      <c r="Y12" s="123"/>
-      <c r="Z12" s="123"/>
-      <c r="AA12" s="123"/>
-      <c r="AB12" s="123"/>
-      <c r="AC12" s="123"/>
-      <c r="AD12" s="123"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="124"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="124"/>
+      <c r="M12" s="124"/>
+      <c r="N12" s="124"/>
+      <c r="O12" s="124"/>
+      <c r="P12" s="124"/>
+      <c r="Q12" s="124"/>
+      <c r="R12" s="124"/>
+      <c r="S12" s="124"/>
+      <c r="T12" s="124"/>
+      <c r="U12" s="124"/>
+      <c r="V12" s="124"/>
+      <c r="W12" s="124"/>
+      <c r="X12" s="124"/>
+      <c r="Y12" s="124"/>
+      <c r="Z12" s="124"/>
+      <c r="AA12" s="124"/>
+      <c r="AB12" s="124"/>
+      <c r="AC12" s="124"/>
+      <c r="AD12" s="124"/>
       <c r="AE12" s="15"/>
       <c r="AF12" s="2"/>
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="123"/>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="123"/>
-      <c r="K13" s="123"/>
-      <c r="L13" s="123"/>
-      <c r="M13" s="123"/>
-      <c r="N13" s="123"/>
-      <c r="O13" s="123"/>
-      <c r="P13" s="123"/>
-      <c r="Q13" s="123"/>
-      <c r="R13" s="123"/>
-      <c r="S13" s="123"/>
-      <c r="T13" s="123"/>
-      <c r="U13" s="123"/>
-      <c r="V13" s="123"/>
-      <c r="W13" s="123"/>
-      <c r="X13" s="123"/>
-      <c r="Y13" s="123"/>
-      <c r="Z13" s="123"/>
-      <c r="AA13" s="123"/>
-      <c r="AB13" s="123"/>
-      <c r="AC13" s="123"/>
-      <c r="AD13" s="123"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="124"/>
+      <c r="J13" s="124"/>
+      <c r="K13" s="124"/>
+      <c r="L13" s="124"/>
+      <c r="M13" s="124"/>
+      <c r="N13" s="124"/>
+      <c r="O13" s="124"/>
+      <c r="P13" s="124"/>
+      <c r="Q13" s="124"/>
+      <c r="R13" s="124"/>
+      <c r="S13" s="124"/>
+      <c r="T13" s="124"/>
+      <c r="U13" s="124"/>
+      <c r="V13" s="124"/>
+      <c r="W13" s="124"/>
+      <c r="X13" s="124"/>
+      <c r="Y13" s="124"/>
+      <c r="Z13" s="124"/>
+      <c r="AA13" s="124"/>
+      <c r="AB13" s="124"/>
+      <c r="AC13" s="124"/>
+      <c r="AD13" s="124"/>
       <c r="AE13" s="15"/>
       <c r="AF13" s="2"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="123"/>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="123"/>
-      <c r="K14" s="123"/>
-      <c r="L14" s="123"/>
-      <c r="M14" s="123"/>
-      <c r="N14" s="123"/>
-      <c r="O14" s="123"/>
-      <c r="P14" s="123"/>
-      <c r="Q14" s="123"/>
-      <c r="R14" s="123"/>
-      <c r="S14" s="123"/>
-      <c r="T14" s="123"/>
-      <c r="U14" s="123"/>
-      <c r="V14" s="123"/>
-      <c r="W14" s="123"/>
-      <c r="X14" s="123"/>
-      <c r="Y14" s="123"/>
-      <c r="Z14" s="123"/>
-      <c r="AA14" s="123"/>
-      <c r="AB14" s="123"/>
-      <c r="AC14" s="123"/>
-      <c r="AD14" s="123"/>
+      <c r="B14" s="124"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="124"/>
+      <c r="J14" s="124"/>
+      <c r="K14" s="124"/>
+      <c r="L14" s="124"/>
+      <c r="M14" s="124"/>
+      <c r="N14" s="124"/>
+      <c r="O14" s="124"/>
+      <c r="P14" s="124"/>
+      <c r="Q14" s="124"/>
+      <c r="R14" s="124"/>
+      <c r="S14" s="124"/>
+      <c r="T14" s="124"/>
+      <c r="U14" s="124"/>
+      <c r="V14" s="124"/>
+      <c r="W14" s="124"/>
+      <c r="X14" s="124"/>
+      <c r="Y14" s="124"/>
+      <c r="Z14" s="124"/>
+      <c r="AA14" s="124"/>
+      <c r="AB14" s="124"/>
+      <c r="AC14" s="124"/>
+      <c r="AD14" s="124"/>
       <c r="AE14" s="15"/>
       <c r="AF14" s="2"/>
     </row>
@@ -9753,32 +12383,32 @@
       <c r="C22" s="101"/>
       <c r="D22" s="101"/>
       <c r="E22" s="102"/>
-      <c r="F22" s="106">
+      <c r="F22" s="134">
         <v>45058</v>
       </c>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="108"/>
-      <c r="K22" s="103" t="s">
+      <c r="G22" s="135"/>
+      <c r="H22" s="135"/>
+      <c r="I22" s="135"/>
+      <c r="J22" s="136"/>
+      <c r="K22" s="131" t="s">
         <v>58</v>
       </c>
-      <c r="L22" s="104"/>
-      <c r="M22" s="104"/>
-      <c r="N22" s="104"/>
-      <c r="O22" s="104"/>
-      <c r="P22" s="104"/>
-      <c r="Q22" s="104"/>
-      <c r="R22" s="104"/>
-      <c r="S22" s="104"/>
-      <c r="T22" s="104"/>
-      <c r="U22" s="104"/>
-      <c r="V22" s="104"/>
-      <c r="W22" s="104"/>
-      <c r="X22" s="104"/>
-      <c r="Y22" s="104"/>
-      <c r="Z22" s="104"/>
-      <c r="AA22" s="105"/>
+      <c r="L22" s="132"/>
+      <c r="M22" s="132"/>
+      <c r="N22" s="132"/>
+      <c r="O22" s="132"/>
+      <c r="P22" s="132"/>
+      <c r="Q22" s="132"/>
+      <c r="R22" s="132"/>
+      <c r="S22" s="132"/>
+      <c r="T22" s="132"/>
+      <c r="U22" s="132"/>
+      <c r="V22" s="132"/>
+      <c r="W22" s="132"/>
+      <c r="X22" s="132"/>
+      <c r="Y22" s="132"/>
+      <c r="Z22" s="132"/>
+      <c r="AA22" s="133"/>
       <c r="AB22" s="100"/>
       <c r="AC22" s="101"/>
       <c r="AD22" s="102"/>
@@ -9791,28 +12421,28 @@
       <c r="C23" s="101"/>
       <c r="D23" s="101"/>
       <c r="E23" s="102"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="107"/>
-      <c r="J23" s="108"/>
-      <c r="K23" s="103"/>
-      <c r="L23" s="104"/>
-      <c r="M23" s="104"/>
-      <c r="N23" s="104"/>
-      <c r="O23" s="104"/>
-      <c r="P23" s="104"/>
-      <c r="Q23" s="104"/>
-      <c r="R23" s="104"/>
-      <c r="S23" s="104"/>
-      <c r="T23" s="104"/>
-      <c r="U23" s="104"/>
-      <c r="V23" s="104"/>
-      <c r="W23" s="104"/>
-      <c r="X23" s="104"/>
-      <c r="Y23" s="104"/>
-      <c r="Z23" s="104"/>
-      <c r="AA23" s="105"/>
+      <c r="F23" s="134"/>
+      <c r="G23" s="135"/>
+      <c r="H23" s="135"/>
+      <c r="I23" s="135"/>
+      <c r="J23" s="136"/>
+      <c r="K23" s="131"/>
+      <c r="L23" s="132"/>
+      <c r="M23" s="132"/>
+      <c r="N23" s="132"/>
+      <c r="O23" s="132"/>
+      <c r="P23" s="132"/>
+      <c r="Q23" s="132"/>
+      <c r="R23" s="132"/>
+      <c r="S23" s="132"/>
+      <c r="T23" s="132"/>
+      <c r="U23" s="132"/>
+      <c r="V23" s="132"/>
+      <c r="W23" s="132"/>
+      <c r="X23" s="132"/>
+      <c r="Y23" s="132"/>
+      <c r="Z23" s="132"/>
+      <c r="AA23" s="133"/>
       <c r="AB23" s="100"/>
       <c r="AC23" s="101"/>
       <c r="AD23" s="102"/>
@@ -9825,28 +12455,28 @@
       <c r="C24" s="101"/>
       <c r="D24" s="101"/>
       <c r="E24" s="102"/>
-      <c r="F24" s="106"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="107"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="108"/>
-      <c r="K24" s="103"/>
-      <c r="L24" s="104"/>
-      <c r="M24" s="104"/>
-      <c r="N24" s="104"/>
-      <c r="O24" s="104"/>
-      <c r="P24" s="104"/>
-      <c r="Q24" s="104"/>
-      <c r="R24" s="104"/>
-      <c r="S24" s="104"/>
-      <c r="T24" s="104"/>
-      <c r="U24" s="104"/>
-      <c r="V24" s="104"/>
-      <c r="W24" s="104"/>
-      <c r="X24" s="104"/>
-      <c r="Y24" s="104"/>
-      <c r="Z24" s="104"/>
-      <c r="AA24" s="105"/>
+      <c r="F24" s="134"/>
+      <c r="G24" s="135"/>
+      <c r="H24" s="135"/>
+      <c r="I24" s="135"/>
+      <c r="J24" s="136"/>
+      <c r="K24" s="131"/>
+      <c r="L24" s="132"/>
+      <c r="M24" s="132"/>
+      <c r="N24" s="132"/>
+      <c r="O24" s="132"/>
+      <c r="P24" s="132"/>
+      <c r="Q24" s="132"/>
+      <c r="R24" s="132"/>
+      <c r="S24" s="132"/>
+      <c r="T24" s="132"/>
+      <c r="U24" s="132"/>
+      <c r="V24" s="132"/>
+      <c r="W24" s="132"/>
+      <c r="X24" s="132"/>
+      <c r="Y24" s="132"/>
+      <c r="Z24" s="132"/>
+      <c r="AA24" s="133"/>
       <c r="AB24" s="100"/>
       <c r="AC24" s="101"/>
       <c r="AD24" s="102"/>
@@ -9859,28 +12489,28 @@
       <c r="C25" s="101"/>
       <c r="D25" s="101"/>
       <c r="E25" s="102"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="107"/>
-      <c r="H25" s="107"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="108"/>
-      <c r="K25" s="103"/>
-      <c r="L25" s="104"/>
-      <c r="M25" s="104"/>
-      <c r="N25" s="104"/>
-      <c r="O25" s="104"/>
-      <c r="P25" s="104"/>
-      <c r="Q25" s="104"/>
-      <c r="R25" s="104"/>
-      <c r="S25" s="104"/>
-      <c r="T25" s="104"/>
-      <c r="U25" s="104"/>
-      <c r="V25" s="104"/>
-      <c r="W25" s="104"/>
-      <c r="X25" s="104"/>
-      <c r="Y25" s="104"/>
-      <c r="Z25" s="104"/>
-      <c r="AA25" s="105"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="135"/>
+      <c r="H25" s="135"/>
+      <c r="I25" s="135"/>
+      <c r="J25" s="136"/>
+      <c r="K25" s="131"/>
+      <c r="L25" s="132"/>
+      <c r="M25" s="132"/>
+      <c r="N25" s="132"/>
+      <c r="O25" s="132"/>
+      <c r="P25" s="132"/>
+      <c r="Q25" s="132"/>
+      <c r="R25" s="132"/>
+      <c r="S25" s="132"/>
+      <c r="T25" s="132"/>
+      <c r="U25" s="132"/>
+      <c r="V25" s="132"/>
+      <c r="W25" s="132"/>
+      <c r="X25" s="132"/>
+      <c r="Y25" s="132"/>
+      <c r="Z25" s="132"/>
+      <c r="AA25" s="133"/>
       <c r="AB25" s="100"/>
       <c r="AC25" s="101"/>
       <c r="AD25" s="102"/>
@@ -9893,28 +12523,28 @@
       <c r="C26" s="101"/>
       <c r="D26" s="101"/>
       <c r="E26" s="102"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="107"/>
-      <c r="H26" s="107"/>
-      <c r="I26" s="107"/>
-      <c r="J26" s="108"/>
-      <c r="K26" s="103"/>
-      <c r="L26" s="104"/>
-      <c r="M26" s="104"/>
-      <c r="N26" s="104"/>
-      <c r="O26" s="104"/>
-      <c r="P26" s="104"/>
-      <c r="Q26" s="104"/>
-      <c r="R26" s="104"/>
-      <c r="S26" s="104"/>
-      <c r="T26" s="104"/>
-      <c r="U26" s="104"/>
-      <c r="V26" s="104"/>
-      <c r="W26" s="104"/>
-      <c r="X26" s="104"/>
-      <c r="Y26" s="104"/>
-      <c r="Z26" s="104"/>
-      <c r="AA26" s="105"/>
+      <c r="F26" s="134"/>
+      <c r="G26" s="135"/>
+      <c r="H26" s="135"/>
+      <c r="I26" s="135"/>
+      <c r="J26" s="136"/>
+      <c r="K26" s="131"/>
+      <c r="L26" s="132"/>
+      <c r="M26" s="132"/>
+      <c r="N26" s="132"/>
+      <c r="O26" s="132"/>
+      <c r="P26" s="132"/>
+      <c r="Q26" s="132"/>
+      <c r="R26" s="132"/>
+      <c r="S26" s="132"/>
+      <c r="T26" s="132"/>
+      <c r="U26" s="132"/>
+      <c r="V26" s="132"/>
+      <c r="W26" s="132"/>
+      <c r="X26" s="132"/>
+      <c r="Y26" s="132"/>
+      <c r="Z26" s="132"/>
+      <c r="AA26" s="133"/>
       <c r="AB26" s="100"/>
       <c r="AC26" s="101"/>
       <c r="AD26" s="102"/>
@@ -9927,28 +12557,28 @@
       <c r="C27" s="101"/>
       <c r="D27" s="101"/>
       <c r="E27" s="102"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="107"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="108"/>
-      <c r="K27" s="103"/>
-      <c r="L27" s="104"/>
-      <c r="M27" s="104"/>
-      <c r="N27" s="104"/>
-      <c r="O27" s="104"/>
-      <c r="P27" s="104"/>
-      <c r="Q27" s="104"/>
-      <c r="R27" s="104"/>
-      <c r="S27" s="104"/>
-      <c r="T27" s="104"/>
-      <c r="U27" s="104"/>
-      <c r="V27" s="104"/>
-      <c r="W27" s="104"/>
-      <c r="X27" s="104"/>
-      <c r="Y27" s="104"/>
-      <c r="Z27" s="104"/>
-      <c r="AA27" s="105"/>
+      <c r="F27" s="134"/>
+      <c r="G27" s="135"/>
+      <c r="H27" s="135"/>
+      <c r="I27" s="135"/>
+      <c r="J27" s="136"/>
+      <c r="K27" s="131"/>
+      <c r="L27" s="132"/>
+      <c r="M27" s="132"/>
+      <c r="N27" s="132"/>
+      <c r="O27" s="132"/>
+      <c r="P27" s="132"/>
+      <c r="Q27" s="132"/>
+      <c r="R27" s="132"/>
+      <c r="S27" s="132"/>
+      <c r="T27" s="132"/>
+      <c r="U27" s="132"/>
+      <c r="V27" s="132"/>
+      <c r="W27" s="132"/>
+      <c r="X27" s="132"/>
+      <c r="Y27" s="132"/>
+      <c r="Z27" s="132"/>
+      <c r="AA27" s="133"/>
       <c r="AB27" s="100"/>
       <c r="AC27" s="101"/>
       <c r="AD27" s="102"/>
@@ -10059,21 +12689,15 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="AB22:AD22"/>
-    <mergeCell ref="AC8:AD10"/>
-    <mergeCell ref="B7:E8"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB10"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="F7:Q8"/>
-    <mergeCell ref="Y8:Z10"/>
-    <mergeCell ref="B12:AD14"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F6:M6"/>
-    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="K21:AA21"/>
+    <mergeCell ref="K22:AA22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="K25:AA25"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:J22"/>
     <mergeCell ref="AB27:AD27"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="K23:AA23"/>
@@ -10090,15 +12714,21 @@
     <mergeCell ref="K27:AA27"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="F24:J24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="K21:AA21"/>
-    <mergeCell ref="K22:AA22"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="K25:AA25"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="F7:Q8"/>
+    <mergeCell ref="Y8:Z10"/>
+    <mergeCell ref="B12:AD14"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F6:M6"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AB22:AD22"/>
+    <mergeCell ref="AC8:AD10"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB10"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="Y7:Z7"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -10112,18 +12742,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36631149-5000-4DF3-A567-26E027CB82BB}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="93" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView topLeftCell="A12" zoomScale="93" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.08984375" customWidth="1"/>
     <col min="2" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="26.88671875" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" customWidth="1"/>
-    <col min="11" max="11" width="43.109375" customWidth="1"/>
+    <col min="8" max="8" width="26.90625" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" customWidth="1"/>
+    <col min="11" max="11" width="43.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
@@ -10942,18 +13572,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD85193-4B5D-4DA1-B792-933B1B5753D0}">
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="101" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="D17" zoomScale="101" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.08984375" customWidth="1"/>
     <col min="2" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="26.88671875" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" customWidth="1"/>
-    <col min="11" max="11" width="43.109375" customWidth="1"/>
+    <col min="8" max="8" width="26.90625" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" customWidth="1"/>
+    <col min="11" max="11" width="43.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
@@ -11866,9 +14496,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.21875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.21875" style="10" customWidth="1"/>
-    <col min="7" max="33" width="4.21875" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.1796875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.1796875" style="10" customWidth="1"/>
+    <col min="7" max="33" width="4.1796875" style="1" customWidth="1"/>
     <col min="34" max="37" width="4" style="1" customWidth="1"/>
     <col min="38" max="16384" width="13" style="1"/>
   </cols>
@@ -13406,15 +16036,15 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="46.21875" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" customWidth="1"/>
-    <col min="9" max="9" width="22.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6328125" customWidth="1"/>
+    <col min="2" max="2" width="23.08984375" customWidth="1"/>
+    <col min="3" max="3" width="21.36328125" customWidth="1"/>
+    <col min="4" max="6" width="12.6328125" customWidth="1"/>
+    <col min="7" max="7" width="46.1796875" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" customWidth="1"/>
+    <col min="9" max="9" width="22.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" customHeight="1">
@@ -13922,7 +16552,7 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="58" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -13931,15 +16561,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG45"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="AM21" sqref="AM21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.21875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.21875" style="10" customWidth="1"/>
-    <col min="7" max="33" width="4.21875" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.1796875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.1796875" style="10" customWidth="1"/>
+    <col min="7" max="33" width="4.1796875" style="1" customWidth="1"/>
     <col min="34" max="37" width="4" style="1" customWidth="1"/>
     <col min="38" max="16384" width="13" style="1"/>
   </cols>
@@ -13993,7 +16623,9 @@
       <c r="E2" s="45"/>
       <c r="F2" s="45"/>
       <c r="G2" s="46"/>
-      <c r="H2" s="48"/>
+      <c r="H2" s="48" t="s">
+        <v>175</v>
+      </c>
       <c r="I2" s="49"/>
       <c r="J2" s="49"/>
       <c r="K2" s="49"/>
@@ -14017,7 +16649,9 @@
       </c>
       <c r="AB2" s="146"/>
       <c r="AC2" s="146"/>
-      <c r="AD2" s="48"/>
+      <c r="AD2" s="48" t="s">
+        <v>174</v>
+      </c>
       <c r="AE2" s="49"/>
       <c r="AF2" s="49"/>
       <c r="AG2" s="46"/>
@@ -14032,7 +16666,9 @@
       <c r="E3" s="45"/>
       <c r="F3" s="45"/>
       <c r="G3" s="46"/>
-      <c r="H3" s="48"/>
+      <c r="H3" s="48" t="s">
+        <v>73</v>
+      </c>
       <c r="I3" s="49"/>
       <c r="J3" s="49"/>
       <c r="K3" s="49"/>
@@ -14056,10 +16692,12 @@
       </c>
       <c r="AB3" s="146"/>
       <c r="AC3" s="146"/>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="49"/>
-      <c r="AF3" s="49"/>
-      <c r="AG3" s="46"/>
+      <c r="AD3" s="157">
+        <v>45044</v>
+      </c>
+      <c r="AE3" s="158"/>
+      <c r="AF3" s="158"/>
+      <c r="AG3" s="159"/>
     </row>
     <row r="4" spans="1:33" ht="12.75" customHeight="1">
       <c r="A4" s="143"/>
@@ -14071,7 +16709,9 @@
       <c r="E4" s="47"/>
       <c r="F4" s="45"/>
       <c r="G4" s="46"/>
-      <c r="H4" s="48"/>
+      <c r="H4" s="48" t="s">
+        <v>176</v>
+      </c>
       <c r="I4" s="49"/>
       <c r="J4" s="49"/>
       <c r="K4" s="49"/>
@@ -14095,7 +16735,9 @@
       </c>
       <c r="AB4" s="146"/>
       <c r="AC4" s="146"/>
-      <c r="AD4" s="48"/>
+      <c r="AD4" s="48" t="s">
+        <v>83</v>
+      </c>
       <c r="AE4" s="49"/>
       <c r="AF4" s="49"/>
       <c r="AG4" s="46"/>
@@ -14151,7 +16793,9 @@
       <c r="E6" s="45"/>
       <c r="F6" s="45"/>
       <c r="G6" s="46"/>
-      <c r="H6" s="48"/>
+      <c r="H6" s="48" t="s">
+        <v>177</v>
+      </c>
       <c r="I6" s="49"/>
       <c r="J6" s="49"/>
       <c r="K6" s="49"/>
@@ -14886,7 +17530,6 @@
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
@@ -15441,7 +18084,8 @@
       <c r="AG45" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="AD3:AG3"/>
     <mergeCell ref="A5:C6"/>
     <mergeCell ref="AA5:AC5"/>
     <mergeCell ref="AA6:AC6"/>
@@ -15455,6 +18099,7 @@
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -15466,14 +18111,14 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.08984375" customWidth="1"/>
     <col min="2" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="26.88671875" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" customWidth="1"/>
-    <col min="11" max="11" width="43.109375" customWidth="1"/>
+    <col min="8" max="8" width="26.90625" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" customWidth="1"/>
+    <col min="11" max="11" width="43.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
@@ -16187,14 +18832,14 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.08984375" customWidth="1"/>
     <col min="2" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="26.88671875" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" customWidth="1"/>
-    <col min="11" max="11" width="43.109375" customWidth="1"/>
+    <col min="8" max="8" width="26.90625" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" customWidth="1"/>
+    <col min="11" max="11" width="43.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
@@ -16903,18 +19548,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB84EA7-87B7-445A-9AF4-C1DDDBB61B65}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="104" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.08984375" customWidth="1"/>
     <col min="2" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="26.88671875" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" customWidth="1"/>
-    <col min="11" max="11" width="43.109375" customWidth="1"/>
+    <col min="8" max="8" width="26.90625" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" customWidth="1"/>
+    <col min="11" max="11" width="43.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
@@ -16951,7 +19596,9 @@
       <c r="J2" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="71"/>
+      <c r="K2" s="71" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1">
       <c r="A3" s="72"/>
@@ -16970,7 +19617,9 @@
       <c r="J3" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="73"/>
+      <c r="K3" s="73">
+        <v>45044</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
       <c r="A4" s="72"/>
@@ -16989,7 +19638,9 @@
       <c r="J4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="71"/>
+      <c r="K4" s="71" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1">
       <c r="A5" s="74" t="s">
@@ -17080,11 +19731,17 @@
       <c r="D9" s="83"/>
       <c r="E9" s="83"/>
       <c r="F9" s="83"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
+      <c r="G9" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="36" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
       <c r="A10" s="84"/>
@@ -17093,11 +19750,21 @@
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
+      <c r="G10" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="156" t="s">
+        <v>160</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" s="36" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
       <c r="A11" s="84"/>
@@ -17106,11 +19773,21 @@
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
+      <c r="G11" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" s="36" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
       <c r="A12" s="84"/>
@@ -17119,11 +19796,21 @@
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
+      <c r="G12" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="J12" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="K12" s="36" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1">
       <c r="A13" s="84"/>
@@ -17132,11 +19819,21 @@
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
+      <c r="G13" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="J13" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="K13" s="36" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1">
       <c r="A14" s="84"/>
@@ -17145,11 +19842,21 @@
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
+      <c r="G14" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="J14" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="K14" s="36" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1">
       <c r="A15" s="84"/>
@@ -17158,10 +19865,10 @@
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
       <c r="K15" s="36"/>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1">
@@ -17171,10 +19878,10 @@
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
       <c r="K16" s="36"/>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1">
@@ -17184,10 +19891,10 @@
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
       <c r="K17" s="36"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1">
@@ -17197,10 +19904,10 @@
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
       <c r="K18" s="36"/>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1">
@@ -17210,10 +19917,10 @@
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
       <c r="K19" s="36"/>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1">
@@ -17223,10 +19930,10 @@
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
       <c r="K20" s="36"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1">
@@ -17236,10 +19943,10 @@
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
       <c r="K21" s="36"/>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1">
@@ -17249,10 +19956,10 @@
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
       <c r="K22" s="36"/>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1">
@@ -17262,10 +19969,10 @@
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
       <c r="K23" s="36"/>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1">
@@ -17275,10 +19982,10 @@
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
       <c r="K24" s="36"/>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1">
@@ -17288,10 +19995,10 @@
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
       <c r="K25" s="36"/>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1">
@@ -17301,10 +20008,10 @@
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
       <c r="K26" s="36"/>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1">
@@ -17314,10 +20021,10 @@
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
       <c r="F27" s="22"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
       <c r="K27" s="36"/>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1">
@@ -17327,10 +20034,10 @@
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
       <c r="F28" s="22"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
       <c r="K28" s="36"/>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1">
@@ -17368,8 +20075,12 @@
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
       <c r="F31" s="22"/>
-      <c r="G31" s="95"/>
-      <c r="H31" s="90"/>
+      <c r="G31" s="95">
+        <v>1</v>
+      </c>
+      <c r="H31" s="90" t="s">
+        <v>166</v>
+      </c>
       <c r="I31" s="90"/>
       <c r="J31" s="90"/>
       <c r="K31" s="91"/>
@@ -17381,8 +20092,12 @@
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
       <c r="F32" s="22"/>
-      <c r="G32" s="95"/>
-      <c r="H32" s="90"/>
+      <c r="G32" s="95">
+        <v>2</v>
+      </c>
+      <c r="H32" s="90" t="s">
+        <v>167</v>
+      </c>
       <c r="I32" s="90"/>
       <c r="J32" s="90"/>
       <c r="K32" s="91"/>
@@ -17393,9 +20108,12 @@
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="95"/>
-      <c r="H33" s="90"/>
+      <c r="G33" s="95">
+        <v>3</v>
+      </c>
+      <c r="H33" s="90" t="s">
+        <v>168</v>
+      </c>
       <c r="I33" s="90"/>
       <c r="J33" s="90"/>
       <c r="K33" s="91"/>
@@ -17407,8 +20125,12 @@
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
       <c r="F34" s="22"/>
-      <c r="G34" s="95"/>
-      <c r="H34" s="90"/>
+      <c r="G34" s="95">
+        <v>4</v>
+      </c>
+      <c r="H34" s="90" t="s">
+        <v>169</v>
+      </c>
       <c r="I34" s="90"/>
       <c r="J34" s="90"/>
       <c r="K34" s="91"/>
@@ -17420,8 +20142,12 @@
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
       <c r="F35" s="22"/>
-      <c r="G35" s="95"/>
-      <c r="H35" s="90"/>
+      <c r="G35" s="95">
+        <v>5</v>
+      </c>
+      <c r="H35" s="90" t="s">
+        <v>170</v>
+      </c>
       <c r="I35" s="90"/>
       <c r="J35" s="90"/>
       <c r="K35" s="91"/>
@@ -17434,7 +20160,9 @@
       <c r="E36" s="22"/>
       <c r="F36" s="22"/>
       <c r="G36" s="95"/>
-      <c r="H36" s="90"/>
+      <c r="H36" s="90" t="s">
+        <v>171</v>
+      </c>
       <c r="I36" s="90"/>
       <c r="J36" s="90"/>
       <c r="K36" s="91"/>
@@ -17628,14 +20356,14 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.08984375" customWidth="1"/>
     <col min="2" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="26.88671875" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" customWidth="1"/>
-    <col min="11" max="11" width="43.109375" customWidth="1"/>
+    <col min="8" max="8" width="26.90625" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" customWidth="1"/>
+    <col min="11" max="11" width="43.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
@@ -18349,14 +21077,14 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.08984375" customWidth="1"/>
     <col min="2" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="26.88671875" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" customWidth="1"/>
-    <col min="11" max="11" width="43.109375" customWidth="1"/>
+    <col min="8" max="8" width="26.90625" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" customWidth="1"/>
+    <col min="11" max="11" width="43.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
@@ -19063,9 +21791,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19234,19 +21965,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60490CEE-9E57-4F61-A8AC-28802ECF76B0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A407E75-EA60-45A3-8596-3AE9B5B47AEE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -19271,9 +21998,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A407E75-EA60-45A3-8596-3AE9B5B47AEE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60490CEE-9E57-4F61-A8AC-28802ECF76B0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/02_画面設計書・モックアップ/02_画面設計書.xlsx
+++ b/02_画面設計書・モックアップ/02_画面設計書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0488ea7ed0a99e12/ドキュメント/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\2023Dev3Early\02_画面設計書・モックアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="694" documentId="8_{FE3A3C8B-D48B-494A-8B50-38BDC6DF4023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBD9AF40-C13F-402E-8A79-C7542EF9208F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7CB896-2EC0-420B-8167-7C6A268B1BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="3">画面遷移図!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">表紙!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="279">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -2095,6 +2095,39 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>画面一覧</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンイチラン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>学内交流サイトの画面一覧を示す</t>
+    <rPh sb="0" eb="4">
+      <t>ガクナイコウリュウ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ガメンイチラン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>シメ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>学内交流サイトのサイトマップ構成図を示す</t>
+    <rPh sb="0" eb="4">
+      <t>ガクナイコウリュウ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>コウセイズ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>シメ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -2505,7 +2538,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1"/>
@@ -2782,7 +2815,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2792,44 +2824,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2855,6 +2866,24 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2876,23 +2905,47 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2912,15 +2965,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2928,18 +2972,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2969,16 +3001,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3075,74 +3125,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>62089</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="テキスト ボックス 6">
+        <xdr:cNvPr id="53" name="正方形/長方形 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E76ACF61-F1DA-C931-95BB-807FE98EB252}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{BDF46B6A-D9F6-42BF-A8ED-3FA7AA62D8F1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1066800" y="2943225"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>55739</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9DAF90C-70E2-491B-BD45-4045D4DC9B0D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CB5DD5F-FA88-4E7F-B578-C8EBF7433BC1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3150,7 +3149,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="402590" y="1812290"/>
+          <a:off x="326390" y="1818640"/>
           <a:ext cx="1409700" cy="369429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3176,32 +3175,35 @@
         <a:bodyPr rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ホーム画面</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>662</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>150989</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>252122</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>112889</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
+        <xdr:cNvPr id="54" name="正方形/長方形 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A966B1D-122E-4DBA-99EB-11368B18A3C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F5C38AB-4695-4E39-9391-0FC91EFC64C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3209,7 +3211,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="396240" y="4307840"/>
+          <a:off x="1410362" y="3629660"/>
           <a:ext cx="1409700" cy="369429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3235,8 +3237,12 @@
         <a:bodyPr rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ログイン画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3244,23 +3250,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>11751</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>27662</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>112889</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>80288</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>43793</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
+        <xdr:cNvPr id="55" name="正方形/長方形 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{880E5EF0-2714-4E2B-B58D-2493F88968A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{042C10A5-CE03-4A09-A7DB-A7B2B2E2782D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3268,8 +3274,426 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="326390" y="3629660"/>
-          <a:ext cx="1409700" cy="369429"/>
+          <a:off x="575631" y="2793722"/>
+          <a:ext cx="914357" cy="496191"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ログイン機能について</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>186777</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>62089</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>188347</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>27662</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="直線コネクタ 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B391F0CE-3375-4067-A923-AA1FB81226CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="53" idx="2"/>
+          <a:endCxn id="55" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1032597" y="2188069"/>
+          <a:ext cx="1570" cy="605653"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>277142</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>99119</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>239042</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>148507</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="正方形/長方形 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C27EB88B-B423-48B1-ADE3-A300B74ECC7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1404902" y="4305359"/>
+          <a:ext cx="1409700" cy="369428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>新規登録画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>188346</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>43793</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>661</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>88195</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="コネクタ: カギ線 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62AEE7CB-9B08-4D0C-A673-7C13861AF3E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="55" idx="2"/>
+          <a:endCxn id="54" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="960033" y="3364046"/>
+          <a:ext cx="524462" cy="376195"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>188348</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>43792</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>277143</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123812</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="コネクタ: カギ線 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E0D0C2C-F320-4C0F-B44E-1EBBAE36D3D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="55" idx="2"/>
+          <a:endCxn id="58" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="619456" y="3704624"/>
+          <a:ext cx="1200160" cy="370735"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>662</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1423276" cy="370538"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="正方形/長方形 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D700DAA-0052-40FB-8620-9F1DBB9E855F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4511702" y="3629660"/>
+          <a:ext cx="1423276" cy="370538"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メッセージ一覧画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>11751</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>27662</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>80288</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>43793</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="正方形/長方形 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99BFC414-176B-4742-AE8E-57A2D1F7FABA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3676971" y="2793722"/>
+          <a:ext cx="914357" cy="496191"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メッセージ機能について</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>277142</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>99119</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1423276" cy="370538"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E972C10E-CEB1-4CB1-A817-E2F3A635A548}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4506242" y="4305359"/>
+          <a:ext cx="1423276" cy="370538"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3295,31 +3719,136 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メッセージ画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>188346</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>43793</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>661</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>88195</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="コネクタ: カギ線 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AD7DA36-9557-4E2E-8ADE-09185CCD975E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="62" idx="2"/>
+          <a:endCxn id="61" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4061373" y="3364046"/>
+          <a:ext cx="524462" cy="376195"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>188348</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>43792</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>11289</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>277143</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123812</xdr:rowOff>
     </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="コネクタ: カギ線 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6090336D-3D71-4026-AD9D-43663ABACDC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="62" idx="2"/>
+          <a:endCxn id="63" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3720796" y="3704624"/>
+          <a:ext cx="1200160" cy="370735"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>662</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1423276" cy="370538"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
+        <xdr:cNvPr id="66" name="正方形/長方形 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4438FBEC-57FF-4A6B-A08C-3C6A708CAEF8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F999877-95A3-4FEC-B3CA-DD83E63D9375}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3327,8 +3856,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="415290" y="2886710"/>
-          <a:ext cx="1409700" cy="370699"/>
+          <a:off x="7613042" y="3629660"/>
+          <a:ext cx="1423276" cy="370538"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3353,32 +3882,35 @@
         <a:bodyPr rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>投稿画面</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>11751</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>27662</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>49389</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>80288</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>43793</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5">
+        <xdr:cNvPr id="67" name="正方形/長方形 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6C06C37-E7F4-43BC-A0CE-B9035B46E93D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAC29867-96A5-4B0A-827B-9EFD73EEDB6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3386,8 +3918,75 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2696210" y="4366260"/>
-          <a:ext cx="1409700" cy="369429"/>
+          <a:off x="6778311" y="2793722"/>
+          <a:ext cx="914357" cy="496191"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>投稿機能について</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>277142</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>99119</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1423276" cy="370538"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="正方形/長方形 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC2484B6-6288-4AB7-B927-B68F420538FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7607582" y="4305359"/>
+          <a:ext cx="1423276" cy="370538"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3412,476 +4011,10 @@
         <a:bodyPr rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>81139</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A82410C-3A83-4BAA-80C6-F8A9C8BCA125}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2696210" y="3757930"/>
-          <a:ext cx="1409700" cy="369429"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>49389</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4542A61D-D2BE-43A6-B969-469CAC951B09}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2689860" y="2926080"/>
-          <a:ext cx="1409700" cy="369429"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>74789</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89832AD7-E03B-48E9-AAA1-F54DA09FA6B7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5151120" y="4391660"/>
-          <a:ext cx="1409700" cy="369429"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>93839</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E430CB3E-3DAE-41FB-BAB4-B06F85AE2307}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5144770" y="3770630"/>
-          <a:ext cx="1409700" cy="369429"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>14111</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{501ADAD4-25DC-4641-84D9-F03284881F0D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5132070" y="2940191"/>
-          <a:ext cx="1409700" cy="369429"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>14816</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>113595</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="959365" cy="275717"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="テキスト ボックス 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB08665C-92F4-4CE4-8209-D55DFB7F7ECA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="578696" y="4319835"/>
-          <a:ext cx="959365" cy="275717"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ログイン画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>81843</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>55034</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="884767" cy="275717"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="テキスト ボックス 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B278EE2-56E7-40C7-8D8A-93614FFD28FB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="645723" y="1860974"/>
-          <a:ext cx="884767" cy="275717"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ホーム画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>261057</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>120651</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1031051" cy="275717"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="テキスト ボックス 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE6C675F-0934-4FA2-8C06-B37973E7D83A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="542997" y="3686811"/>
-          <a:ext cx="1031051" cy="275717"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>新規登録画面</a:t>
+            <a:t>マイページ画面</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -3889,335 +4022,92 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>278693</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>47979</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>188346</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>43793</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1063048" cy="275717"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="テキスト ボックス 15">
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>661</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>88195</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="コネクタ: カギ線 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0C2655C-6CCB-4FEE-B3BD-753B93F65709}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFADEE25-BCF2-4537-9E85-A791B633B933}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="67" idx="2"/>
+          <a:endCxn id="66" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2816153" y="4414239"/>
-          <a:ext cx="1063048" cy="275717"/>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="7162713" y="3364046"/>
+          <a:ext cx="524462" cy="376195"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="bentConnector2">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="dk1"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>メッセージ画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:cxnSp>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>126295</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1460500" cy="263017"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="テキスト ボックス 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41B7F1E5-BBE8-42F5-9E52-211C022E6D97}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2663755" y="3808730"/>
-          <a:ext cx="1460500" cy="263017"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>メッセージ一覧画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>97366</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>98075</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="825500" cy="265994"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="テキスト ボックス 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2BBA1E6-4A93-4B2C-A298-B2719BC76497}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5454226" y="3824255"/>
-          <a:ext cx="825500" cy="265994"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>投稿画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>96662</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1150761" cy="280105"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="テキスト ボックス 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03A1EA54-7DA3-45E7-B5AB-4C673ACF8D1B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5322569" y="4462922"/>
-          <a:ext cx="1150761" cy="280105"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>マイページ画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>249769</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>21873</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1013882" cy="289277"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="テキスト ボックス 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7F4A44F-3387-48F5-B2CA-C66E82FED6C4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="531709" y="2947953"/>
-          <a:ext cx="1013882" cy="289277"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ログイン機能</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx2"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>197556</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>70555</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>188348</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>43792</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>197556</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>134056</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>277143</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123812</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="直線コネクタ 21">
+        <xdr:cNvPr id="70" name="コネクタ: カギ線 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE418653-3F58-42B4-980F-4EA4F0C14C57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF9AE3E1-3D94-40F4-B259-1C45AF3F21BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="67" idx="2"/>
+          <a:endCxn id="68" idx="1"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1043376" y="2196535"/>
-          <a:ext cx="0" cy="703581"/>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="6822136" y="3704624"/>
+          <a:ext cx="1200160" cy="370735"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
+        <a:prstGeom prst="bentConnector2">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -4241,34 +4131,39 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>211667</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>186776</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>62089</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>8466</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>188347</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>27662</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="直線コネクタ 22">
+        <xdr:cNvPr id="71" name="直線コネクタ 137">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7D46A7E-B6A1-4D4D-8C04-671E37EA9423}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A593812E-B1D9-42B0-8165-8C65F4BB199C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="53" idx="2"/>
+          <a:endCxn id="62" idx="0"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1057487" y="2606040"/>
-          <a:ext cx="4778163" cy="8466"/>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2281225" y="939440"/>
+          <a:ext cx="605653" cy="3102911"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
@@ -4291,540 +4186,39 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>185210</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>186777</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>62089</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>187325</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>188348</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>27662</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="直線コネクタ 23">
+        <xdr:cNvPr id="72" name="直線コネクタ 137">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84D55141-F768-4FE3-82AE-B104F761B340}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D94BF387-6728-4071-AE72-08B9D9190752}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="20" idx="2"/>
-          <a:endCxn id="4" idx="0"/>
+          <a:stCxn id="53" idx="2"/>
+          <a:endCxn id="67" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1031030" y="3238500"/>
-          <a:ext cx="2115" cy="391160"/>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3831896" y="-611230"/>
+          <a:ext cx="605653" cy="6204251"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>126295</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>173564</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>103715</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="直線コネクタ 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F305DDEE-9703-450C-B57E-519672CB8222}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1017270" y="4012495"/>
-          <a:ext cx="2114" cy="297460"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>183444</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>20461</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1264356" cy="328789"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="テキスト ボックス 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{945BB4DE-24EB-4947-843A-6E5AE66A7BA9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2720904" y="2946541"/>
-          <a:ext cx="1264356" cy="328789"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>メッセージ機能</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx2"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>27517</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>64913</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="810683" cy="290688"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="テキスト ボックス 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8C3216E-DE5A-4A57-9F5D-17C918E8844A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5384377" y="2990993"/>
-          <a:ext cx="810683" cy="290688"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>投稿機能</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx2"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="直線コネクタ 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7BB7AA1-3CAF-4985-B3EB-835518B200BA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:endCxn id="8" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3392805" y="2592070"/>
-          <a:ext cx="3175" cy="334010"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>49389</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="直線コネクタ 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7943678E-D3E1-499D-A13F-7C09748F568B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="2"/>
-          <a:endCxn id="7" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3392805" y="3295509"/>
-          <a:ext cx="6350" cy="462421"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>81139</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="直線コネクタ 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6575B39-6022-4996-95A8-F0B138A4CF1E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="2"/>
-          <a:endCxn id="6" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3399155" y="4127359"/>
-          <a:ext cx="0" cy="238901"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>14111</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="直線コネクタ 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E06D94FF-F722-4E8F-8741-9D2A28F90E8B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="11" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5835650" y="2606040"/>
-          <a:ext cx="3175" cy="334151"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>212725</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="直線コネクタ 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2CAB80F-E119-420A-96EF-3797B48B54C2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="11" idx="2"/>
-          <a:endCxn id="10" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5838825" y="3309620"/>
-          <a:ext cx="12700" cy="461010"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>212725</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>93839</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="直線コネクタ 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41CB8190-3664-455A-8BB3-47CE8E7207FB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="10" idx="2"/>
-          <a:endCxn id="9" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5851525" y="4140059"/>
-          <a:ext cx="6350" cy="251601"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
@@ -26223,16 +25617,16 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="149" t="s">
+      <c r="Y2" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="150"/>
-      <c r="AA2" s="161">
+      <c r="Z2" s="142"/>
+      <c r="AA2" s="159">
         <v>45058</v>
       </c>
-      <c r="AB2" s="162"/>
-      <c r="AC2" s="162"/>
-      <c r="AD2" s="163"/>
+      <c r="AB2" s="160"/>
+      <c r="AC2" s="160"/>
+      <c r="AD2" s="161"/>
       <c r="AE2" s="21"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
@@ -26352,16 +25746,16 @@
       <c r="C6" s="63"/>
       <c r="D6" s="63"/>
       <c r="E6" s="64"/>
-      <c r="F6" s="158" t="s">
+      <c r="F6" s="156" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="159"/>
-      <c r="H6" s="159"/>
-      <c r="I6" s="160"/>
-      <c r="J6" s="160"/>
-      <c r="K6" s="160"/>
-      <c r="L6" s="160"/>
-      <c r="M6" s="160"/>
+      <c r="G6" s="157"/>
+      <c r="H6" s="157"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="158"/>
+      <c r="K6" s="158"/>
+      <c r="L6" s="158"/>
+      <c r="M6" s="158"/>
       <c r="N6" s="65"/>
       <c r="O6" s="65"/>
       <c r="P6" s="65"/>
@@ -26384,26 +25778,26 @@
     </row>
     <row r="7" spans="1:176" ht="15" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="142" t="s">
+      <c r="B7" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="143"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="151" t="s">
+      <c r="C7" s="163"/>
+      <c r="D7" s="164"/>
+      <c r="E7" s="165"/>
+      <c r="F7" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="152"/>
-      <c r="H7" s="152"/>
-      <c r="I7" s="152"/>
-      <c r="J7" s="152"/>
-      <c r="K7" s="152"/>
-      <c r="L7" s="152"/>
-      <c r="M7" s="152"/>
-      <c r="N7" s="152"/>
-      <c r="O7" s="152"/>
-      <c r="P7" s="152"/>
-      <c r="Q7" s="153"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="144"/>
+      <c r="J7" s="144"/>
+      <c r="K7" s="144"/>
+      <c r="L7" s="144"/>
+      <c r="M7" s="144"/>
+      <c r="N7" s="144"/>
+      <c r="O7" s="144"/>
+      <c r="P7" s="144"/>
+      <c r="Q7" s="145"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -26411,40 +25805,40 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="149" t="s">
+      <c r="Y7" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="Z7" s="150"/>
-      <c r="AA7" s="149" t="s">
+      <c r="Z7" s="142"/>
+      <c r="AA7" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="AB7" s="150"/>
-      <c r="AC7" s="149" t="s">
+      <c r="AB7" s="142"/>
+      <c r="AC7" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="AD7" s="150"/>
+      <c r="AD7" s="142"/>
       <c r="AE7" s="21"/>
       <c r="AF7" s="61"/>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="146"/>
-      <c r="C8" s="147"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="148"/>
-      <c r="F8" s="154"/>
-      <c r="G8" s="155"/>
-      <c r="H8" s="155"/>
-      <c r="I8" s="155"/>
-      <c r="J8" s="155"/>
-      <c r="K8" s="155"/>
-      <c r="L8" s="155"/>
-      <c r="M8" s="155"/>
-      <c r="N8" s="155"/>
-      <c r="O8" s="155"/>
-      <c r="P8" s="155"/>
-      <c r="Q8" s="156"/>
+      <c r="B8" s="166"/>
+      <c r="C8" s="167"/>
+      <c r="D8" s="167"/>
+      <c r="E8" s="168"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="147"/>
+      <c r="H8" s="147"/>
+      <c r="I8" s="147"/>
+      <c r="J8" s="147"/>
+      <c r="K8" s="147"/>
+      <c r="L8" s="147"/>
+      <c r="M8" s="147"/>
+      <c r="N8" s="147"/>
+      <c r="O8" s="147"/>
+      <c r="P8" s="147"/>
+      <c r="Q8" s="148"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -26452,12 +25846,12 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="136"/>
-      <c r="Z8" s="137"/>
-      <c r="AA8" s="136"/>
-      <c r="AB8" s="137"/>
-      <c r="AC8" s="136"/>
-      <c r="AD8" s="137"/>
+      <c r="Y8" s="149"/>
+      <c r="Z8" s="150"/>
+      <c r="AA8" s="149"/>
+      <c r="AB8" s="150"/>
+      <c r="AC8" s="149"/>
+      <c r="AD8" s="150"/>
       <c r="AE8" s="19"/>
       <c r="AF8" s="61"/>
       <c r="AG8" s="2"/>
@@ -26487,12 +25881,12 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="138"/>
-      <c r="Z9" s="139"/>
-      <c r="AA9" s="138"/>
-      <c r="AB9" s="139"/>
-      <c r="AC9" s="138"/>
-      <c r="AD9" s="139"/>
+      <c r="Y9" s="151"/>
+      <c r="Z9" s="152"/>
+      <c r="AA9" s="151"/>
+      <c r="AB9" s="152"/>
+      <c r="AC9" s="151"/>
+      <c r="AD9" s="152"/>
       <c r="AE9" s="19"/>
       <c r="AF9" s="61"/>
       <c r="AG9" s="2"/>
@@ -26522,12 +25916,12 @@
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
-      <c r="Y10" s="140"/>
-      <c r="Z10" s="141"/>
-      <c r="AA10" s="140"/>
-      <c r="AB10" s="141"/>
-      <c r="AC10" s="140"/>
-      <c r="AD10" s="141"/>
+      <c r="Y10" s="153"/>
+      <c r="Z10" s="154"/>
+      <c r="AA10" s="153"/>
+      <c r="AB10" s="154"/>
+      <c r="AC10" s="153"/>
+      <c r="AD10" s="154"/>
       <c r="AE10" s="19"/>
       <c r="AF10" s="61"/>
       <c r="AG10" s="12"/>
@@ -26568,105 +25962,105 @@
     </row>
     <row r="12" spans="1:176" ht="15" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="157" t="s">
+      <c r="B12" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="157"/>
-      <c r="D12" s="157"/>
-      <c r="E12" s="157"/>
-      <c r="F12" s="157"/>
-      <c r="G12" s="157"/>
-      <c r="H12" s="157"/>
-      <c r="I12" s="157"/>
-      <c r="J12" s="157"/>
-      <c r="K12" s="157"/>
-      <c r="L12" s="157"/>
-      <c r="M12" s="157"/>
-      <c r="N12" s="157"/>
-      <c r="O12" s="157"/>
-      <c r="P12" s="157"/>
-      <c r="Q12" s="157"/>
-      <c r="R12" s="157"/>
-      <c r="S12" s="157"/>
-      <c r="T12" s="157"/>
-      <c r="U12" s="157"/>
-      <c r="V12" s="157"/>
-      <c r="W12" s="157"/>
-      <c r="X12" s="157"/>
-      <c r="Y12" s="157"/>
-      <c r="Z12" s="157"/>
-      <c r="AA12" s="157"/>
-      <c r="AB12" s="157"/>
-      <c r="AC12" s="157"/>
-      <c r="AD12" s="157"/>
+      <c r="C12" s="155"/>
+      <c r="D12" s="155"/>
+      <c r="E12" s="155"/>
+      <c r="F12" s="155"/>
+      <c r="G12" s="155"/>
+      <c r="H12" s="155"/>
+      <c r="I12" s="155"/>
+      <c r="J12" s="155"/>
+      <c r="K12" s="155"/>
+      <c r="L12" s="155"/>
+      <c r="M12" s="155"/>
+      <c r="N12" s="155"/>
+      <c r="O12" s="155"/>
+      <c r="P12" s="155"/>
+      <c r="Q12" s="155"/>
+      <c r="R12" s="155"/>
+      <c r="S12" s="155"/>
+      <c r="T12" s="155"/>
+      <c r="U12" s="155"/>
+      <c r="V12" s="155"/>
+      <c r="W12" s="155"/>
+      <c r="X12" s="155"/>
+      <c r="Y12" s="155"/>
+      <c r="Z12" s="155"/>
+      <c r="AA12" s="155"/>
+      <c r="AB12" s="155"/>
+      <c r="AC12" s="155"/>
+      <c r="AD12" s="155"/>
       <c r="AE12" s="15"/>
       <c r="AF12" s="2"/>
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="157"/>
-      <c r="C13" s="157"/>
-      <c r="D13" s="157"/>
-      <c r="E13" s="157"/>
-      <c r="F13" s="157"/>
-      <c r="G13" s="157"/>
-      <c r="H13" s="157"/>
-      <c r="I13" s="157"/>
-      <c r="J13" s="157"/>
-      <c r="K13" s="157"/>
-      <c r="L13" s="157"/>
-      <c r="M13" s="157"/>
-      <c r="N13" s="157"/>
-      <c r="O13" s="157"/>
-      <c r="P13" s="157"/>
-      <c r="Q13" s="157"/>
-      <c r="R13" s="157"/>
-      <c r="S13" s="157"/>
-      <c r="T13" s="157"/>
-      <c r="U13" s="157"/>
-      <c r="V13" s="157"/>
-      <c r="W13" s="157"/>
-      <c r="X13" s="157"/>
-      <c r="Y13" s="157"/>
-      <c r="Z13" s="157"/>
-      <c r="AA13" s="157"/>
-      <c r="AB13" s="157"/>
-      <c r="AC13" s="157"/>
-      <c r="AD13" s="157"/>
+      <c r="B13" s="155"/>
+      <c r="C13" s="155"/>
+      <c r="D13" s="155"/>
+      <c r="E13" s="155"/>
+      <c r="F13" s="155"/>
+      <c r="G13" s="155"/>
+      <c r="H13" s="155"/>
+      <c r="I13" s="155"/>
+      <c r="J13" s="155"/>
+      <c r="K13" s="155"/>
+      <c r="L13" s="155"/>
+      <c r="M13" s="155"/>
+      <c r="N13" s="155"/>
+      <c r="O13" s="155"/>
+      <c r="P13" s="155"/>
+      <c r="Q13" s="155"/>
+      <c r="R13" s="155"/>
+      <c r="S13" s="155"/>
+      <c r="T13" s="155"/>
+      <c r="U13" s="155"/>
+      <c r="V13" s="155"/>
+      <c r="W13" s="155"/>
+      <c r="X13" s="155"/>
+      <c r="Y13" s="155"/>
+      <c r="Z13" s="155"/>
+      <c r="AA13" s="155"/>
+      <c r="AB13" s="155"/>
+      <c r="AC13" s="155"/>
+      <c r="AD13" s="155"/>
       <c r="AE13" s="15"/>
       <c r="AF13" s="2"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="157"/>
-      <c r="C14" s="157"/>
-      <c r="D14" s="157"/>
-      <c r="E14" s="157"/>
-      <c r="F14" s="157"/>
-      <c r="G14" s="157"/>
-      <c r="H14" s="157"/>
-      <c r="I14" s="157"/>
-      <c r="J14" s="157"/>
-      <c r="K14" s="157"/>
-      <c r="L14" s="157"/>
-      <c r="M14" s="157"/>
-      <c r="N14" s="157"/>
-      <c r="O14" s="157"/>
-      <c r="P14" s="157"/>
-      <c r="Q14" s="157"/>
-      <c r="R14" s="157"/>
-      <c r="S14" s="157"/>
-      <c r="T14" s="157"/>
-      <c r="U14" s="157"/>
-      <c r="V14" s="157"/>
-      <c r="W14" s="157"/>
-      <c r="X14" s="157"/>
-      <c r="Y14" s="157"/>
-      <c r="Z14" s="157"/>
-      <c r="AA14" s="157"/>
-      <c r="AB14" s="157"/>
-      <c r="AC14" s="157"/>
-      <c r="AD14" s="157"/>
+      <c r="B14" s="155"/>
+      <c r="C14" s="155"/>
+      <c r="D14" s="155"/>
+      <c r="E14" s="155"/>
+      <c r="F14" s="155"/>
+      <c r="G14" s="155"/>
+      <c r="H14" s="155"/>
+      <c r="I14" s="155"/>
+      <c r="J14" s="155"/>
+      <c r="K14" s="155"/>
+      <c r="L14" s="155"/>
+      <c r="M14" s="155"/>
+      <c r="N14" s="155"/>
+      <c r="O14" s="155"/>
+      <c r="P14" s="155"/>
+      <c r="Q14" s="155"/>
+      <c r="R14" s="155"/>
+      <c r="S14" s="155"/>
+      <c r="T14" s="155"/>
+      <c r="U14" s="155"/>
+      <c r="V14" s="155"/>
+      <c r="W14" s="155"/>
+      <c r="X14" s="155"/>
+      <c r="Y14" s="155"/>
+      <c r="Z14" s="155"/>
+      <c r="AA14" s="155"/>
+      <c r="AB14" s="155"/>
+      <c r="AC14" s="155"/>
+      <c r="AD14" s="155"/>
       <c r="AE14" s="15"/>
       <c r="AF14" s="2"/>
     </row>
@@ -26878,255 +26272,255 @@
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="133" t="s">
+      <c r="B21" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="134"/>
-      <c r="D21" s="134"/>
-      <c r="E21" s="135"/>
-      <c r="F21" s="133" t="s">
+      <c r="C21" s="133"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="134"/>
+      <c r="F21" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="134"/>
-      <c r="H21" s="134"/>
-      <c r="I21" s="134"/>
-      <c r="J21" s="135"/>
-      <c r="K21" s="133" t="s">
+      <c r="G21" s="133"/>
+      <c r="H21" s="133"/>
+      <c r="I21" s="133"/>
+      <c r="J21" s="134"/>
+      <c r="K21" s="132" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="134"/>
-      <c r="M21" s="134"/>
-      <c r="N21" s="134"/>
-      <c r="O21" s="134"/>
-      <c r="P21" s="134"/>
-      <c r="Q21" s="134"/>
-      <c r="R21" s="134"/>
-      <c r="S21" s="134"/>
-      <c r="T21" s="134"/>
-      <c r="U21" s="134"/>
-      <c r="V21" s="134"/>
-      <c r="W21" s="134"/>
-      <c r="X21" s="134"/>
-      <c r="Y21" s="134"/>
-      <c r="Z21" s="134"/>
-      <c r="AA21" s="135"/>
-      <c r="AB21" s="133" t="s">
+      <c r="L21" s="133"/>
+      <c r="M21" s="133"/>
+      <c r="N21" s="133"/>
+      <c r="O21" s="133"/>
+      <c r="P21" s="133"/>
+      <c r="Q21" s="133"/>
+      <c r="R21" s="133"/>
+      <c r="S21" s="133"/>
+      <c r="T21" s="133"/>
+      <c r="U21" s="133"/>
+      <c r="V21" s="133"/>
+      <c r="W21" s="133"/>
+      <c r="X21" s="133"/>
+      <c r="Y21" s="133"/>
+      <c r="Z21" s="133"/>
+      <c r="AA21" s="134"/>
+      <c r="AB21" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="AC21" s="134"/>
-      <c r="AD21" s="135"/>
+      <c r="AC21" s="133"/>
+      <c r="AD21" s="134"/>
       <c r="AE21" s="14"/>
       <c r="AF21" s="2"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="133" t="s">
+      <c r="B22" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="134"/>
-      <c r="D22" s="134"/>
-      <c r="E22" s="135"/>
-      <c r="F22" s="167">
+      <c r="C22" s="133"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="138">
         <v>45058</v>
       </c>
-      <c r="G22" s="168"/>
-      <c r="H22" s="168"/>
-      <c r="I22" s="168"/>
-      <c r="J22" s="169"/>
-      <c r="K22" s="164" t="s">
+      <c r="G22" s="139"/>
+      <c r="H22" s="139"/>
+      <c r="I22" s="139"/>
+      <c r="J22" s="140"/>
+      <c r="K22" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="L22" s="165"/>
-      <c r="M22" s="165"/>
-      <c r="N22" s="165"/>
-      <c r="O22" s="165"/>
-      <c r="P22" s="165"/>
-      <c r="Q22" s="165"/>
-      <c r="R22" s="165"/>
-      <c r="S22" s="165"/>
-      <c r="T22" s="165"/>
-      <c r="U22" s="165"/>
-      <c r="V22" s="165"/>
-      <c r="W22" s="165"/>
-      <c r="X22" s="165"/>
-      <c r="Y22" s="165"/>
-      <c r="Z22" s="165"/>
-      <c r="AA22" s="166"/>
-      <c r="AB22" s="133" t="s">
+      <c r="L22" s="136"/>
+      <c r="M22" s="136"/>
+      <c r="N22" s="136"/>
+      <c r="O22" s="136"/>
+      <c r="P22" s="136"/>
+      <c r="Q22" s="136"/>
+      <c r="R22" s="136"/>
+      <c r="S22" s="136"/>
+      <c r="T22" s="136"/>
+      <c r="U22" s="136"/>
+      <c r="V22" s="136"/>
+      <c r="W22" s="136"/>
+      <c r="X22" s="136"/>
+      <c r="Y22" s="136"/>
+      <c r="Z22" s="136"/>
+      <c r="AA22" s="137"/>
+      <c r="AB22" s="132" t="s">
         <v>261</v>
       </c>
-      <c r="AC22" s="134"/>
-      <c r="AD22" s="135"/>
+      <c r="AC22" s="133"/>
+      <c r="AD22" s="134"/>
       <c r="AE22" s="14"/>
       <c r="AF22" s="2"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="133"/>
-      <c r="C23" s="134"/>
-      <c r="D23" s="134"/>
-      <c r="E23" s="135"/>
-      <c r="F23" s="167"/>
-      <c r="G23" s="168"/>
-      <c r="H23" s="168"/>
-      <c r="I23" s="168"/>
-      <c r="J23" s="169"/>
-      <c r="K23" s="164"/>
-      <c r="L23" s="165"/>
-      <c r="M23" s="165"/>
-      <c r="N23" s="165"/>
-      <c r="O23" s="165"/>
-      <c r="P23" s="165"/>
-      <c r="Q23" s="165"/>
-      <c r="R23" s="165"/>
-      <c r="S23" s="165"/>
-      <c r="T23" s="165"/>
-      <c r="U23" s="165"/>
-      <c r="V23" s="165"/>
-      <c r="W23" s="165"/>
-      <c r="X23" s="165"/>
-      <c r="Y23" s="165"/>
-      <c r="Z23" s="165"/>
-      <c r="AA23" s="166"/>
-      <c r="AB23" s="133"/>
-      <c r="AC23" s="134"/>
-      <c r="AD23" s="135"/>
+      <c r="B23" s="132"/>
+      <c r="C23" s="133"/>
+      <c r="D23" s="133"/>
+      <c r="E23" s="134"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="139"/>
+      <c r="H23" s="139"/>
+      <c r="I23" s="139"/>
+      <c r="J23" s="140"/>
+      <c r="K23" s="135"/>
+      <c r="L23" s="136"/>
+      <c r="M23" s="136"/>
+      <c r="N23" s="136"/>
+      <c r="O23" s="136"/>
+      <c r="P23" s="136"/>
+      <c r="Q23" s="136"/>
+      <c r="R23" s="136"/>
+      <c r="S23" s="136"/>
+      <c r="T23" s="136"/>
+      <c r="U23" s="136"/>
+      <c r="V23" s="136"/>
+      <c r="W23" s="136"/>
+      <c r="X23" s="136"/>
+      <c r="Y23" s="136"/>
+      <c r="Z23" s="136"/>
+      <c r="AA23" s="137"/>
+      <c r="AB23" s="132"/>
+      <c r="AC23" s="133"/>
+      <c r="AD23" s="134"/>
       <c r="AE23" s="14"/>
       <c r="AF23" s="2"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="133"/>
-      <c r="C24" s="134"/>
-      <c r="D24" s="134"/>
-      <c r="E24" s="135"/>
-      <c r="F24" s="167"/>
-      <c r="G24" s="168"/>
-      <c r="H24" s="168"/>
-      <c r="I24" s="168"/>
-      <c r="J24" s="169"/>
-      <c r="K24" s="164"/>
-      <c r="L24" s="165"/>
-      <c r="M24" s="165"/>
-      <c r="N24" s="165"/>
-      <c r="O24" s="165"/>
-      <c r="P24" s="165"/>
-      <c r="Q24" s="165"/>
-      <c r="R24" s="165"/>
-      <c r="S24" s="165"/>
-      <c r="T24" s="165"/>
-      <c r="U24" s="165"/>
-      <c r="V24" s="165"/>
-      <c r="W24" s="165"/>
-      <c r="X24" s="165"/>
-      <c r="Y24" s="165"/>
-      <c r="Z24" s="165"/>
-      <c r="AA24" s="166"/>
-      <c r="AB24" s="133"/>
-      <c r="AC24" s="134"/>
-      <c r="AD24" s="135"/>
+      <c r="B24" s="132"/>
+      <c r="C24" s="133"/>
+      <c r="D24" s="133"/>
+      <c r="E24" s="134"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="139"/>
+      <c r="H24" s="139"/>
+      <c r="I24" s="139"/>
+      <c r="J24" s="140"/>
+      <c r="K24" s="135"/>
+      <c r="L24" s="136"/>
+      <c r="M24" s="136"/>
+      <c r="N24" s="136"/>
+      <c r="O24" s="136"/>
+      <c r="P24" s="136"/>
+      <c r="Q24" s="136"/>
+      <c r="R24" s="136"/>
+      <c r="S24" s="136"/>
+      <c r="T24" s="136"/>
+      <c r="U24" s="136"/>
+      <c r="V24" s="136"/>
+      <c r="W24" s="136"/>
+      <c r="X24" s="136"/>
+      <c r="Y24" s="136"/>
+      <c r="Z24" s="136"/>
+      <c r="AA24" s="137"/>
+      <c r="AB24" s="132"/>
+      <c r="AC24" s="133"/>
+      <c r="AD24" s="134"/>
       <c r="AE24" s="14"/>
       <c r="AF24" s="2"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="2"/>
-      <c r="B25" s="133"/>
-      <c r="C25" s="134"/>
-      <c r="D25" s="134"/>
-      <c r="E25" s="135"/>
-      <c r="F25" s="167"/>
-      <c r="G25" s="168"/>
-      <c r="H25" s="168"/>
-      <c r="I25" s="168"/>
-      <c r="J25" s="169"/>
-      <c r="K25" s="164"/>
-      <c r="L25" s="165"/>
-      <c r="M25" s="165"/>
-      <c r="N25" s="165"/>
-      <c r="O25" s="165"/>
-      <c r="P25" s="165"/>
-      <c r="Q25" s="165"/>
-      <c r="R25" s="165"/>
-      <c r="S25" s="165"/>
-      <c r="T25" s="165"/>
-      <c r="U25" s="165"/>
-      <c r="V25" s="165"/>
-      <c r="W25" s="165"/>
-      <c r="X25" s="165"/>
-      <c r="Y25" s="165"/>
-      <c r="Z25" s="165"/>
-      <c r="AA25" s="166"/>
-      <c r="AB25" s="133"/>
-      <c r="AC25" s="134"/>
-      <c r="AD25" s="135"/>
+      <c r="B25" s="132"/>
+      <c r="C25" s="133"/>
+      <c r="D25" s="133"/>
+      <c r="E25" s="134"/>
+      <c r="F25" s="138"/>
+      <c r="G25" s="139"/>
+      <c r="H25" s="139"/>
+      <c r="I25" s="139"/>
+      <c r="J25" s="140"/>
+      <c r="K25" s="135"/>
+      <c r="L25" s="136"/>
+      <c r="M25" s="136"/>
+      <c r="N25" s="136"/>
+      <c r="O25" s="136"/>
+      <c r="P25" s="136"/>
+      <c r="Q25" s="136"/>
+      <c r="R25" s="136"/>
+      <c r="S25" s="136"/>
+      <c r="T25" s="136"/>
+      <c r="U25" s="136"/>
+      <c r="V25" s="136"/>
+      <c r="W25" s="136"/>
+      <c r="X25" s="136"/>
+      <c r="Y25" s="136"/>
+      <c r="Z25" s="136"/>
+      <c r="AA25" s="137"/>
+      <c r="AB25" s="132"/>
+      <c r="AC25" s="133"/>
+      <c r="AD25" s="134"/>
       <c r="AE25" s="14"/>
       <c r="AF25" s="2"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="133"/>
-      <c r="C26" s="134"/>
-      <c r="D26" s="134"/>
-      <c r="E26" s="135"/>
-      <c r="F26" s="167"/>
-      <c r="G26" s="168"/>
-      <c r="H26" s="168"/>
-      <c r="I26" s="168"/>
-      <c r="J26" s="169"/>
-      <c r="K26" s="164"/>
-      <c r="L26" s="165"/>
-      <c r="M26" s="165"/>
-      <c r="N26" s="165"/>
-      <c r="O26" s="165"/>
-      <c r="P26" s="165"/>
-      <c r="Q26" s="165"/>
-      <c r="R26" s="165"/>
-      <c r="S26" s="165"/>
-      <c r="T26" s="165"/>
-      <c r="U26" s="165"/>
-      <c r="V26" s="165"/>
-      <c r="W26" s="165"/>
-      <c r="X26" s="165"/>
-      <c r="Y26" s="165"/>
-      <c r="Z26" s="165"/>
-      <c r="AA26" s="166"/>
-      <c r="AB26" s="133"/>
-      <c r="AC26" s="134"/>
-      <c r="AD26" s="135"/>
+      <c r="B26" s="132"/>
+      <c r="C26" s="133"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="134"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="139"/>
+      <c r="H26" s="139"/>
+      <c r="I26" s="139"/>
+      <c r="J26" s="140"/>
+      <c r="K26" s="135"/>
+      <c r="L26" s="136"/>
+      <c r="M26" s="136"/>
+      <c r="N26" s="136"/>
+      <c r="O26" s="136"/>
+      <c r="P26" s="136"/>
+      <c r="Q26" s="136"/>
+      <c r="R26" s="136"/>
+      <c r="S26" s="136"/>
+      <c r="T26" s="136"/>
+      <c r="U26" s="136"/>
+      <c r="V26" s="136"/>
+      <c r="W26" s="136"/>
+      <c r="X26" s="136"/>
+      <c r="Y26" s="136"/>
+      <c r="Z26" s="136"/>
+      <c r="AA26" s="137"/>
+      <c r="AB26" s="132"/>
+      <c r="AC26" s="133"/>
+      <c r="AD26" s="134"/>
       <c r="AE26" s="14"/>
       <c r="AF26" s="2"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="133"/>
-      <c r="C27" s="134"/>
-      <c r="D27" s="134"/>
-      <c r="E27" s="135"/>
-      <c r="F27" s="167"/>
-      <c r="G27" s="168"/>
-      <c r="H27" s="168"/>
-      <c r="I27" s="168"/>
-      <c r="J27" s="169"/>
-      <c r="K27" s="164"/>
-      <c r="L27" s="165"/>
-      <c r="M27" s="165"/>
-      <c r="N27" s="165"/>
-      <c r="O27" s="165"/>
-      <c r="P27" s="165"/>
-      <c r="Q27" s="165"/>
-      <c r="R27" s="165"/>
-      <c r="S27" s="165"/>
-      <c r="T27" s="165"/>
-      <c r="U27" s="165"/>
-      <c r="V27" s="165"/>
-      <c r="W27" s="165"/>
-      <c r="X27" s="165"/>
-      <c r="Y27" s="165"/>
-      <c r="Z27" s="165"/>
-      <c r="AA27" s="166"/>
-      <c r="AB27" s="133"/>
-      <c r="AC27" s="134"/>
-      <c r="AD27" s="135"/>
+      <c r="B27" s="132"/>
+      <c r="C27" s="133"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="134"/>
+      <c r="F27" s="138"/>
+      <c r="G27" s="139"/>
+      <c r="H27" s="139"/>
+      <c r="I27" s="139"/>
+      <c r="J27" s="140"/>
+      <c r="K27" s="135"/>
+      <c r="L27" s="136"/>
+      <c r="M27" s="136"/>
+      <c r="N27" s="136"/>
+      <c r="O27" s="136"/>
+      <c r="P27" s="136"/>
+      <c r="Q27" s="136"/>
+      <c r="R27" s="136"/>
+      <c r="S27" s="136"/>
+      <c r="T27" s="136"/>
+      <c r="U27" s="136"/>
+      <c r="V27" s="136"/>
+      <c r="W27" s="136"/>
+      <c r="X27" s="136"/>
+      <c r="Y27" s="136"/>
+      <c r="Z27" s="136"/>
+      <c r="AA27" s="137"/>
+      <c r="AB27" s="132"/>
+      <c r="AC27" s="133"/>
+      <c r="AD27" s="134"/>
       <c r="AE27" s="14"/>
       <c r="AF27" s="2"/>
     </row>
@@ -27234,15 +26628,21 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="K21:AA21"/>
-    <mergeCell ref="K22:AA22"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="K25:AA25"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="AB22:AD22"/>
+    <mergeCell ref="AC8:AD10"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB10"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="F7:Q8"/>
+    <mergeCell ref="Y8:Z10"/>
+    <mergeCell ref="B12:AD14"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F6:M6"/>
+    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="AB27:AD27"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="K23:AA23"/>
@@ -27259,21 +26659,15 @@
     <mergeCell ref="K27:AA27"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="F24:J24"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="F7:Q8"/>
-    <mergeCell ref="Y8:Z10"/>
-    <mergeCell ref="B12:AD14"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F6:M6"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="AB22:AD22"/>
-    <mergeCell ref="AC8:AD10"/>
-    <mergeCell ref="B7:E8"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB10"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="K21:AA21"/>
+    <mergeCell ref="K22:AA22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="K25:AA25"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -27388,15 +26782,15 @@
       <c r="B5" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="191" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="193"/>
-      <c r="E5" s="193"/>
-      <c r="F5" s="193"/>
-      <c r="G5" s="193"/>
-      <c r="H5" s="193"/>
-      <c r="I5" s="194"/>
+      <c r="D5" s="192"/>
+      <c r="E5" s="192"/>
+      <c r="F5" s="192"/>
+      <c r="G5" s="192"/>
+      <c r="H5" s="192"/>
+      <c r="I5" s="193"/>
       <c r="J5" s="70" t="s">
         <v>68</v>
       </c>
@@ -27407,10 +26801,10 @@
       <c r="B6" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="192" t="s">
+      <c r="C6" s="191" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="194"/>
+      <c r="D6" s="193"/>
       <c r="E6" s="28"/>
       <c r="F6" s="80"/>
       <c r="G6" s="80"/>
@@ -28218,15 +27612,15 @@
       <c r="B5" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="191" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="193"/>
-      <c r="E5" s="193"/>
-      <c r="F5" s="193"/>
-      <c r="G5" s="193"/>
-      <c r="H5" s="193"/>
-      <c r="I5" s="194"/>
+      <c r="D5" s="192"/>
+      <c r="E5" s="192"/>
+      <c r="F5" s="192"/>
+      <c r="G5" s="192"/>
+      <c r="H5" s="192"/>
+      <c r="I5" s="193"/>
       <c r="J5" s="70" t="s">
         <v>68</v>
       </c>
@@ -28237,10 +27631,10 @@
       <c r="B6" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="192" t="s">
+      <c r="C6" s="191" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="194"/>
+      <c r="D6" s="193"/>
       <c r="E6" s="28"/>
       <c r="F6" s="80"/>
       <c r="G6" s="80"/>
@@ -29041,8 +28435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2FA301-F346-4BB4-A6BC-EB44CCEDDEA4}">
   <dimension ref="A1:AG45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AD5" sqref="AD5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
@@ -29092,13 +28486,13 @@
       <c r="AG1" s="55"/>
     </row>
     <row r="2" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A2" s="176" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="177"/>
-      <c r="C2" s="178"/>
+      <c r="A2" s="169" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="170"/>
+      <c r="C2" s="171"/>
       <c r="D2" s="23" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E2" s="45"/>
       <c r="F2" s="45"/>
@@ -29124,24 +28518,24 @@
       <c r="X2" s="49"/>
       <c r="Y2" s="49"/>
       <c r="Z2" s="46"/>
-      <c r="AA2" s="185" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB2" s="185"/>
-      <c r="AC2" s="185"/>
-      <c r="AD2" s="173" t="s">
+      <c r="AA2" s="175" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB2" s="175"/>
+      <c r="AC2" s="175"/>
+      <c r="AD2" s="179" t="s">
         <v>73</v>
       </c>
-      <c r="AE2" s="174"/>
-      <c r="AF2" s="174"/>
-      <c r="AG2" s="175"/>
+      <c r="AE2" s="180"/>
+      <c r="AF2" s="180"/>
+      <c r="AG2" s="181"/>
     </row>
     <row r="3" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A3" s="179"/>
-      <c r="B3" s="180"/>
-      <c r="C3" s="181"/>
+      <c r="A3" s="182"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="184"/>
       <c r="D3" s="23" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="E3" s="45"/>
       <c r="F3" s="45"/>
@@ -29167,24 +28561,24 @@
       <c r="X3" s="49"/>
       <c r="Y3" s="49"/>
       <c r="Z3" s="46"/>
-      <c r="AA3" s="185" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB3" s="185"/>
-      <c r="AC3" s="185"/>
-      <c r="AD3" s="170">
+      <c r="AA3" s="175" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB3" s="175"/>
+      <c r="AC3" s="175"/>
+      <c r="AD3" s="176">
         <v>45057</v>
       </c>
-      <c r="AE3" s="171"/>
-      <c r="AF3" s="171"/>
-      <c r="AG3" s="172"/>
+      <c r="AE3" s="177"/>
+      <c r="AF3" s="177"/>
+      <c r="AG3" s="178"/>
     </row>
     <row r="4" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A4" s="182"/>
-      <c r="B4" s="183"/>
-      <c r="C4" s="184"/>
+      <c r="A4" s="172"/>
+      <c r="B4" s="173"/>
+      <c r="C4" s="174"/>
       <c r="D4" s="23" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="E4" s="47"/>
       <c r="F4" s="45"/>
@@ -29210,24 +28604,24 @@
       <c r="X4" s="49"/>
       <c r="Y4" s="49"/>
       <c r="Z4" s="46"/>
-      <c r="AA4" s="185" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB4" s="185"/>
-      <c r="AC4" s="185"/>
-      <c r="AD4" s="173" t="s">
+      <c r="AA4" s="175" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB4" s="175"/>
+      <c r="AC4" s="175"/>
+      <c r="AD4" s="179" t="s">
         <v>15</v>
       </c>
-      <c r="AE4" s="174"/>
-      <c r="AF4" s="174"/>
-      <c r="AG4" s="175"/>
+      <c r="AE4" s="180"/>
+      <c r="AF4" s="180"/>
+      <c r="AG4" s="181"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A5" s="176" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="177"/>
-      <c r="C5" s="178"/>
+      <c r="A5" s="169" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="170"/>
+      <c r="C5" s="171"/>
       <c r="D5" s="41" t="s">
         <v>28</v>
       </c>
@@ -29255,27 +28649,29 @@
       <c r="X5" s="49"/>
       <c r="Y5" s="49"/>
       <c r="Z5" s="46"/>
-      <c r="AA5" s="185" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB5" s="185"/>
-      <c r="AC5" s="185"/>
+      <c r="AA5" s="175" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB5" s="175"/>
+      <c r="AC5" s="175"/>
       <c r="AD5" s="48"/>
       <c r="AE5" s="49"/>
       <c r="AF5" s="49"/>
       <c r="AG5" s="46"/>
     </row>
     <row r="6" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A6" s="182"/>
-      <c r="B6" s="183"/>
-      <c r="C6" s="184"/>
+      <c r="A6" s="172"/>
+      <c r="B6" s="173"/>
+      <c r="C6" s="174"/>
       <c r="D6" s="79" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="E6" s="45"/>
       <c r="F6" s="45"/>
       <c r="G6" s="46"/>
-      <c r="H6" s="48"/>
+      <c r="H6" s="48" t="s">
+        <v>278</v>
+      </c>
       <c r="I6" s="49"/>
       <c r="J6" s="49"/>
       <c r="K6" s="49"/>
@@ -29294,11 +28690,11 @@
       <c r="X6" s="49"/>
       <c r="Y6" s="49"/>
       <c r="Z6" s="46"/>
-      <c r="AA6" s="185" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB6" s="185"/>
-      <c r="AC6" s="185"/>
+      <c r="AA6" s="175" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB6" s="175"/>
+      <c r="AC6" s="175"/>
       <c r="AD6" s="48"/>
       <c r="AE6" s="49"/>
       <c r="AF6" s="49"/>
@@ -29341,1192 +28737,1297 @@
     </row>
     <row r="8" spans="1:33" ht="12.75" customHeight="1">
       <c r="A8" s="5"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="2"/>
+      <c r="B8" s="195"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="195"/>
+      <c r="F8" s="195"/>
+      <c r="G8" s="195"/>
+      <c r="H8" s="195"/>
+      <c r="I8" s="195"/>
+      <c r="J8" s="195"/>
+      <c r="K8" s="195"/>
+      <c r="L8" s="195"/>
+      <c r="M8" s="195"/>
+      <c r="N8" s="195"/>
+      <c r="O8" s="195"/>
+      <c r="P8" s="195"/>
+      <c r="Q8" s="195"/>
+      <c r="R8" s="195"/>
+      <c r="S8" s="195"/>
+      <c r="T8" s="195"/>
+      <c r="U8" s="195"/>
+      <c r="V8" s="195"/>
+      <c r="W8" s="195"/>
+      <c r="X8" s="195"/>
+      <c r="Y8" s="195"/>
+      <c r="Z8" s="195"/>
+      <c r="AA8" s="195"/>
+      <c r="AB8" s="195"/>
+      <c r="AC8" s="195"/>
+      <c r="AD8" s="195"/>
+      <c r="AE8" s="195"/>
+      <c r="AF8" s="195"/>
       <c r="AG8" s="6"/>
     </row>
     <row r="9" spans="1:33" ht="12.75" customHeight="1">
       <c r="A9" s="5"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
-      <c r="AF9" s="2"/>
+      <c r="B9" s="195"/>
+      <c r="C9" s="195"/>
+      <c r="D9" s="195"/>
+      <c r="E9" s="195"/>
+      <c r="F9" s="195"/>
+      <c r="G9" s="195"/>
+      <c r="H9" s="195"/>
+      <c r="I9" s="195"/>
+      <c r="J9" s="195"/>
+      <c r="K9" s="195"/>
+      <c r="L9" s="195"/>
+      <c r="M9" s="195"/>
+      <c r="N9" s="195"/>
+      <c r="O9" s="195"/>
+      <c r="P9" s="195"/>
+      <c r="Q9" s="195"/>
+      <c r="R9" s="195"/>
+      <c r="S9" s="195"/>
+      <c r="T9" s="195"/>
+      <c r="U9" s="195"/>
+      <c r="V9" s="195"/>
+      <c r="W9" s="195"/>
+      <c r="X9" s="195"/>
+      <c r="Y9" s="195"/>
+      <c r="Z9" s="195"/>
+      <c r="AA9" s="195"/>
+      <c r="AB9" s="195"/>
+      <c r="AC9" s="195"/>
+      <c r="AD9" s="195"/>
+      <c r="AE9" s="195"/>
+      <c r="AF9" s="195"/>
       <c r="AG9" s="6"/>
     </row>
     <row r="10" spans="1:33" ht="12.75" customHeight="1">
       <c r="A10" s="5"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
-      <c r="AF10" s="2"/>
+      <c r="B10" s="195"/>
+      <c r="C10" s="195"/>
+      <c r="D10" s="195"/>
+      <c r="E10" s="195"/>
+      <c r="F10" s="195"/>
+      <c r="G10" s="195"/>
+      <c r="H10" s="195"/>
+      <c r="I10" s="195"/>
+      <c r="J10" s="195"/>
+      <c r="K10" s="195"/>
+      <c r="L10" s="195"/>
+      <c r="M10" s="195"/>
+      <c r="N10" s="195"/>
+      <c r="O10" s="195"/>
+      <c r="P10" s="195"/>
+      <c r="Q10" s="195"/>
+      <c r="R10" s="195"/>
+      <c r="S10" s="195"/>
+      <c r="T10" s="195"/>
+      <c r="U10" s="195"/>
+      <c r="V10" s="195"/>
+      <c r="W10" s="195"/>
+      <c r="X10" s="195"/>
+      <c r="Y10" s="195"/>
+      <c r="Z10" s="195"/>
+      <c r="AA10" s="195"/>
+      <c r="AB10" s="195"/>
+      <c r="AC10" s="195"/>
+      <c r="AD10" s="195"/>
+      <c r="AE10" s="195"/>
+      <c r="AF10" s="195"/>
       <c r="AG10" s="6"/>
     </row>
     <row r="11" spans="1:33" ht="12.75" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="2"/>
-      <c r="AD11" s="2"/>
-      <c r="AE11" s="2"/>
-      <c r="AF11" s="2"/>
+      <c r="B11" s="195"/>
+      <c r="C11" s="195"/>
+      <c r="D11" s="195"/>
+      <c r="E11" s="195"/>
+      <c r="F11" s="195"/>
+      <c r="G11" s="195"/>
+      <c r="H11" s="195"/>
+      <c r="I11" s="195"/>
+      <c r="J11" s="195"/>
+      <c r="K11" s="195"/>
+      <c r="L11" s="195"/>
+      <c r="M11" s="195"/>
+      <c r="N11" s="195"/>
+      <c r="O11" s="195"/>
+      <c r="P11" s="195"/>
+      <c r="Q11" s="195"/>
+      <c r="R11" s="195"/>
+      <c r="S11" s="195"/>
+      <c r="T11" s="195"/>
+      <c r="U11" s="195"/>
+      <c r="V11" s="195"/>
+      <c r="W11" s="195"/>
+      <c r="X11" s="195"/>
+      <c r="Y11" s="195"/>
+      <c r="Z11" s="195"/>
+      <c r="AA11" s="195"/>
+      <c r="AB11" s="195"/>
+      <c r="AC11" s="195"/>
+      <c r="AD11" s="195"/>
+      <c r="AE11" s="195"/>
+      <c r="AF11" s="195"/>
       <c r="AG11" s="6"/>
     </row>
     <row r="12" spans="1:33" ht="12.75" customHeight="1">
       <c r="A12" s="5"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
-      <c r="AC12" s="2"/>
-      <c r="AD12" s="2"/>
-      <c r="AE12" s="2"/>
-      <c r="AF12" s="2"/>
+      <c r="B12" s="195"/>
+      <c r="C12" s="195"/>
+      <c r="D12" s="195"/>
+      <c r="E12" s="195"/>
+      <c r="F12" s="195"/>
+      <c r="G12" s="195"/>
+      <c r="H12" s="195"/>
+      <c r="I12" s="195"/>
+      <c r="J12" s="195"/>
+      <c r="K12" s="195"/>
+      <c r="L12" s="195"/>
+      <c r="M12" s="195"/>
+      <c r="N12" s="195"/>
+      <c r="O12" s="195"/>
+      <c r="P12" s="196"/>
+      <c r="Q12" s="195"/>
+      <c r="R12" s="195"/>
+      <c r="S12" s="195"/>
+      <c r="T12" s="195"/>
+      <c r="U12" s="195"/>
+      <c r="V12" s="195"/>
+      <c r="W12" s="195"/>
+      <c r="X12" s="195"/>
+      <c r="Y12" s="195"/>
+      <c r="Z12" s="195"/>
+      <c r="AA12" s="195"/>
+      <c r="AB12" s="195"/>
+      <c r="AC12" s="195"/>
+      <c r="AD12" s="195"/>
+      <c r="AE12" s="195"/>
+      <c r="AF12" s="195"/>
       <c r="AG12" s="6"/>
     </row>
     <row r="13" spans="1:33" ht="12.75" customHeight="1">
       <c r="A13" s="5"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="2"/>
-      <c r="AD13" s="2"/>
-      <c r="AE13" s="2"/>
-      <c r="AF13" s="2"/>
+      <c r="B13" s="195"/>
+      <c r="C13" s="195"/>
+      <c r="D13" s="195"/>
+      <c r="E13" s="195"/>
+      <c r="F13" s="195"/>
+      <c r="G13" s="195"/>
+      <c r="H13" s="195"/>
+      <c r="I13" s="195"/>
+      <c r="J13" s="195"/>
+      <c r="K13" s="195"/>
+      <c r="L13" s="195"/>
+      <c r="M13" s="195"/>
+      <c r="N13" s="195"/>
+      <c r="O13" s="195"/>
+      <c r="P13" s="196"/>
+      <c r="Q13" s="195"/>
+      <c r="R13" s="195"/>
+      <c r="S13" s="196"/>
+      <c r="T13" s="196"/>
+      <c r="U13" s="196"/>
+      <c r="V13" s="196"/>
+      <c r="W13" s="196"/>
+      <c r="X13" s="196"/>
+      <c r="Y13" s="196"/>
+      <c r="Z13" s="195"/>
+      <c r="AA13" s="195"/>
+      <c r="AB13" s="195"/>
+      <c r="AC13" s="195"/>
+      <c r="AD13" s="195"/>
+      <c r="AE13" s="195"/>
+      <c r="AF13" s="195"/>
       <c r="AG13" s="6"/>
     </row>
     <row r="14" spans="1:33" ht="12.75" customHeight="1">
       <c r="A14" s="5"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="2"/>
-      <c r="AD14" s="2"/>
-      <c r="AE14" s="2"/>
-      <c r="AF14" s="2"/>
+      <c r="B14" s="195"/>
+      <c r="C14" s="195"/>
+      <c r="D14" s="195"/>
+      <c r="E14" s="195"/>
+      <c r="F14" s="195"/>
+      <c r="G14" s="195"/>
+      <c r="H14" s="195"/>
+      <c r="I14" s="195"/>
+      <c r="J14" s="195"/>
+      <c r="K14" s="195"/>
+      <c r="L14" s="195"/>
+      <c r="M14" s="195"/>
+      <c r="N14" s="195"/>
+      <c r="O14" s="195"/>
+      <c r="P14" s="196"/>
+      <c r="Q14" s="195"/>
+      <c r="R14" s="195"/>
+      <c r="S14" s="195"/>
+      <c r="T14" s="196"/>
+      <c r="U14" s="196"/>
+      <c r="V14" s="196"/>
+      <c r="W14" s="196"/>
+      <c r="X14" s="196"/>
+      <c r="Y14" s="196"/>
+      <c r="Z14" s="195"/>
+      <c r="AA14" s="195"/>
+      <c r="AB14" s="195"/>
+      <c r="AC14" s="195"/>
+      <c r="AD14" s="195"/>
+      <c r="AE14" s="195"/>
+      <c r="AF14" s="195"/>
       <c r="AG14" s="6"/>
     </row>
     <row r="15" spans="1:33" ht="12.75" customHeight="1">
       <c r="A15" s="5"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
-      <c r="AC15" s="2"/>
-      <c r="AD15" s="2"/>
-      <c r="AE15" s="2"/>
-      <c r="AF15" s="2"/>
+      <c r="B15" s="195"/>
+      <c r="C15" s="195"/>
+      <c r="D15" s="195"/>
+      <c r="E15" s="195"/>
+      <c r="F15" s="195"/>
+      <c r="G15" s="195"/>
+      <c r="H15" s="195"/>
+      <c r="I15" s="195"/>
+      <c r="J15" s="195"/>
+      <c r="K15" s="195"/>
+      <c r="L15" s="195"/>
+      <c r="M15" s="195"/>
+      <c r="N15" s="195"/>
+      <c r="O15" s="195"/>
+      <c r="P15" s="196"/>
+      <c r="Q15" s="195"/>
+      <c r="R15" s="195"/>
+      <c r="S15" s="195"/>
+      <c r="T15" s="196"/>
+      <c r="U15" s="196"/>
+      <c r="V15" s="196"/>
+      <c r="W15" s="196"/>
+      <c r="X15" s="196"/>
+      <c r="Y15" s="196"/>
+      <c r="Z15" s="195"/>
+      <c r="AA15" s="195"/>
+      <c r="AB15" s="195"/>
+      <c r="AC15" s="195"/>
+      <c r="AD15" s="195"/>
+      <c r="AE15" s="195"/>
+      <c r="AF15" s="195"/>
       <c r="AG15" s="6"/>
     </row>
     <row r="16" spans="1:33" ht="12.75" customHeight="1">
       <c r="A16" s="5"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
-      <c r="AC16" s="2"/>
-      <c r="AD16" s="2"/>
-      <c r="AE16" s="2"/>
-      <c r="AF16" s="2"/>
+      <c r="B16" s="195"/>
+      <c r="C16" s="195"/>
+      <c r="D16" s="195"/>
+      <c r="E16" s="195"/>
+      <c r="F16" s="195"/>
+      <c r="G16" s="195"/>
+      <c r="H16" s="195"/>
+      <c r="I16" s="195"/>
+      <c r="J16" s="195"/>
+      <c r="K16" s="195"/>
+      <c r="L16" s="195"/>
+      <c r="M16" s="195"/>
+      <c r="N16" s="195"/>
+      <c r="O16" s="195"/>
+      <c r="P16" s="196"/>
+      <c r="Q16" s="195"/>
+      <c r="R16" s="195"/>
+      <c r="S16" s="196"/>
+      <c r="T16" s="196"/>
+      <c r="U16" s="196"/>
+      <c r="V16" s="196"/>
+      <c r="W16" s="196"/>
+      <c r="X16" s="196"/>
+      <c r="Y16" s="196"/>
+      <c r="Z16" s="195"/>
+      <c r="AA16" s="195"/>
+      <c r="AB16" s="195"/>
+      <c r="AC16" s="195"/>
+      <c r="AD16" s="195"/>
+      <c r="AE16" s="195"/>
+      <c r="AF16" s="195"/>
       <c r="AG16" s="6"/>
     </row>
     <row r="17" spans="1:33" ht="12.75" customHeight="1">
       <c r="A17" s="5"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
-      <c r="AB17" s="2"/>
-      <c r="AC17" s="2"/>
-      <c r="AD17" s="2"/>
-      <c r="AE17" s="2"/>
-      <c r="AF17" s="2"/>
+      <c r="B17" s="195"/>
+      <c r="C17" s="195"/>
+      <c r="D17" s="195"/>
+      <c r="E17" s="195"/>
+      <c r="F17" s="195"/>
+      <c r="G17" s="195"/>
+      <c r="H17" s="195"/>
+      <c r="I17" s="195"/>
+      <c r="J17" s="195"/>
+      <c r="K17" s="195"/>
+      <c r="L17" s="195"/>
+      <c r="M17" s="195"/>
+      <c r="N17" s="195"/>
+      <c r="O17" s="195"/>
+      <c r="P17" s="196"/>
+      <c r="Q17" s="195"/>
+      <c r="R17" s="195"/>
+      <c r="S17" s="195"/>
+      <c r="T17" s="195"/>
+      <c r="U17" s="195"/>
+      <c r="V17" s="195"/>
+      <c r="W17" s="195"/>
+      <c r="X17" s="195"/>
+      <c r="Y17" s="195"/>
+      <c r="Z17" s="195"/>
+      <c r="AA17" s="195"/>
+      <c r="AB17" s="195"/>
+      <c r="AC17" s="195"/>
+      <c r="AD17" s="195"/>
+      <c r="AE17" s="195"/>
+      <c r="AF17" s="195"/>
       <c r="AG17" s="6"/>
     </row>
     <row r="18" spans="1:33" ht="12.75" customHeight="1">
       <c r="A18" s="5"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
-      <c r="AC18" s="2"/>
-      <c r="AD18" s="2"/>
-      <c r="AE18" s="2"/>
-      <c r="AF18" s="2"/>
+      <c r="B18" s="195"/>
+      <c r="C18" s="195"/>
+      <c r="D18" s="195"/>
+      <c r="E18" s="195"/>
+      <c r="F18" s="195"/>
+      <c r="G18" s="195"/>
+      <c r="H18" s="195"/>
+      <c r="I18" s="195"/>
+      <c r="J18" s="195"/>
+      <c r="K18" s="195"/>
+      <c r="L18" s="195"/>
+      <c r="M18" s="195"/>
+      <c r="N18" s="195"/>
+      <c r="O18" s="195"/>
+      <c r="P18" s="195"/>
+      <c r="Q18" s="195"/>
+      <c r="R18" s="195"/>
+      <c r="S18" s="195"/>
+      <c r="T18" s="195"/>
+      <c r="U18" s="195"/>
+      <c r="V18" s="195"/>
+      <c r="W18" s="195"/>
+      <c r="X18" s="195"/>
+      <c r="Y18" s="195"/>
+      <c r="Z18" s="195"/>
+      <c r="AA18" s="195"/>
+      <c r="AB18" s="195"/>
+      <c r="AC18" s="195"/>
+      <c r="AD18" s="195"/>
+      <c r="AE18" s="195"/>
+      <c r="AF18" s="195"/>
       <c r="AG18" s="6"/>
     </row>
     <row r="19" spans="1:33" ht="12.75" customHeight="1">
       <c r="A19" s="5"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
-      <c r="AB19" s="2"/>
-      <c r="AC19" s="2"/>
-      <c r="AD19" s="2"/>
-      <c r="AE19" s="2"/>
-      <c r="AF19" s="2"/>
+      <c r="B19" s="195"/>
+      <c r="C19" s="195"/>
+      <c r="D19" s="195"/>
+      <c r="E19" s="195"/>
+      <c r="F19" s="195"/>
+      <c r="G19" s="195"/>
+      <c r="H19" s="195"/>
+      <c r="I19" s="195"/>
+      <c r="J19" s="195"/>
+      <c r="K19" s="195"/>
+      <c r="L19" s="195"/>
+      <c r="M19" s="195"/>
+      <c r="N19" s="195"/>
+      <c r="O19" s="195"/>
+      <c r="P19" s="195"/>
+      <c r="Q19" s="195"/>
+      <c r="R19" s="195"/>
+      <c r="S19" s="195"/>
+      <c r="T19" s="195"/>
+      <c r="U19" s="195"/>
+      <c r="V19" s="195"/>
+      <c r="W19" s="196"/>
+      <c r="X19" s="195"/>
+      <c r="Y19" s="195"/>
+      <c r="Z19" s="195"/>
+      <c r="AA19" s="195"/>
+      <c r="AB19" s="195"/>
+      <c r="AC19" s="195"/>
+      <c r="AD19" s="195"/>
+      <c r="AE19" s="195"/>
+      <c r="AF19" s="195"/>
       <c r="AG19" s="6"/>
     </row>
     <row r="20" spans="1:33" ht="12.75" customHeight="1">
       <c r="A20" s="5"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
-      <c r="AC20" s="2"/>
-      <c r="AD20" s="2"/>
-      <c r="AE20" s="2"/>
-      <c r="AF20" s="2"/>
+      <c r="B20" s="195"/>
+      <c r="C20" s="195"/>
+      <c r="D20" s="195"/>
+      <c r="E20" s="195"/>
+      <c r="F20" s="195"/>
+      <c r="G20" s="195"/>
+      <c r="H20" s="195"/>
+      <c r="I20" s="195"/>
+      <c r="J20" s="195"/>
+      <c r="K20" s="195"/>
+      <c r="L20" s="195"/>
+      <c r="M20" s="195"/>
+      <c r="N20" s="195"/>
+      <c r="O20" s="195"/>
+      <c r="P20" s="195"/>
+      <c r="Q20" s="195"/>
+      <c r="R20" s="195"/>
+      <c r="S20" s="195"/>
+      <c r="T20" s="195"/>
+      <c r="U20" s="195"/>
+      <c r="V20" s="195"/>
+      <c r="W20" s="195"/>
+      <c r="X20" s="195"/>
+      <c r="Y20" s="195"/>
+      <c r="Z20" s="195"/>
+      <c r="AA20" s="195"/>
+      <c r="AB20" s="195"/>
+      <c r="AC20" s="195"/>
+      <c r="AD20" s="195"/>
+      <c r="AE20" s="195"/>
+      <c r="AF20" s="195"/>
       <c r="AG20" s="6"/>
     </row>
     <row r="21" spans="1:33" ht="12.75" customHeight="1">
       <c r="A21" s="5"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
-      <c r="AB21" s="2"/>
-      <c r="AC21" s="2"/>
-      <c r="AD21" s="2"/>
-      <c r="AE21" s="2"/>
-      <c r="AF21" s="2"/>
+      <c r="B21" s="195"/>
+      <c r="C21" s="195"/>
+      <c r="D21" s="195"/>
+      <c r="E21" s="195"/>
+      <c r="F21" s="195"/>
+      <c r="G21" s="195"/>
+      <c r="H21" s="195"/>
+      <c r="I21" s="195"/>
+      <c r="J21" s="195"/>
+      <c r="K21" s="195"/>
+      <c r="L21" s="195"/>
+      <c r="M21" s="195"/>
+      <c r="N21" s="195"/>
+      <c r="O21" s="195"/>
+      <c r="P21" s="195"/>
+      <c r="Q21" s="195"/>
+      <c r="R21" s="195"/>
+      <c r="S21" s="195"/>
+      <c r="T21" s="195"/>
+      <c r="U21" s="195"/>
+      <c r="V21" s="195"/>
+      <c r="W21" s="195"/>
+      <c r="X21" s="195"/>
+      <c r="Y21" s="195"/>
+      <c r="Z21" s="195"/>
+      <c r="AA21" s="195"/>
+      <c r="AB21" s="195"/>
+      <c r="AC21" s="195"/>
+      <c r="AD21" s="195"/>
+      <c r="AE21" s="195"/>
+      <c r="AF21" s="195"/>
       <c r="AG21" s="6"/>
     </row>
     <row r="22" spans="1:33" ht="12.75" customHeight="1">
       <c r="A22" s="5"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
-      <c r="AB22" s="2"/>
-      <c r="AC22" s="2"/>
-      <c r="AD22" s="2"/>
-      <c r="AE22" s="2"/>
-      <c r="AF22" s="2"/>
+      <c r="B22" s="195"/>
+      <c r="C22" s="195"/>
+      <c r="D22" s="195"/>
+      <c r="E22" s="195"/>
+      <c r="F22" s="195"/>
+      <c r="G22" s="195"/>
+      <c r="H22" s="195"/>
+      <c r="I22" s="195"/>
+      <c r="J22" s="195"/>
+      <c r="K22" s="195"/>
+      <c r="L22" s="195"/>
+      <c r="M22" s="195"/>
+      <c r="N22" s="195"/>
+      <c r="O22" s="195"/>
+      <c r="P22" s="195"/>
+      <c r="Q22" s="195"/>
+      <c r="R22" s="195"/>
+      <c r="S22" s="195"/>
+      <c r="T22" s="195"/>
+      <c r="U22" s="195"/>
+      <c r="V22" s="195"/>
+      <c r="W22" s="195"/>
+      <c r="X22" s="195"/>
+      <c r="Y22" s="195"/>
+      <c r="Z22" s="195"/>
+      <c r="AA22" s="195"/>
+      <c r="AB22" s="195"/>
+      <c r="AC22" s="195"/>
+      <c r="AD22" s="195"/>
+      <c r="AE22" s="195"/>
+      <c r="AF22" s="195"/>
       <c r="AG22" s="6"/>
     </row>
     <row r="23" spans="1:33" ht="12.75" customHeight="1">
       <c r="A23" s="5"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
-      <c r="AA23" s="2"/>
-      <c r="AB23" s="2"/>
-      <c r="AC23" s="2"/>
-      <c r="AD23" s="2"/>
-      <c r="AE23" s="2"/>
-      <c r="AF23" s="2"/>
+      <c r="B23" s="195"/>
+      <c r="C23" s="195"/>
+      <c r="D23" s="195"/>
+      <c r="E23" s="195"/>
+      <c r="F23" s="195"/>
+      <c r="G23" s="195"/>
+      <c r="H23" s="195"/>
+      <c r="I23" s="195"/>
+      <c r="J23" s="195"/>
+      <c r="K23" s="195"/>
+      <c r="L23" s="195"/>
+      <c r="M23" s="195"/>
+      <c r="N23" s="195"/>
+      <c r="O23" s="195"/>
+      <c r="P23" s="195"/>
+      <c r="Q23" s="195"/>
+      <c r="R23" s="195"/>
+      <c r="S23" s="195"/>
+      <c r="T23" s="195"/>
+      <c r="U23" s="195"/>
+      <c r="V23" s="195"/>
+      <c r="W23" s="196"/>
+      <c r="X23" s="195"/>
+      <c r="Y23" s="195"/>
+      <c r="Z23" s="195"/>
+      <c r="AA23" s="195"/>
+      <c r="AB23" s="195"/>
+      <c r="AC23" s="195"/>
+      <c r="AD23" s="195"/>
+      <c r="AE23" s="195"/>
+      <c r="AF23" s="195"/>
       <c r="AG23" s="6"/>
     </row>
     <row r="24" spans="1:33" ht="12.75" customHeight="1">
       <c r="A24" s="5"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="Z24" s="2"/>
-      <c r="AA24" s="2"/>
-      <c r="AB24" s="2"/>
-      <c r="AC24" s="2"/>
-      <c r="AD24" s="2"/>
-      <c r="AE24" s="2"/>
-      <c r="AF24" s="2"/>
+      <c r="B24" s="195"/>
+      <c r="C24" s="195"/>
+      <c r="D24" s="195"/>
+      <c r="E24" s="195"/>
+      <c r="F24" s="195"/>
+      <c r="G24" s="195"/>
+      <c r="H24" s="195"/>
+      <c r="I24" s="195"/>
+      <c r="J24" s="195"/>
+      <c r="K24" s="195"/>
+      <c r="L24" s="195"/>
+      <c r="M24" s="195"/>
+      <c r="N24" s="195"/>
+      <c r="O24" s="195"/>
+      <c r="P24" s="195"/>
+      <c r="Q24" s="195"/>
+      <c r="R24" s="195"/>
+      <c r="S24" s="195"/>
+      <c r="T24" s="195"/>
+      <c r="U24" s="195"/>
+      <c r="V24" s="195"/>
+      <c r="W24" s="196"/>
+      <c r="X24" s="195"/>
+      <c r="Y24" s="195"/>
+      <c r="Z24" s="195"/>
+      <c r="AA24" s="195"/>
+      <c r="AB24" s="195"/>
+      <c r="AC24" s="195"/>
+      <c r="AD24" s="195"/>
+      <c r="AE24" s="195"/>
+      <c r="AF24" s="195"/>
       <c r="AG24" s="6"/>
     </row>
     <row r="25" spans="1:33" ht="12.75" customHeight="1">
       <c r="A25" s="5"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="Z25" s="2"/>
-      <c r="AA25" s="2"/>
-      <c r="AB25" s="2"/>
-      <c r="AC25" s="2"/>
-      <c r="AD25" s="2"/>
-      <c r="AE25" s="2"/>
-      <c r="AF25" s="2"/>
+      <c r="B25" s="195"/>
+      <c r="C25" s="195"/>
+      <c r="D25" s="195"/>
+      <c r="E25" s="195"/>
+      <c r="F25" s="195"/>
+      <c r="G25" s="195"/>
+      <c r="H25" s="195"/>
+      <c r="I25" s="195"/>
+      <c r="J25" s="195"/>
+      <c r="K25" s="195"/>
+      <c r="L25" s="195"/>
+      <c r="M25" s="195"/>
+      <c r="N25" s="195"/>
+      <c r="O25" s="195"/>
+      <c r="P25" s="195"/>
+      <c r="Q25" s="195"/>
+      <c r="R25" s="195"/>
+      <c r="S25" s="195"/>
+      <c r="T25" s="195"/>
+      <c r="U25" s="195"/>
+      <c r="V25" s="195"/>
+      <c r="W25" s="196"/>
+      <c r="X25" s="195"/>
+      <c r="Y25" s="195"/>
+      <c r="Z25" s="195"/>
+      <c r="AA25" s="195"/>
+      <c r="AB25" s="195"/>
+      <c r="AC25" s="195"/>
+      <c r="AD25" s="195"/>
+      <c r="AE25" s="195"/>
+      <c r="AF25" s="195"/>
       <c r="AG25" s="6"/>
     </row>
     <row r="26" spans="1:33" ht="12.75" customHeight="1">
       <c r="A26" s="5"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="Z26" s="2"/>
-      <c r="AA26" s="2"/>
-      <c r="AB26" s="2"/>
-      <c r="AC26" s="2"/>
-      <c r="AD26" s="2"/>
-      <c r="AE26" s="2"/>
-      <c r="AF26" s="2"/>
+      <c r="B26" s="195"/>
+      <c r="C26" s="195"/>
+      <c r="D26" s="195"/>
+      <c r="E26" s="195"/>
+      <c r="F26" s="195"/>
+      <c r="G26" s="195"/>
+      <c r="H26" s="195"/>
+      <c r="I26" s="195"/>
+      <c r="J26" s="195"/>
+      <c r="K26" s="195"/>
+      <c r="L26" s="195"/>
+      <c r="M26" s="195"/>
+      <c r="N26" s="195"/>
+      <c r="O26" s="195"/>
+      <c r="P26" s="195"/>
+      <c r="Q26" s="195"/>
+      <c r="R26" s="195"/>
+      <c r="S26" s="195"/>
+      <c r="T26" s="195"/>
+      <c r="U26" s="195"/>
+      <c r="V26" s="195"/>
+      <c r="W26" s="196"/>
+      <c r="X26" s="195"/>
+      <c r="Y26" s="195"/>
+      <c r="Z26" s="195"/>
+      <c r="AA26" s="195"/>
+      <c r="AB26" s="195"/>
+      <c r="AC26" s="195"/>
+      <c r="AD26" s="195"/>
+      <c r="AE26" s="195"/>
+      <c r="AF26" s="195"/>
       <c r="AG26" s="6"/>
     </row>
     <row r="27" spans="1:33" ht="12.75" customHeight="1">
       <c r="A27" s="5"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="132"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="Z27" s="2"/>
-      <c r="AA27" s="2"/>
-      <c r="AB27" s="2"/>
-      <c r="AC27" s="2"/>
-      <c r="AD27" s="2"/>
-      <c r="AE27" s="2"/>
-      <c r="AF27" s="2"/>
+      <c r="B27" s="195"/>
+      <c r="C27" s="195"/>
+      <c r="D27" s="195"/>
+      <c r="E27" s="195"/>
+      <c r="F27" s="195"/>
+      <c r="G27" s="195"/>
+      <c r="H27" s="195"/>
+      <c r="I27" s="197"/>
+      <c r="J27" s="195"/>
+      <c r="K27" s="195"/>
+      <c r="L27" s="195"/>
+      <c r="M27" s="195"/>
+      <c r="N27" s="195"/>
+      <c r="O27" s="195"/>
+      <c r="P27" s="195"/>
+      <c r="Q27" s="195"/>
+      <c r="R27" s="195"/>
+      <c r="S27" s="195"/>
+      <c r="T27" s="197"/>
+      <c r="U27" s="195"/>
+      <c r="V27" s="195"/>
+      <c r="W27" s="196"/>
+      <c r="X27" s="195"/>
+      <c r="Y27" s="195"/>
+      <c r="Z27" s="195"/>
+      <c r="AA27" s="195"/>
+      <c r="AB27" s="195"/>
+      <c r="AC27" s="195"/>
+      <c r="AD27" s="195"/>
+      <c r="AE27" s="197"/>
+      <c r="AF27" s="195"/>
       <c r="AG27" s="6"/>
     </row>
     <row r="28" spans="1:33" ht="12.75" customHeight="1">
       <c r="A28" s="5"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="Z28" s="2"/>
-      <c r="AA28" s="2"/>
-      <c r="AB28" s="2"/>
-      <c r="AC28" s="2"/>
-      <c r="AD28" s="2"/>
-      <c r="AE28" s="2"/>
-      <c r="AF28" s="2"/>
+      <c r="B28" s="195"/>
+      <c r="C28" s="195"/>
+      <c r="D28" s="195"/>
+      <c r="E28" s="195"/>
+      <c r="F28" s="195"/>
+      <c r="G28" s="195"/>
+      <c r="H28" s="195"/>
+      <c r="I28" s="195"/>
+      <c r="J28" s="195"/>
+      <c r="K28" s="195"/>
+      <c r="L28" s="195"/>
+      <c r="M28" s="195"/>
+      <c r="N28" s="195"/>
+      <c r="O28" s="195"/>
+      <c r="P28" s="195"/>
+      <c r="Q28" s="195"/>
+      <c r="R28" s="195"/>
+      <c r="S28" s="195"/>
+      <c r="T28" s="195"/>
+      <c r="U28" s="195"/>
+      <c r="V28" s="195"/>
+      <c r="W28" s="196"/>
+      <c r="X28" s="195"/>
+      <c r="Y28" s="195"/>
+      <c r="Z28" s="195"/>
+      <c r="AA28" s="195"/>
+      <c r="AB28" s="195"/>
+      <c r="AC28" s="195"/>
+      <c r="AD28" s="195"/>
+      <c r="AE28" s="195"/>
+      <c r="AF28" s="195"/>
       <c r="AG28" s="6"/>
     </row>
     <row r="29" spans="1:33" ht="12.75" customHeight="1">
       <c r="A29" s="5"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="Z29" s="2"/>
-      <c r="AA29" s="2"/>
-      <c r="AB29" s="2"/>
-      <c r="AC29" s="2"/>
-      <c r="AD29" s="2"/>
-      <c r="AE29" s="2"/>
-      <c r="AF29" s="2"/>
+      <c r="B29" s="195"/>
+      <c r="C29" s="195"/>
+      <c r="D29" s="195"/>
+      <c r="E29" s="195"/>
+      <c r="F29" s="195"/>
+      <c r="G29" s="195"/>
+      <c r="H29" s="195"/>
+      <c r="I29" s="195"/>
+      <c r="J29" s="195"/>
+      <c r="K29" s="195"/>
+      <c r="L29" s="195"/>
+      <c r="M29" s="195"/>
+      <c r="N29" s="195"/>
+      <c r="O29" s="195"/>
+      <c r="P29" s="195"/>
+      <c r="Q29" s="195"/>
+      <c r="R29" s="195"/>
+      <c r="S29" s="195"/>
+      <c r="T29" s="195"/>
+      <c r="U29" s="195"/>
+      <c r="V29" s="195"/>
+      <c r="W29" s="196"/>
+      <c r="X29" s="195"/>
+      <c r="Y29" s="195"/>
+      <c r="Z29" s="195"/>
+      <c r="AA29" s="195"/>
+      <c r="AB29" s="195"/>
+      <c r="AC29" s="195"/>
+      <c r="AD29" s="195"/>
+      <c r="AE29" s="195"/>
+      <c r="AF29" s="195"/>
       <c r="AG29" s="6"/>
     </row>
     <row r="30" spans="1:33" ht="12.75" customHeight="1">
       <c r="A30" s="5"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="Z30" s="2"/>
-      <c r="AA30" s="2"/>
-      <c r="AB30" s="2"/>
-      <c r="AC30" s="2"/>
-      <c r="AD30" s="2"/>
-      <c r="AE30" s="2"/>
-      <c r="AF30" s="2"/>
+      <c r="B30" s="195"/>
+      <c r="C30" s="195"/>
+      <c r="D30" s="195"/>
+      <c r="E30" s="195"/>
+      <c r="F30" s="195"/>
+      <c r="G30" s="195"/>
+      <c r="H30" s="195"/>
+      <c r="I30" s="195"/>
+      <c r="J30" s="195"/>
+      <c r="K30" s="195"/>
+      <c r="L30" s="195"/>
+      <c r="M30" s="195"/>
+      <c r="N30" s="195"/>
+      <c r="O30" s="195"/>
+      <c r="P30" s="195"/>
+      <c r="Q30" s="195"/>
+      <c r="R30" s="195"/>
+      <c r="S30" s="195"/>
+      <c r="T30" s="195"/>
+      <c r="U30" s="195"/>
+      <c r="V30" s="195"/>
+      <c r="W30" s="196"/>
+      <c r="X30" s="195"/>
+      <c r="Y30" s="195"/>
+      <c r="Z30" s="195"/>
+      <c r="AA30" s="195"/>
+      <c r="AB30" s="195"/>
+      <c r="AC30" s="195"/>
+      <c r="AD30" s="195"/>
+      <c r="AE30" s="195"/>
+      <c r="AF30" s="195"/>
       <c r="AG30" s="6"/>
     </row>
     <row r="31" spans="1:33" ht="12.75" customHeight="1">
       <c r="A31" s="5"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="Z31" s="2"/>
-      <c r="AA31" s="2"/>
-      <c r="AB31" s="2"/>
-      <c r="AC31" s="2"/>
-      <c r="AD31" s="2"/>
-      <c r="AE31" s="2"/>
-      <c r="AF31" s="2"/>
+      <c r="B31" s="195"/>
+      <c r="C31" s="195"/>
+      <c r="D31" s="195"/>
+      <c r="E31" s="195"/>
+      <c r="F31" s="195"/>
+      <c r="G31" s="195"/>
+      <c r="H31" s="195"/>
+      <c r="I31" s="195"/>
+      <c r="J31" s="195"/>
+      <c r="K31" s="195"/>
+      <c r="L31" s="195"/>
+      <c r="M31" s="195"/>
+      <c r="N31" s="195"/>
+      <c r="O31" s="195"/>
+      <c r="P31" s="195"/>
+      <c r="Q31" s="195"/>
+      <c r="R31" s="195"/>
+      <c r="S31" s="195"/>
+      <c r="T31" s="195"/>
+      <c r="U31" s="195"/>
+      <c r="V31" s="195"/>
+      <c r="W31" s="196"/>
+      <c r="X31" s="195"/>
+      <c r="Y31" s="195"/>
+      <c r="Z31" s="195"/>
+      <c r="AA31" s="195"/>
+      <c r="AB31" s="195"/>
+      <c r="AC31" s="195"/>
+      <c r="AD31" s="195"/>
+      <c r="AE31" s="195"/>
+      <c r="AF31" s="195"/>
       <c r="AG31" s="6"/>
     </row>
     <row r="32" spans="1:33" ht="12.75" customHeight="1">
       <c r="A32" s="5"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="2"/>
-      <c r="Z32" s="2"/>
-      <c r="AA32" s="2"/>
-      <c r="AB32" s="2"/>
-      <c r="AC32" s="2"/>
-      <c r="AD32" s="2"/>
-      <c r="AE32" s="2"/>
-      <c r="AF32" s="2"/>
+      <c r="B32" s="195"/>
+      <c r="C32" s="195"/>
+      <c r="D32" s="195"/>
+      <c r="E32" s="195"/>
+      <c r="F32" s="195"/>
+      <c r="G32" s="195"/>
+      <c r="H32" s="195"/>
+      <c r="I32" s="195"/>
+      <c r="J32" s="195"/>
+      <c r="K32" s="195"/>
+      <c r="L32" s="195"/>
+      <c r="M32" s="195"/>
+      <c r="N32" s="195"/>
+      <c r="O32" s="195"/>
+      <c r="P32" s="195"/>
+      <c r="Q32" s="195"/>
+      <c r="R32" s="195"/>
+      <c r="S32" s="195"/>
+      <c r="T32" s="195"/>
+      <c r="U32" s="195"/>
+      <c r="V32" s="195"/>
+      <c r="W32" s="195"/>
+      <c r="X32" s="195"/>
+      <c r="Y32" s="195"/>
+      <c r="Z32" s="195"/>
+      <c r="AA32" s="195"/>
+      <c r="AB32" s="195"/>
+      <c r="AC32" s="195"/>
+      <c r="AD32" s="195"/>
+      <c r="AE32" s="195"/>
+      <c r="AF32" s="195"/>
       <c r="AG32" s="6"/>
     </row>
     <row r="33" spans="1:33" ht="12.75" customHeight="1">
       <c r="A33" s="5"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-      <c r="W33" s="2"/>
-      <c r="X33" s="2"/>
-      <c r="Y33" s="2"/>
-      <c r="Z33" s="2"/>
-      <c r="AA33" s="2"/>
-      <c r="AB33" s="2"/>
-      <c r="AC33" s="2"/>
-      <c r="AD33" s="2"/>
-      <c r="AE33" s="2"/>
-      <c r="AF33" s="2"/>
+      <c r="B33" s="195"/>
+      <c r="C33" s="195"/>
+      <c r="D33" s="195"/>
+      <c r="E33" s="195"/>
+      <c r="F33" s="195"/>
+      <c r="G33" s="195"/>
+      <c r="H33" s="195"/>
+      <c r="I33" s="195"/>
+      <c r="J33" s="195"/>
+      <c r="K33" s="195"/>
+      <c r="L33" s="195"/>
+      <c r="M33" s="195"/>
+      <c r="N33" s="195"/>
+      <c r="O33" s="195"/>
+      <c r="P33" s="195"/>
+      <c r="Q33" s="195"/>
+      <c r="R33" s="195"/>
+      <c r="S33" s="195"/>
+      <c r="T33" s="195"/>
+      <c r="U33" s="195"/>
+      <c r="V33" s="195"/>
+      <c r="W33" s="195"/>
+      <c r="X33" s="195"/>
+      <c r="Y33" s="195"/>
+      <c r="Z33" s="195"/>
+      <c r="AA33" s="195"/>
+      <c r="AB33" s="195"/>
+      <c r="AC33" s="195"/>
+      <c r="AD33" s="195"/>
+      <c r="AE33" s="195"/>
+      <c r="AF33" s="195"/>
       <c r="AG33" s="6"/>
     </row>
     <row r="34" spans="1:33" ht="12.75" customHeight="1">
       <c r="A34" s="5"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="2"/>
-      <c r="Z34" s="2"/>
-      <c r="AA34" s="2"/>
-      <c r="AB34" s="2"/>
-      <c r="AC34" s="2"/>
-      <c r="AD34" s="2"/>
-      <c r="AE34" s="2"/>
-      <c r="AF34" s="2"/>
+      <c r="B34" s="195"/>
+      <c r="C34" s="195"/>
+      <c r="D34" s="195"/>
+      <c r="E34" s="195"/>
+      <c r="F34" s="195"/>
+      <c r="G34" s="195"/>
+      <c r="H34" s="195"/>
+      <c r="I34" s="195"/>
+      <c r="J34" s="195"/>
+      <c r="K34" s="195"/>
+      <c r="L34" s="195"/>
+      <c r="M34" s="195"/>
+      <c r="N34" s="195"/>
+      <c r="O34" s="195"/>
+      <c r="P34" s="195"/>
+      <c r="Q34" s="195"/>
+      <c r="R34" s="195"/>
+      <c r="S34" s="195"/>
+      <c r="T34" s="195"/>
+      <c r="U34" s="195"/>
+      <c r="V34" s="195"/>
+      <c r="W34" s="195"/>
+      <c r="X34" s="195"/>
+      <c r="Y34" s="195"/>
+      <c r="Z34" s="195"/>
+      <c r="AA34" s="195"/>
+      <c r="AB34" s="195"/>
+      <c r="AC34" s="195"/>
+      <c r="AD34" s="195"/>
+      <c r="AE34" s="195"/>
+      <c r="AF34" s="195"/>
       <c r="AG34" s="6"/>
     </row>
     <row r="35" spans="1:33" ht="12.75" customHeight="1">
       <c r="A35" s="5"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-      <c r="W35" s="2"/>
-      <c r="X35" s="2"/>
-      <c r="Y35" s="2"/>
-      <c r="Z35" s="2"/>
-      <c r="AA35" s="2"/>
-      <c r="AB35" s="2"/>
-      <c r="AC35" s="2"/>
-      <c r="AD35" s="2"/>
-      <c r="AE35" s="2"/>
-      <c r="AF35" s="2"/>
+      <c r="B35" s="195"/>
+      <c r="C35" s="195"/>
+      <c r="D35" s="195"/>
+      <c r="E35" s="195"/>
+      <c r="F35" s="195"/>
+      <c r="G35" s="195"/>
+      <c r="H35" s="195"/>
+      <c r="I35" s="195"/>
+      <c r="J35" s="195"/>
+      <c r="K35" s="195"/>
+      <c r="L35" s="195"/>
+      <c r="M35" s="195"/>
+      <c r="N35" s="195"/>
+      <c r="O35" s="195"/>
+      <c r="P35" s="195"/>
+      <c r="Q35" s="195"/>
+      <c r="R35" s="195"/>
+      <c r="S35" s="195"/>
+      <c r="T35" s="195"/>
+      <c r="U35" s="195"/>
+      <c r="V35" s="195"/>
+      <c r="W35" s="195"/>
+      <c r="X35" s="195"/>
+      <c r="Y35" s="195"/>
+      <c r="Z35" s="195"/>
+      <c r="AA35" s="195"/>
+      <c r="AB35" s="195"/>
+      <c r="AC35" s="195"/>
+      <c r="AD35" s="195"/>
+      <c r="AE35" s="195"/>
+      <c r="AF35" s="195"/>
       <c r="AG35" s="6"/>
     </row>
     <row r="36" spans="1:33" ht="12.75" customHeight="1">
       <c r="A36" s="5"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-      <c r="W36" s="2"/>
-      <c r="X36" s="2"/>
-      <c r="Y36" s="2"/>
-      <c r="Z36" s="2"/>
-      <c r="AA36" s="2"/>
-      <c r="AB36" s="2"/>
-      <c r="AC36" s="2"/>
-      <c r="AD36" s="2"/>
-      <c r="AE36" s="2"/>
-      <c r="AF36" s="2"/>
+      <c r="B36" s="195"/>
+      <c r="C36" s="195"/>
+      <c r="D36" s="195"/>
+      <c r="E36" s="195"/>
+      <c r="F36" s="195"/>
+      <c r="G36" s="195"/>
+      <c r="H36" s="195"/>
+      <c r="I36" s="195"/>
+      <c r="J36" s="195"/>
+      <c r="K36" s="195"/>
+      <c r="L36" s="195"/>
+      <c r="M36" s="195"/>
+      <c r="N36" s="195"/>
+      <c r="O36" s="195"/>
+      <c r="P36" s="195"/>
+      <c r="Q36" s="195"/>
+      <c r="R36" s="195"/>
+      <c r="S36" s="195"/>
+      <c r="T36" s="195"/>
+      <c r="U36" s="195"/>
+      <c r="V36" s="195"/>
+      <c r="W36" s="195"/>
+      <c r="X36" s="195"/>
+      <c r="Y36" s="195"/>
+      <c r="Z36" s="195"/>
+      <c r="AA36" s="195"/>
+      <c r="AB36" s="195"/>
+      <c r="AC36" s="195"/>
+      <c r="AD36" s="195"/>
+      <c r="AE36" s="195"/>
+      <c r="AF36" s="195"/>
       <c r="AG36" s="6"/>
     </row>
     <row r="37" spans="1:33" ht="12.75" customHeight="1">
       <c r="A37" s="5"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-      <c r="W37" s="2"/>
-      <c r="X37" s="2"/>
-      <c r="Y37" s="2"/>
-      <c r="Z37" s="2"/>
-      <c r="AA37" s="2"/>
-      <c r="AB37" s="2"/>
-      <c r="AC37" s="2"/>
-      <c r="AD37" s="2"/>
-      <c r="AE37" s="2"/>
-      <c r="AF37" s="2"/>
+      <c r="B37" s="195"/>
+      <c r="C37" s="195"/>
+      <c r="D37" s="195"/>
+      <c r="E37" s="195"/>
+      <c r="F37" s="195"/>
+      <c r="G37" s="195"/>
+      <c r="H37" s="195"/>
+      <c r="I37" s="195"/>
+      <c r="J37" s="195"/>
+      <c r="K37" s="195"/>
+      <c r="L37" s="195"/>
+      <c r="M37" s="195"/>
+      <c r="N37" s="195"/>
+      <c r="O37" s="195"/>
+      <c r="P37" s="195"/>
+      <c r="Q37" s="195"/>
+      <c r="R37" s="195"/>
+      <c r="S37" s="195"/>
+      <c r="T37" s="195"/>
+      <c r="U37" s="195"/>
+      <c r="V37" s="195"/>
+      <c r="W37" s="195"/>
+      <c r="X37" s="195"/>
+      <c r="Y37" s="195"/>
+      <c r="Z37" s="195"/>
+      <c r="AA37" s="195"/>
+      <c r="AB37" s="195"/>
+      <c r="AC37" s="195"/>
+      <c r="AD37" s="195"/>
+      <c r="AE37" s="195"/>
+      <c r="AF37" s="195"/>
       <c r="AG37" s="6"/>
     </row>
     <row r="38" spans="1:33" ht="12.75" customHeight="1">
       <c r="A38" s="5"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-      <c r="W38" s="2"/>
-      <c r="X38" s="2"/>
-      <c r="Y38" s="2"/>
-      <c r="Z38" s="2"/>
-      <c r="AA38" s="2"/>
-      <c r="AB38" s="2"/>
-      <c r="AC38" s="2"/>
-      <c r="AD38" s="2"/>
-      <c r="AE38" s="2"/>
-      <c r="AF38" s="2"/>
+      <c r="B38" s="195"/>
+      <c r="C38" s="195"/>
+      <c r="D38" s="195"/>
+      <c r="E38" s="195"/>
+      <c r="F38" s="195"/>
+      <c r="G38" s="195"/>
+      <c r="H38" s="195"/>
+      <c r="I38" s="195"/>
+      <c r="J38" s="195"/>
+      <c r="K38" s="195"/>
+      <c r="L38" s="195"/>
+      <c r="M38" s="195"/>
+      <c r="N38" s="195"/>
+      <c r="O38" s="195"/>
+      <c r="P38" s="195"/>
+      <c r="Q38" s="195"/>
+      <c r="R38" s="195"/>
+      <c r="S38" s="195"/>
+      <c r="T38" s="195"/>
+      <c r="U38" s="195"/>
+      <c r="V38" s="195"/>
+      <c r="W38" s="195"/>
+      <c r="X38" s="195"/>
+      <c r="Y38" s="195"/>
+      <c r="Z38" s="195"/>
+      <c r="AA38" s="195"/>
+      <c r="AB38" s="195"/>
+      <c r="AC38" s="195"/>
+      <c r="AD38" s="195"/>
+      <c r="AE38" s="195"/>
+      <c r="AF38" s="195"/>
       <c r="AG38" s="6"/>
     </row>
     <row r="39" spans="1:33" ht="12.75" customHeight="1">
       <c r="A39" s="5"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
-      <c r="W39" s="2"/>
-      <c r="X39" s="2"/>
-      <c r="Y39" s="2"/>
-      <c r="Z39" s="2"/>
-      <c r="AA39" s="2"/>
-      <c r="AB39" s="2"/>
-      <c r="AC39" s="2"/>
-      <c r="AD39" s="2"/>
-      <c r="AE39" s="2"/>
-      <c r="AF39" s="2"/>
+      <c r="B39" s="195"/>
+      <c r="C39" s="195"/>
+      <c r="D39" s="195"/>
+      <c r="E39" s="195"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
+      <c r="H39" s="195"/>
+      <c r="I39" s="195"/>
+      <c r="J39" s="195"/>
+      <c r="K39" s="195"/>
+      <c r="L39" s="195"/>
+      <c r="M39" s="195"/>
+      <c r="N39" s="195"/>
+      <c r="O39" s="195"/>
+      <c r="P39" s="195"/>
+      <c r="Q39" s="195"/>
+      <c r="R39" s="195"/>
+      <c r="S39" s="195"/>
+      <c r="T39" s="195"/>
+      <c r="U39" s="195"/>
+      <c r="V39" s="195"/>
+      <c r="W39" s="195"/>
+      <c r="X39" s="195"/>
+      <c r="Y39" s="195"/>
+      <c r="Z39" s="195"/>
+      <c r="AA39" s="195"/>
+      <c r="AB39" s="195"/>
+      <c r="AC39" s="195"/>
+      <c r="AD39" s="195"/>
+      <c r="AE39" s="195"/>
+      <c r="AF39" s="195"/>
       <c r="AG39" s="6"/>
     </row>
     <row r="40" spans="1:33" ht="12.75" customHeight="1">
       <c r="A40" s="5"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
-      <c r="V40" s="2"/>
-      <c r="W40" s="2"/>
-      <c r="X40" s="2"/>
-      <c r="Y40" s="2"/>
-      <c r="Z40" s="2"/>
-      <c r="AA40" s="2"/>
-      <c r="AB40" s="2"/>
-      <c r="AC40" s="2"/>
-      <c r="AD40" s="2"/>
-      <c r="AE40" s="2"/>
-      <c r="AF40" s="2"/>
+      <c r="B40" s="195"/>
+      <c r="C40" s="195"/>
+      <c r="D40" s="195"/>
+      <c r="E40" s="195"/>
+      <c r="F40" s="195"/>
+      <c r="G40" s="195"/>
+      <c r="H40" s="195"/>
+      <c r="I40" s="195"/>
+      <c r="J40" s="195"/>
+      <c r="K40" s="195"/>
+      <c r="L40" s="195"/>
+      <c r="M40" s="195"/>
+      <c r="N40" s="195"/>
+      <c r="O40" s="195"/>
+      <c r="P40" s="195"/>
+      <c r="Q40" s="195"/>
+      <c r="R40" s="195"/>
+      <c r="S40" s="195"/>
+      <c r="T40" s="195"/>
+      <c r="U40" s="195"/>
+      <c r="V40" s="195"/>
+      <c r="W40" s="195"/>
+      <c r="X40" s="195"/>
+      <c r="Y40" s="195"/>
+      <c r="Z40" s="195"/>
+      <c r="AA40" s="195"/>
+      <c r="AB40" s="195"/>
+      <c r="AC40" s="195"/>
+      <c r="AD40" s="195"/>
+      <c r="AE40" s="195"/>
+      <c r="AF40" s="195"/>
       <c r="AG40" s="6"/>
     </row>
     <row r="41" spans="1:33" ht="12.75" customHeight="1">
       <c r="A41" s="5"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
-      <c r="X41" s="2"/>
-      <c r="Y41" s="2"/>
-      <c r="Z41" s="2"/>
-      <c r="AA41" s="2"/>
-      <c r="AB41" s="2"/>
-      <c r="AC41" s="2"/>
-      <c r="AD41" s="2"/>
-      <c r="AE41" s="2"/>
-      <c r="AF41" s="2"/>
+      <c r="B41" s="195"/>
+      <c r="C41" s="195"/>
+      <c r="D41" s="195"/>
+      <c r="E41" s="195"/>
+      <c r="F41" s="195"/>
+      <c r="G41" s="195"/>
+      <c r="H41" s="195"/>
+      <c r="I41" s="195"/>
+      <c r="J41" s="195"/>
+      <c r="K41" s="195"/>
+      <c r="L41" s="195"/>
+      <c r="M41" s="195"/>
+      <c r="N41" s="195"/>
+      <c r="O41" s="195"/>
+      <c r="P41" s="195"/>
+      <c r="Q41" s="195"/>
+      <c r="R41" s="195"/>
+      <c r="S41" s="195"/>
+      <c r="T41" s="195"/>
+      <c r="U41" s="195"/>
+      <c r="V41" s="195"/>
+      <c r="W41" s="195"/>
+      <c r="X41" s="195"/>
+      <c r="Y41" s="195"/>
+      <c r="Z41" s="195"/>
+      <c r="AA41" s="195"/>
+      <c r="AB41" s="195"/>
+      <c r="AC41" s="195"/>
+      <c r="AD41" s="195"/>
+      <c r="AE41" s="195"/>
+      <c r="AF41" s="195"/>
       <c r="AG41" s="6"/>
     </row>
     <row r="42" spans="1:33" ht="12.75" customHeight="1">
       <c r="A42" s="5"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-      <c r="X42" s="2"/>
-      <c r="Y42" s="2"/>
-      <c r="Z42" s="2"/>
-      <c r="AA42" s="2"/>
-      <c r="AB42" s="2"/>
-      <c r="AC42" s="2"/>
-      <c r="AD42" s="2"/>
-      <c r="AE42" s="2"/>
-      <c r="AF42" s="2"/>
+      <c r="B42" s="195"/>
+      <c r="C42" s="195"/>
+      <c r="D42" s="195"/>
+      <c r="E42" s="195"/>
+      <c r="F42" s="195"/>
+      <c r="G42" s="195"/>
+      <c r="H42" s="195"/>
+      <c r="I42" s="195"/>
+      <c r="J42" s="195"/>
+      <c r="K42" s="195"/>
+      <c r="L42" s="195"/>
+      <c r="M42" s="195"/>
+      <c r="N42" s="195"/>
+      <c r="O42" s="195"/>
+      <c r="P42" s="195"/>
+      <c r="Q42" s="195"/>
+      <c r="R42" s="195"/>
+      <c r="S42" s="195"/>
+      <c r="T42" s="195"/>
+      <c r="U42" s="195"/>
+      <c r="V42" s="195"/>
+      <c r="W42" s="195"/>
+      <c r="X42" s="195"/>
+      <c r="Y42" s="195"/>
+      <c r="Z42" s="195"/>
+      <c r="AA42" s="195"/>
+      <c r="AB42" s="195"/>
+      <c r="AC42" s="195"/>
+      <c r="AD42" s="195"/>
+      <c r="AE42" s="195"/>
+      <c r="AF42" s="195"/>
       <c r="AG42" s="6"/>
     </row>
     <row r="43" spans="1:33" ht="12.75" customHeight="1">
       <c r="A43" s="5"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
-      <c r="V43" s="2"/>
-      <c r="W43" s="2"/>
-      <c r="X43" s="2"/>
-      <c r="Y43" s="2"/>
-      <c r="Z43" s="2"/>
-      <c r="AA43" s="2"/>
-      <c r="AB43" s="2"/>
-      <c r="AC43" s="2"/>
-      <c r="AD43" s="2"/>
-      <c r="AE43" s="2"/>
-      <c r="AF43" s="2"/>
+      <c r="B43" s="195"/>
+      <c r="C43" s="195"/>
+      <c r="D43" s="195"/>
+      <c r="E43" s="195"/>
+      <c r="F43" s="195"/>
+      <c r="G43" s="195"/>
+      <c r="H43" s="195"/>
+      <c r="I43" s="195"/>
+      <c r="J43" s="195"/>
+      <c r="K43" s="195"/>
+      <c r="L43" s="195"/>
+      <c r="M43" s="195"/>
+      <c r="N43" s="195"/>
+      <c r="O43" s="195"/>
+      <c r="P43" s="195"/>
+      <c r="Q43" s="195"/>
+      <c r="R43" s="195"/>
+      <c r="S43" s="195"/>
+      <c r="T43" s="195"/>
+      <c r="U43" s="195"/>
+      <c r="V43" s="195"/>
+      <c r="W43" s="195"/>
+      <c r="X43" s="195"/>
+      <c r="Y43" s="195"/>
+      <c r="Z43" s="195"/>
+      <c r="AA43" s="195"/>
+      <c r="AB43" s="195"/>
+      <c r="AC43" s="195"/>
+      <c r="AD43" s="195"/>
+      <c r="AE43" s="195"/>
+      <c r="AF43" s="195"/>
       <c r="AG43" s="6"/>
     </row>
     <row r="44" spans="1:33" ht="12.75" customHeight="1">
       <c r="A44" s="5"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-      <c r="W44" s="2"/>
-      <c r="X44" s="2"/>
-      <c r="Y44" s="2"/>
-      <c r="Z44" s="2"/>
-      <c r="AA44" s="2"/>
-      <c r="AB44" s="2"/>
-      <c r="AC44" s="2"/>
-      <c r="AD44" s="2"/>
-      <c r="AE44" s="2"/>
-      <c r="AF44" s="2"/>
+      <c r="B44" s="195"/>
+      <c r="C44" s="195"/>
+      <c r="D44" s="195"/>
+      <c r="E44" s="195"/>
+      <c r="F44" s="195"/>
+      <c r="G44" s="195"/>
+      <c r="H44" s="195"/>
+      <c r="I44" s="195"/>
+      <c r="J44" s="195"/>
+      <c r="K44" s="195"/>
+      <c r="L44" s="195"/>
+      <c r="M44" s="195"/>
+      <c r="N44" s="195"/>
+      <c r="O44" s="195"/>
+      <c r="P44" s="195"/>
+      <c r="Q44" s="195"/>
+      <c r="R44" s="195"/>
+      <c r="S44" s="195"/>
+      <c r="T44" s="195"/>
+      <c r="U44" s="195"/>
+      <c r="V44" s="195"/>
+      <c r="W44" s="195"/>
+      <c r="X44" s="195"/>
+      <c r="Y44" s="195"/>
+      <c r="Z44" s="195"/>
+      <c r="AA44" s="195"/>
+      <c r="AB44" s="195"/>
+      <c r="AC44" s="195"/>
+      <c r="AD44" s="195"/>
+      <c r="AE44" s="195"/>
+      <c r="AF44" s="195"/>
       <c r="AG44" s="6"/>
     </row>
     <row r="45" spans="1:33" ht="12.75" customHeight="1">
@@ -30593,8 +30094,8 @@
   </sheetPr>
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -30622,83 +30123,99 @@
       <c r="I1" s="51"/>
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A2" s="189" t="s">
+      <c r="A2" s="188" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="192"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="194"/>
+      <c r="C2" s="191" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="193"/>
       <c r="H2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="48"/>
+      <c r="I2" s="204" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A3" s="190"/>
+      <c r="A3" s="189"/>
       <c r="B3" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="192"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="194"/>
+      <c r="C3" s="191" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="193"/>
       <c r="H3" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="48"/>
+      <c r="I3" s="205">
+        <v>45058</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A4" s="191"/>
+      <c r="A4" s="190"/>
       <c r="B4" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="192"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="193"/>
-      <c r="F4" s="193"/>
-      <c r="G4" s="194"/>
+      <c r="C4" s="191" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="192"/>
+      <c r="E4" s="192"/>
+      <c r="F4" s="192"/>
+      <c r="G4" s="193"/>
       <c r="H4" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="48"/>
+      <c r="I4" s="204" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A5" s="189" t="s">
+      <c r="A5" s="188" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="192"/>
-      <c r="D5" s="193"/>
-      <c r="E5" s="193"/>
-      <c r="F5" s="193"/>
-      <c r="G5" s="194"/>
+      <c r="C5" s="191" t="s">
+        <v>276</v>
+      </c>
+      <c r="D5" s="192"/>
+      <c r="E5" s="192"/>
+      <c r="F5" s="192"/>
+      <c r="G5" s="193"/>
       <c r="H5" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="23"/>
+      <c r="I5" s="28"/>
     </row>
     <row r="6" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A6" s="191"/>
+      <c r="A6" s="190"/>
       <c r="B6" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="192"/>
-      <c r="D6" s="193"/>
-      <c r="E6" s="193"/>
-      <c r="F6" s="193"/>
-      <c r="G6" s="194"/>
+      <c r="C6" s="191" t="s">
+        <v>277</v>
+      </c>
+      <c r="D6" s="192"/>
+      <c r="E6" s="192"/>
+      <c r="F6" s="192"/>
+      <c r="G6" s="193"/>
       <c r="H6" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="23"/>
+      <c r="I6" s="28"/>
     </row>
     <row r="7" spans="1:9" ht="17.25" customHeight="1">
       <c r="A7" s="22"/>
@@ -30715,11 +30232,11 @@
       <c r="A8" s="22"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
-      <c r="D8" s="186" t="s">
+      <c r="D8" s="185" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="187"/>
-      <c r="F8" s="188"/>
+      <c r="E8" s="186"/>
+      <c r="F8" s="187"/>
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
@@ -31192,8 +30709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG51"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
@@ -31246,11 +30763,11 @@
       <c r="AG1" s="121"/>
     </row>
     <row r="2" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="169" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="177"/>
-      <c r="C2" s="178"/>
+      <c r="B2" s="170"/>
+      <c r="C2" s="171"/>
       <c r="D2" s="23" t="s">
         <v>59</v>
       </c>
@@ -31278,22 +30795,22 @@
       <c r="X2" s="110"/>
       <c r="Y2" s="110"/>
       <c r="Z2" s="119"/>
-      <c r="AA2" s="185" t="s">
+      <c r="AA2" s="175" t="s">
         <v>61</v>
       </c>
-      <c r="AB2" s="185"/>
-      <c r="AC2" s="185"/>
-      <c r="AD2" s="103" t="s">
+      <c r="AB2" s="175"/>
+      <c r="AC2" s="175"/>
+      <c r="AD2" s="198" t="s">
         <v>62</v>
       </c>
-      <c r="AE2" s="110"/>
-      <c r="AF2" s="110"/>
-      <c r="AG2" s="119"/>
+      <c r="AE2" s="199"/>
+      <c r="AF2" s="199"/>
+      <c r="AG2" s="200"/>
     </row>
     <row r="3" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A3" s="179"/>
-      <c r="B3" s="180"/>
-      <c r="C3" s="181"/>
+      <c r="A3" s="182"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="184"/>
       <c r="D3" s="23" t="s">
         <v>63</v>
       </c>
@@ -31321,22 +30838,22 @@
       <c r="X3" s="110"/>
       <c r="Y3" s="110"/>
       <c r="Z3" s="119"/>
-      <c r="AA3" s="185" t="s">
+      <c r="AA3" s="175" t="s">
         <v>64</v>
       </c>
-      <c r="AB3" s="185"/>
-      <c r="AC3" s="185"/>
-      <c r="AD3" s="195">
+      <c r="AB3" s="175"/>
+      <c r="AC3" s="175"/>
+      <c r="AD3" s="201">
         <v>45044</v>
       </c>
-      <c r="AE3" s="196"/>
-      <c r="AF3" s="196"/>
-      <c r="AG3" s="197"/>
+      <c r="AE3" s="202"/>
+      <c r="AF3" s="202"/>
+      <c r="AG3" s="203"/>
     </row>
     <row r="4" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A4" s="182"/>
-      <c r="B4" s="183"/>
-      <c r="C4" s="184"/>
+      <c r="A4" s="172"/>
+      <c r="B4" s="173"/>
+      <c r="C4" s="174"/>
       <c r="D4" s="23" t="s">
         <v>65</v>
       </c>
@@ -31364,31 +30881,33 @@
       <c r="X4" s="110"/>
       <c r="Y4" s="110"/>
       <c r="Z4" s="119"/>
-      <c r="AA4" s="185" t="s">
+      <c r="AA4" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="AB4" s="185"/>
-      <c r="AC4" s="185"/>
-      <c r="AD4" s="103" t="s">
+      <c r="AB4" s="175"/>
+      <c r="AC4" s="175"/>
+      <c r="AD4" s="198" t="s">
         <v>15</v>
       </c>
-      <c r="AE4" s="110"/>
-      <c r="AF4" s="110"/>
-      <c r="AG4" s="119"/>
+      <c r="AE4" s="199"/>
+      <c r="AF4" s="199"/>
+      <c r="AG4" s="200"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A5" s="176" t="s">
+      <c r="A5" s="169" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="177"/>
-      <c r="C5" s="178"/>
+      <c r="B5" s="170"/>
+      <c r="C5" s="171"/>
       <c r="D5" s="117" t="s">
         <v>28</v>
       </c>
       <c r="E5" s="127"/>
       <c r="F5" s="127"/>
       <c r="G5" s="108"/>
-      <c r="H5" s="103"/>
+      <c r="H5" s="48" t="s">
+        <v>57</v>
+      </c>
       <c r="I5" s="110"/>
       <c r="J5" s="110"/>
       <c r="K5" s="110"/>
@@ -31407,20 +30926,20 @@
       <c r="X5" s="110"/>
       <c r="Y5" s="110"/>
       <c r="Z5" s="119"/>
-      <c r="AA5" s="185" t="s">
+      <c r="AA5" s="175" t="s">
         <v>68</v>
       </c>
-      <c r="AB5" s="185"/>
-      <c r="AC5" s="185"/>
+      <c r="AB5" s="175"/>
+      <c r="AC5" s="175"/>
       <c r="AD5" s="103"/>
       <c r="AE5" s="110"/>
       <c r="AF5" s="110"/>
       <c r="AG5" s="119"/>
     </row>
     <row r="6" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A6" s="179"/>
-      <c r="B6" s="180"/>
-      <c r="C6" s="181"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="183"/>
+      <c r="C6" s="184"/>
       <c r="D6" s="82" t="s">
         <v>69</v>
       </c>
@@ -31448,11 +30967,11 @@
       <c r="X6" s="107"/>
       <c r="Y6" s="107"/>
       <c r="Z6" s="108"/>
-      <c r="AA6" s="198" t="s">
+      <c r="AA6" s="194" t="s">
         <v>71</v>
       </c>
-      <c r="AB6" s="198"/>
-      <c r="AC6" s="198"/>
+      <c r="AB6" s="194"/>
+      <c r="AC6" s="194"/>
       <c r="AD6" s="106"/>
       <c r="AE6" s="107"/>
       <c r="AF6" s="107"/>
@@ -32879,7 +32398,7 @@
       <c r="AG51" s="102"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
     <mergeCell ref="AD3:AG3"/>
     <mergeCell ref="A5:C6"/>
     <mergeCell ref="AA5:AC5"/>
@@ -32888,6 +32407,8 @@
     <mergeCell ref="AA2:AC2"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AD4:AG4"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -33003,15 +32524,15 @@
       <c r="B5" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="191" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="193"/>
-      <c r="E5" s="193"/>
-      <c r="F5" s="193"/>
-      <c r="G5" s="193"/>
-      <c r="H5" s="193"/>
-      <c r="I5" s="194"/>
+      <c r="D5" s="192"/>
+      <c r="E5" s="192"/>
+      <c r="F5" s="192"/>
+      <c r="G5" s="192"/>
+      <c r="H5" s="192"/>
+      <c r="I5" s="193"/>
       <c r="J5" s="70" t="s">
         <v>68</v>
       </c>
@@ -33022,10 +32543,10 @@
       <c r="B6" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="192" t="s">
+      <c r="C6" s="191" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="194"/>
+      <c r="D6" s="193"/>
       <c r="E6" s="28"/>
       <c r="F6" s="80"/>
       <c r="G6" s="80"/>
@@ -33808,15 +33329,15 @@
       <c r="B5" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="191" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="193"/>
-      <c r="E5" s="193"/>
-      <c r="F5" s="193"/>
-      <c r="G5" s="193"/>
-      <c r="H5" s="193"/>
-      <c r="I5" s="194"/>
+      <c r="D5" s="192"/>
+      <c r="E5" s="192"/>
+      <c r="F5" s="192"/>
+      <c r="G5" s="192"/>
+      <c r="H5" s="192"/>
+      <c r="I5" s="193"/>
       <c r="J5" s="70" t="s">
         <v>68</v>
       </c>
@@ -33827,10 +33348,10 @@
       <c r="B6" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="192" t="s">
+      <c r="C6" s="191" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="194"/>
+      <c r="D6" s="193"/>
       <c r="E6" s="28"/>
       <c r="F6" s="80"/>
       <c r="G6" s="80"/>
@@ -34624,15 +34145,15 @@
       <c r="B5" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="191" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="193"/>
-      <c r="E5" s="193"/>
-      <c r="F5" s="193"/>
-      <c r="G5" s="193"/>
-      <c r="H5" s="193"/>
-      <c r="I5" s="194"/>
+      <c r="D5" s="192"/>
+      <c r="E5" s="192"/>
+      <c r="F5" s="192"/>
+      <c r="G5" s="192"/>
+      <c r="H5" s="192"/>
+      <c r="I5" s="193"/>
       <c r="J5" s="70" t="s">
         <v>68</v>
       </c>
@@ -34643,10 +34164,10 @@
       <c r="B6" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="192" t="s">
+      <c r="C6" s="191" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="194"/>
+      <c r="D6" s="193"/>
       <c r="E6" s="28"/>
       <c r="F6" s="80"/>
       <c r="G6" s="80"/>
@@ -35471,15 +34992,15 @@
       <c r="B5" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="191" t="s">
         <v>176</v>
       </c>
-      <c r="D5" s="193"/>
-      <c r="E5" s="193"/>
-      <c r="F5" s="193"/>
-      <c r="G5" s="193"/>
-      <c r="H5" s="193"/>
-      <c r="I5" s="194"/>
+      <c r="D5" s="192"/>
+      <c r="E5" s="192"/>
+      <c r="F5" s="192"/>
+      <c r="G5" s="192"/>
+      <c r="H5" s="192"/>
+      <c r="I5" s="193"/>
       <c r="J5" s="70" t="s">
         <v>68</v>
       </c>
@@ -35490,10 +35011,10 @@
       <c r="B6" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="192" t="s">
+      <c r="C6" s="191" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="194"/>
+      <c r="D6" s="193"/>
       <c r="E6" s="28"/>
       <c r="F6" s="80"/>
       <c r="G6" s="80"/>
@@ -36318,15 +35839,15 @@
       <c r="B5" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="191" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="193"/>
-      <c r="E5" s="193"/>
-      <c r="F5" s="193"/>
-      <c r="G5" s="193"/>
-      <c r="H5" s="193"/>
-      <c r="I5" s="194"/>
+      <c r="D5" s="192"/>
+      <c r="E5" s="192"/>
+      <c r="F5" s="192"/>
+      <c r="G5" s="192"/>
+      <c r="H5" s="192"/>
+      <c r="I5" s="193"/>
       <c r="J5" s="70" t="s">
         <v>68</v>
       </c>
@@ -36337,10 +35858,10 @@
       <c r="B6" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="192" t="s">
+      <c r="C6" s="191" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="194"/>
+      <c r="D6" s="193"/>
       <c r="E6" s="28"/>
       <c r="F6" s="80"/>
       <c r="G6" s="80"/>
@@ -37047,6 +36568,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100DABD14941EAAFE4DB610C718A348C248" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="287c1e732a1e8d859cce4fc15fcb6a43">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="13d2a8c9-9fb6-41e1-8ed2-65b77f4e5958" xmlns:ns3="b918c7ec-5ef7-4a4c-89d5-00532501c535" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="41b3ae43e40c98335c69a3561cfba440" ns2:_="" ns3:_="">
     <xsd:import namespace="13d2a8c9-9fb6-41e1-8ed2-65b77f4e5958"/>
@@ -37211,22 +36747,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A407E75-EA60-45A3-8596-3AE9B5B47AEE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60490CEE-9E57-4F61-A8AC-28802ECF76B0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA152F73-DAE7-4A1E-8E97-5C09D1467DE2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -37243,21 +36781,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60490CEE-9E57-4F61-A8AC-28802ECF76B0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A407E75-EA60-45A3-8596-3AE9B5B47AEE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>